--- a/msff/xls/job_satisfaction_predictor.xlsx
+++ b/msff/xls/job_satisfaction_predictor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1D9AE7-4FB2-4A09-B4CF-F83BFDE8D912}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD1D897-037F-4AD5-A4C6-D24850516102}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
   <si>
     <t>GS</t>
   </si>
@@ -78,9 +78,6 @@
     <t>2 #detailed, perl</t>
   </si>
   <si>
-    <t>$$$$</t>
-  </si>
-  <si>
     <t>0 # ≈ grads</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>$</t>
-  </si>
-  <si>
-    <t>$$$$$</t>
   </si>
   <si>
     <t>5 #java/SQL</t>
@@ -149,9 +143,6 @@
   </si>
   <si>
     <t>.. LG: strategic tsn? White elephant</t>
-  </si>
-  <si>
-    <t>2 #py,devops</t>
   </si>
   <si>
     <t>2 #j</t>
@@ -225,9 +216,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>5 #bond</t>
-  </si>
-  <si>
     <t>9 #remote</t>
   </si>
   <si>
@@ -274,9 +262,6 @@
  rating</t>
   </si>
   <si>
-    <t>1 [b,f]</t>
-  </si>
-  <si>
     <t>0 #humiliation</t>
   </si>
   <si>
@@ -287,9 +272,6 @@
   </si>
   <si>
     <t>[f] transfer offered</t>
-  </si>
-  <si>
-    <t>3→0 [f]</t>
   </si>
   <si>
     <t>1 [f] #Sundip</t>
@@ -326,9 +308,6 @@
     <t>10 [d,e]</t>
   </si>
   <si>
-    <t>time/permisssion4 blogging</t>
-  </si>
-  <si>
     <t>4 #low expectation</t>
   </si>
   <si>
@@ -347,9 +326,6 @@
     <t>6) mkt depth # =}job security</t>
   </si>
   <si>
-    <t xml:space="preserve">LG: accu/churn? All similar rating </t>
-  </si>
-  <si>
     <t>STRESS is a composite and subjective criteria. I prefer to analyze the underlying factors such as free time, workload, mkt-depth</t>
   </si>
   <si>
@@ -357,12 +333,6 @@
   </si>
   <si>
     <t>3)measurable workload #teammates, bonus</t>
-  </si>
-  <si>
-    <t>[g] never happens to contractors</t>
-  </si>
-  <si>
-    <t>1) respect/app  by boss, relative2team #damaged goods = 0[g]</t>
   </si>
   <si>
     <t>.. per adv #理论,absorbency,细致,,</t>
@@ -376,9 +346,6 @@
   </si>
   <si>
     <t>.. Commute(A-F) = #1 component</t>
-  </si>
-  <si>
-    <t>distractions: kids,DIY,MSFM</t>
   </si>
   <si>
     <t>~~ presentation tips</t>
@@ -397,6 +364,45 @@
   </si>
   <si>
     <t>positive parts were neglected, brushed aside</t>
+  </si>
+  <si>
+    <t>[g] 0=damangedGoods, never happens to contractors</t>
+  </si>
+  <si>
+    <t>1) respect/app  by boss, relative2team]</t>
+  </si>
+  <si>
+    <t>3→0 [g,f]</t>
+  </si>
+  <si>
+    <t>1[b,f,g]</t>
+  </si>
+  <si>
+    <t>LG: distractions: kids,DIY,MSFM</t>
+  </si>
+  <si>
+    <t>LG: permisssion/time4 blogg #luxury</t>
+  </si>
+  <si>
+    <t>..accu, robust demand[h] # =}job security</t>
+  </si>
+  <si>
+    <t>[h] this is NOT (like mktDepth) about number of jobs</t>
+  </si>
+  <si>
+    <t>1 #py,devops</t>
+  </si>
+  <si>
+    <t>3 #pric`</t>
+  </si>
+  <si>
+    <t>4 #exec</t>
+  </si>
+  <si>
+    <t>$$$ $$</t>
+  </si>
+  <si>
+    <t>$$$ $</t>
   </si>
 </sst>
 </file>
@@ -804,6 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -814,7 +821,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,11 +1159,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1168,7 +1174,7 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" customWidth="1"/>
@@ -1184,10 +1190,10 @@
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>0</v>
@@ -1196,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>2</v>
@@ -1234,7 +1240,7 @@
     <row r="2" spans="1:27" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
@@ -1243,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4">
         <v>2</v>
@@ -1287,40 +1293,40 @@
     <row r="3" spans="1:27" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4">
         <v>3</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4">
         <v>8</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
@@ -1353,10 +1359,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1374,34 +1380,34 @@
     <row r="5" spans="1:27" ht="49.5">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
@@ -1410,10 +1416,10 @@
         <v>9</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1431,10 +1437,10 @@
     <row r="6" spans="1:27" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="25" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1458,19 +1464,19 @@
         <v>2</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" s="10">
         <v>5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1488,7 +1494,7 @@
     <row r="7" spans="1:27" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C7" s="57">
         <v>2</v>
@@ -1500,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1518,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6">
         <v>4</v>
@@ -1541,7 +1547,7 @@
     <row r="8" spans="1:27" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C8" s="19">
         <v>5</v>
@@ -1550,13 +1556,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -1565,22 +1571,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M8" s="6">
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1598,46 +1604,46 @@
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>16</v>
+      <c r="L9" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1655,7 +1661,7 @@
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1670,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1691,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1712,13 +1718,13 @@
     <row r="11" spans="1:27" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>9</v>
+      <c r="C11" s="19">
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1739,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1765,22 +1771,22 @@
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="53" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H12" s="4">
         <v>8</v>
@@ -1818,40 +1824,40 @@
     <row r="13" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="45" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
@@ -1871,7 +1877,7 @@
     <row r="14" spans="1:27" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5">
         <v>4</v>
@@ -1880,13 +1886,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H14" s="4">
         <v>3</v>
@@ -1895,16 +1901,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="K14" s="4">
         <v>4</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
-      <c r="M14" s="4">
-        <v>4</v>
+      <c r="M14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1922,142 +1928,144 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
-        <v>101</v>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>111</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="28">
+        <v>3</v>
+      </c>
+      <c r="D15" s="28">
+        <v>4</v>
+      </c>
+      <c r="E15" s="28">
+        <v>3</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="28">
+        <v>3</v>
+      </c>
+      <c r="H15" s="28">
         <v>2</v>
       </c>
-      <c r="D15" s="33">
+      <c r="I15" s="28">
+        <v>3</v>
+      </c>
+      <c r="J15" s="28">
+        <v>4</v>
+      </c>
+      <c r="K15" s="28">
+        <v>5</v>
+      </c>
+      <c r="L15" s="28">
+        <v>3</v>
+      </c>
+      <c r="M15" s="28">
+        <v>3</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+    </row>
+    <row r="16" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="33">
         <v>2</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>25</v>
+      <c r="D16" s="33">
+        <v>2</v>
       </c>
-      <c r="F15" s="33">
+      <c r="E16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="33">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G16" s="33">
         <v>1</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H16" s="33">
         <v>2</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I16" s="33">
         <v>5</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J16" s="33">
         <v>5</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K16" s="33">
         <v>5</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L16" s="33">
         <v>3</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M16" s="33">
         <v>3</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="36">
-        <v>5</v>
-      </c>
-      <c r="D17" s="35">
-        <v>3</v>
-      </c>
-      <c r="E17" s="36">
-        <v>1</v>
-      </c>
-      <c r="F17" s="37">
-        <v>3</v>
-      </c>
-      <c r="G17" s="36">
-        <v>2</v>
-      </c>
-      <c r="H17" s="36">
-        <v>3</v>
-      </c>
-      <c r="I17" s="36">
-        <v>4</v>
-      </c>
-      <c r="J17" s="37">
-        <v>3</v>
-      </c>
-      <c r="K17" s="36">
-        <v>3</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C18" s="58">
         <v>3</v>
@@ -2066,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="F18" s="61" t="s">
-        <v>18</v>
+      <c r="F18" s="62" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18" s="4">
         <v>3</v>
@@ -2090,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2110,7 +2118,7 @@
     <row r="19" spans="1:27" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
@@ -2121,12 +2129,12 @@
       <c r="E19" s="52">
         <v>4</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="12">
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4">
@@ -2136,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M19" s="4">
         <v>2</v>
@@ -2156,58 +2164,56 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" s="29" customFormat="1" ht="16.5">
-      <c r="A20" s="26"/>
-      <c r="B20" s="30" t="s">
-        <v>109</v>
+    <row r="20" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="44" t="s">
+        <v>110</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>23</v>
+      <c r="C20" s="36">
+        <v>5</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>22</v>
+      <c r="D20" s="35">
+        <v>3</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>23</v>
+      <c r="E20" s="36">
+        <v>1</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>23</v>
+      <c r="F20" s="37">
+        <v>3</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>23</v>
+      <c r="G20" s="36">
+        <v>2</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>23</v>
+      <c r="H20" s="36">
+        <v>3</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>22</v>
+      <c r="I20" s="36">
+        <v>4</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="37">
+        <v>3</v>
+      </c>
+      <c r="K20" s="36">
+        <v>3</v>
+      </c>
+      <c r="L20" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
     </row>
     <row r="21" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="26"/>
@@ -2238,43 +2244,43 @@
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
     </row>
-    <row r="22" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="22" spans="1:27" s="29" customFormat="1" ht="16.5">
       <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>99</v>
+      <c r="B22" s="30" t="s">
+        <v>109</v>
       </c>
-      <c r="C22" s="28">
-        <v>4</v>
+      <c r="C22" s="59" t="s">
+        <v>21</v>
       </c>
-      <c r="D22" s="28">
-        <v>3</v>
+      <c r="D22" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="E22" s="28">
-        <v>3</v>
+      <c r="E22" s="50" t="s">
+        <v>21</v>
       </c>
-      <c r="F22" s="28">
-        <v>1</v>
+      <c r="F22" s="28" t="s">
+        <v>21</v>
       </c>
-      <c r="G22" s="28">
-        <v>4</v>
+      <c r="G22" s="28" t="s">
+        <v>21</v>
       </c>
-      <c r="H22" s="28">
-        <v>3</v>
+      <c r="H22" s="28" t="s">
+        <v>21</v>
       </c>
-      <c r="I22" s="28">
-        <v>3</v>
+      <c r="I22" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="J22" s="28">
-        <v>4</v>
+      <c r="J22" s="28" t="s">
+        <v>22</v>
       </c>
-      <c r="K22" s="28">
-        <v>5</v>
+      <c r="K22" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="L22" s="28">
-        <v>3</v>
+      <c r="L22" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="M22" s="28">
-        <v>4</v>
+      <c r="M22" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
@@ -2294,7 +2300,7 @@
     <row r="23" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -2327,7 +2333,7 @@
     <row r="24" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -2387,7 +2393,7 @@
     <row r="26" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2418,7 +2424,7 @@
     <row r="27" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -2449,7 +2455,7 @@
     <row r="28" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -2480,7 +2486,7 @@
     <row r="29" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -2511,7 +2517,7 @@
     <row r="30" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2542,7 +2548,7 @@
     <row r="31" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -2573,7 +2579,7 @@
     <row r="32" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -2604,7 +2610,7 @@
     <row r="33" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -2634,7 +2640,9 @@
     </row>
     <row r="34" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -2663,9 +2671,7 @@
     </row>
     <row r="35" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="26" t="s">
-        <v>110</v>
-      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -2695,7 +2701,7 @@
     <row r="36" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -2723,46 +2729,46 @@
       <c r="Z36" s="26"/>
       <c r="AA36" s="26"/>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1">
-      <c r="B37" s="65" t="s">
-        <v>113</v>
+    <row r="37" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26" t="s">
+        <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26" t="s">
-        <v>111</v>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" customHeight="1">
+      <c r="B38" s="61" t="s">
+        <v>102</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
     </row>
     <row r="39" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -2792,7 +2798,9 @@
     </row>
     <row r="40" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
@@ -9924,34 +9932,34 @@
       <c r="Z285" s="26"/>
       <c r="AA285" s="26"/>
     </row>
-    <row r="286" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="1"/>
-      <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
-      <c r="L286" s="1"/>
-      <c r="M286" s="1"/>
-      <c r="N286" s="1"/>
-      <c r="O286" s="1"/>
-      <c r="P286" s="1"/>
-      <c r="Q286" s="1"/>
-      <c r="R286" s="1"/>
-      <c r="S286" s="1"/>
-      <c r="T286" s="1"/>
-      <c r="U286" s="1"/>
-      <c r="V286" s="1"/>
-      <c r="W286" s="1"/>
-      <c r="X286" s="1"/>
-      <c r="Y286" s="1"/>
-      <c r="Z286" s="1"/>
-      <c r="AA286" s="1"/>
+    <row r="286" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
+      <c r="C286" s="38"/>
+      <c r="D286" s="38"/>
+      <c r="E286" s="38"/>
+      <c r="F286" s="26"/>
+      <c r="G286" s="26"/>
+      <c r="H286" s="26"/>
+      <c r="I286" s="26"/>
+      <c r="J286" s="26"/>
+      <c r="K286" s="26"/>
+      <c r="L286" s="26"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="26"/>
+      <c r="O286" s="26"/>
+      <c r="P286" s="26"/>
+      <c r="Q286" s="26"/>
+      <c r="R286" s="26"/>
+      <c r="S286" s="26"/>
+      <c r="T286" s="26"/>
+      <c r="U286" s="26"/>
+      <c r="V286" s="26"/>
+      <c r="W286" s="26"/>
+      <c r="X286" s="26"/>
+      <c r="Y286" s="26"/>
+      <c r="Z286" s="26"/>
+      <c r="AA286" s="26"/>
     </row>
     <row r="287" spans="1:27" ht="16.5" customHeight="1">
       <c r="A287" s="1"/>
@@ -30717,10 +30725,39 @@
       <c r="Z1002" s="1"/>
       <c r="AA1002" s="1"/>
     </row>
+    <row r="1003" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+      <c r="AA1003" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/msff/xls/job_satisfaction_predictor.xlsx
+++ b/msff/xls/job_satisfaction_predictor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD1D897-037F-4AD5-A4C6-D24850516102}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-120" windowWidth="28560" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="121">
   <si>
     <t>GS</t>
   </si>
@@ -308,9 +307,6 @@
     <t>10 [d,e]</t>
   </si>
   <si>
-    <t>4 #low expectation</t>
-  </si>
-  <si>
     <t>3 #bonus</t>
   </si>
   <si>
@@ -393,9 +389,6 @@
     <t>1 #py,devops</t>
   </si>
   <si>
-    <t>3 #pric`</t>
-  </si>
-  <si>
     <t>4 #exec</t>
   </si>
   <si>
@@ -404,12 +397,38 @@
   <si>
     <t>$$$ $</t>
   </si>
+  <si>
+    <t>3 → 4 #low expectation</t>
+  </si>
+  <si>
+    <t>4++ #5M short</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$$$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>$$$</t>
+    </r>
+  </si>
+  <si>
+    <t>4++</t>
+  </si>
+  <si>
+    <t>4 #pric`</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,6 +512,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -914,23 +939,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -966,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1158,12 +1149,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1362,7 +1353,7 @@
         <v>48</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1380,10 +1371,10 @@
     <row r="5" spans="1:27" ht="49.5">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1395,10 +1386,10 @@
         <v>75</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>31</v>
@@ -1437,7 +1428,7 @@
     <row r="6" spans="1:27" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>59</v>
@@ -1470,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>44</v>
@@ -1494,7 +1485,7 @@
     <row r="7" spans="1:27" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="57">
         <v>2</v>
@@ -1547,7 +1538,7 @@
     <row r="8" spans="1:27" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="19">
         <v>5</v>
@@ -1579,8 +1570,8 @@
       <c r="L8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="6">
-        <v>5</v>
+      <c r="M8" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>44</v>
@@ -1604,10 +1595,10 @@
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1634,10 +1625,10 @@
         <v>13</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>44</v>
@@ -1676,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1718,7 +1709,7 @@
     <row r="11" spans="1:27" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="19">
         <v>5</v>
@@ -1771,7 +1762,7 @@
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>85</v>
@@ -1824,7 +1815,7 @@
     <row r="13" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>80</v>
@@ -1877,10 +1868,10 @@
     <row r="14" spans="1:27" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1892,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="4">
         <v>3</v>
@@ -1900,17 +1891,17 @@
       <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>114</v>
+      <c r="J14" s="19" t="s">
+        <v>120</v>
       </c>
-      <c r="K14" s="4">
-        <v>4</v>
+      <c r="K14" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1930,7 +1921,7 @@
     <row r="15" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="28">
         <v>3</v>
@@ -1983,7 +1974,7 @@
     <row r="16" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="33">
         <v>2</v>
@@ -2065,7 +2056,7 @@
     <row r="18" spans="1:27" ht="33">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="58">
         <v>3</v>
@@ -2167,7 +2158,7 @@
     <row r="20" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="31"/>
       <c r="B20" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="36">
         <v>5</v>
@@ -2247,7 +2238,7 @@
     <row r="22" spans="1:27" s="29" customFormat="1" ht="16.5">
       <c r="A22" s="26"/>
       <c r="B22" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>21</v>
@@ -2393,7 +2384,7 @@
     <row r="26" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2610,7 +2601,7 @@
     <row r="33" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -2641,7 +2632,7 @@
     <row r="34" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -2701,7 +2692,7 @@
     <row r="36" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -2762,13 +2753,13 @@
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1">
       <c r="B38" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -2799,7 +2790,7 @@
     <row r="40" spans="1:27" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="26"/>
       <c r="B40" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>

--- a/msff/xls/job_satisfaction_predictor.xlsx
+++ b/msff/xls/job_satisfaction_predictor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062B0BD0-750F-4C7C-9DAE-FC501F8C9163}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="-120" windowWidth="28560" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
   <si>
     <t>GS</t>
   </si>
@@ -219,9 +218,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>2 #detail</t>
-  </si>
-  <si>
     <t>4 [c]</t>
   </si>
   <si>
@@ -306,9 +302,6 @@
   </si>
   <si>
     <t>2) self-esteem@totalComp</t>
-  </si>
-  <si>
-    <t>5) free  time 0-10 #leaves,WFH</t>
   </si>
   <si>
     <t>6) mkt depth # =}job security</t>
@@ -422,19 +415,28 @@
     <t>.. cf: benefits # additional pay,med,leave</t>
   </si>
   <si>
-    <t>4→5</t>
-  </si>
-  <si>
     <t>3)measurable WLB [3]</t>
   </si>
   <si>
     <t>[3] work-life-balance=workload/intensity, considering teammates  speed; bonus mtv; timeline</t>
   </si>
+  <si>
+    <t>2}1 #detail</t>
+  </si>
+  <si>
+    <t>5) free  time #leaves,WFH</t>
+  </si>
+  <si>
+    <t>[i] see https://btv-gz.dreamhosters.com/42801/primary-lang-ft_job-has-good-demand/</t>
+  </si>
+  <si>
+    <t>..primay lang[i]: deserves 5Y loyality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -572,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -704,11 +706,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -883,6 +900,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,23 +995,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1028,23 +1030,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,12 +1205,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB1005"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1304,7 +1289,7 @@
     <row r="2" spans="1:28" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
@@ -1358,7 +1343,7 @@
     <row r="3" spans="1:28" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -1388,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>34</v>
@@ -1429,7 +1414,7 @@
         <v>46</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1447,10 +1432,10 @@
     <row r="5" spans="1:28" ht="49.5">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1459,13 +1444,13 @@
         <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>31</v>
@@ -1474,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
@@ -1505,10 +1490,10 @@
     <row r="6" spans="1:28" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1538,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N6" s="65"/>
       <c r="O6" s="1" t="s">
@@ -1563,7 +1548,7 @@
     <row r="7" spans="1:28" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="57">
         <v>2</v>
@@ -1575,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1617,7 +1602,7 @@
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="19">
         <v>5</v>
@@ -1626,13 +1611,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -1641,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N8" s="66"/>
       <c r="O8" s="1" t="s">
@@ -1675,10 +1660,10 @@
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1705,10 +1690,10 @@
         <v>13</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N9" s="63"/>
       <c r="O9" s="1" t="s">
@@ -1733,7 +1718,7 @@
     <row r="10" spans="1:28" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1748,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
@@ -1791,13 +1776,13 @@
     <row r="11" spans="1:28" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>120</v>
+      <c r="C11" s="19">
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1845,22 +1830,22 @@
     <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="53" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="4">
         <v>8</v>
@@ -1899,40 +1884,40 @@
     <row r="13" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="67"/>
       <c r="O13" s="26"/>
@@ -1953,7 +1938,7 @@
     <row r="14" spans="1:28" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
@@ -1968,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H14" s="4">
         <v>3</v>
@@ -1977,16 +1962,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N14" s="63"/>
       <c r="O14" s="1"/>
@@ -2007,7 +1992,7 @@
     <row r="15" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="28">
         <v>3</v>
@@ -2059,42 +2044,42 @@
       <c r="AB15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
-        <v>89</v>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75" t="s">
+        <v>123</v>
       </c>
       <c r="C16" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>23</v>
+      <c r="E16" s="33">
+        <v>3</v>
       </c>
       <c r="F16" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="33">
         <v>2</v>
       </c>
       <c r="I16" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="33">
         <v>5</v>
       </c>
       <c r="K16" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" s="33">
         <v>3</v>
       </c>
       <c r="M16" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" s="68"/>
       <c r="O16" s="34"/>
@@ -2112,74 +2097,74 @@
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
     </row>
-    <row r="17" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" ht="33">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
+    <row r="17" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
+        <v>87</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C17" s="33">
         <v>3</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D17" s="33">
         <v>2</v>
       </c>
-      <c r="E18" s="51" t="s">
-        <v>15</v>
+      <c r="E17" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="F18" s="70" t="s">
-        <v>16</v>
+      <c r="F17" s="33">
+        <v>1</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>30</v>
+      <c r="G17" s="33">
+        <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
+      <c r="H17" s="33">
+        <v>2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I17" s="33">
+        <v>5</v>
+      </c>
+      <c r="J17" s="33">
+        <v>5</v>
+      </c>
+      <c r="K17" s="33">
+        <v>5</v>
+      </c>
+      <c r="L17" s="33">
         <v>3</v>
       </c>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="M17" s="33">
         <v>3</v>
       </c>
-      <c r="L18" s="4">
-        <v>5</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="N17" s="68"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+    </row>
+    <row r="18" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="63"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2196,39 +2181,43 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="16.5" customHeight="1">
+    <row r="19" spans="1:28" ht="33">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
+      <c r="B19" s="11" t="s">
+        <v>90</v>
       </c>
-      <c r="C19" s="5">
-        <v>4</v>
+      <c r="C19" s="58">
+        <v>3</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <v>2</v>
       </c>
-      <c r="E19" s="52">
-        <v>4</v>
+      <c r="E19" s="51" t="s">
+        <v>15</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="12">
-        <v>1</v>
+      <c r="F19" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
       <c r="J19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>29</v>
+      <c r="L19" s="4">
+        <v>5</v>
       </c>
-      <c r="M19" s="4">
-        <v>2</v>
+      <c r="M19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="N19" s="63"/>
       <c r="O19" s="1"/>
@@ -2246,126 +2235,122 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="44" t="s">
-        <v>105</v>
+    <row r="20" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+      <c r="D20" s="49">
+        <v>2</v>
+      </c>
+      <c r="E20" s="52">
+        <v>4</v>
+      </c>
+      <c r="F20" s="71"/>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>4</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="36">
         <v>5</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D21" s="35">
         <v>3</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E21" s="36">
         <v>1</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F21" s="37">
         <v>3</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G21" s="36">
         <v>2</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H21" s="36">
         <v>3</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I21" s="36">
         <v>4</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J21" s="37">
         <v>3</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K21" s="36">
         <v>3</v>
       </c>
-      <c r="L20" s="72" t="s">
+      <c r="L21" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="73"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-    </row>
-    <row r="21" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-    </row>
-    <row r="22" spans="1:28" s="29" customFormat="1" ht="16.5">
+      <c r="M21" s="73"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+    </row>
+    <row r="22" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="26"/>
-      <c r="B22" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="63"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
@@ -2382,24 +2367,44 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
-    <row r="23" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="23" spans="1:28" s="29" customFormat="1" ht="16.5">
       <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
-        <v>25</v>
+      <c r="B23" s="30" t="s">
+        <v>102</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28">
-        <v>5</v>
+      <c r="C23" s="59" t="s">
+        <v>21</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="D23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="N23" s="63"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
@@ -2419,7 +2424,7 @@
     <row r="24" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -2429,7 +2434,9 @@
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="K24" s="28">
+        <v>5</v>
+      </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="63"/>
@@ -2450,19 +2457,21 @@
     </row>
     <row r="25" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
+      <c r="B25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="63"/>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -2480,9 +2489,7 @@
     </row>
     <row r="26" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -2513,7 +2520,7 @@
     <row r="27" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -2545,7 +2552,7 @@
     <row r="28" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -2577,7 +2584,7 @@
     <row r="29" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -2609,7 +2616,7 @@
     <row r="30" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2641,7 +2648,7 @@
     <row r="31" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -2672,8 +2679,8 @@
     </row>
     <row r="32" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="43" t="s">
-        <v>65</v>
+      <c r="B32" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -2704,8 +2711,8 @@
     </row>
     <row r="33" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="26" t="s">
-        <v>71</v>
+      <c r="B33" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -2737,7 +2744,7 @@
     <row r="34" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -2769,7 +2776,7 @@
     <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -2800,7 +2807,9 @@
     </row>
     <row r="36" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -2830,8 +2839,8 @@
     </row>
     <row r="37" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="26"/>
-      <c r="B37" s="26" t="s">
-        <v>94</v>
+      <c r="B37" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -2863,7 +2872,7 @@
     <row r="38" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -2892,47 +2901,47 @@
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
     </row>
-    <row r="39" spans="1:28" ht="15" customHeight="1">
-      <c r="B39" s="61" t="s">
-        <v>97</v>
+    <row r="39" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26" t="s">
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+    </row>
+    <row r="40" spans="1:28" ht="15" customHeight="1">
+      <c r="B40" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
     </row>
     <row r="41" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -2963,7 +2972,9 @@
     </row>
     <row r="42" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
@@ -10341,35 +10352,35 @@
       <c r="AA287" s="26"/>
       <c r="AB287" s="26"/>
     </row>
-    <row r="288" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
-      <c r="M288" s="1"/>
-      <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
-      <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
-      <c r="R288" s="1"/>
-      <c r="S288" s="1"/>
-      <c r="T288" s="1"/>
-      <c r="U288" s="1"/>
-      <c r="V288" s="1"/>
-      <c r="W288" s="1"/>
-      <c r="X288" s="1"/>
-      <c r="Y288" s="1"/>
-      <c r="Z288" s="1"/>
-      <c r="AA288" s="1"/>
-      <c r="AB288" s="1"/>
+    <row r="288" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A288" s="26"/>
+      <c r="B288" s="26"/>
+      <c r="C288" s="38"/>
+      <c r="D288" s="38"/>
+      <c r="E288" s="38"/>
+      <c r="F288" s="26"/>
+      <c r="G288" s="26"/>
+      <c r="H288" s="26"/>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="26"/>
+      <c r="L288" s="26"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="26"/>
+      <c r="O288" s="26"/>
+      <c r="P288" s="26"/>
+      <c r="Q288" s="26"/>
+      <c r="R288" s="26"/>
+      <c r="S288" s="26"/>
+      <c r="T288" s="26"/>
+      <c r="U288" s="26"/>
+      <c r="V288" s="26"/>
+      <c r="W288" s="26"/>
+      <c r="X288" s="26"/>
+      <c r="Y288" s="26"/>
+      <c r="Z288" s="26"/>
+      <c r="AA288" s="26"/>
+      <c r="AB288" s="26"/>
     </row>
     <row r="289" spans="1:28" ht="16.5" customHeight="1">
       <c r="A289" s="1"/>
@@ -31851,10 +31862,40 @@
       <c r="AA1004" s="1"/>
       <c r="AB1004" s="1"/>
     </row>
+    <row r="1005" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+      <c r="AA1005" s="1"/>
+      <c r="AB1005" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/msff/xls/job_satisfaction_predictor.xlsx
+++ b/msff/xls/job_satisfaction_predictor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66E01B-E6D5-4027-A17B-F28EAB43EFFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-120" windowWidth="28560" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>GS</t>
   </si>
@@ -421,9 +420,6 @@
     <t>3&gt;2</t>
   </si>
   <si>
-    <t>3&gt;4 #low expectation</t>
-  </si>
-  <si>
     <t>3&gt;0 [g,f]</t>
   </si>
   <si>
@@ -447,12 +443,25 @@
   <si>
     <t>1 #detailed</t>
   </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;3</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1010,23 +1019,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1062,23 +1054,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,15 +1229,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
@@ -1283,7 +1258,7 @@
     <col min="17" max="28" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="54" t="s">
@@ -1335,7 +1310,7 @@
       <c r="AA1" s="39"/>
       <c r="AB1" s="39"/>
     </row>
-    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>109</v>
@@ -1389,7 +1364,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>110</v>
@@ -1442,7 +1417,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -1478,13 +1453,13 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="33">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1496,7 +1471,7 @@
         <v>67</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>96</v>
@@ -1536,13 +1511,13 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1594,13 +1569,13 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="57">
-        <v>2</v>
+      <c r="C7" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -1648,7 +1623,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25" t="s">
         <v>79</v>
@@ -1706,7 +1681,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
         <v>80</v>
@@ -1764,7 +1739,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
         <v>111</v>
@@ -1822,13 +1797,13 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>116</v>
@@ -1840,25 +1815,25 @@
         <v>119</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="5">
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="M11" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N11" s="63"/>
       <c r="O11" s="1"/>
@@ -1876,7 +1851,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="53" t="s">
         <v>117</v>
@@ -1930,7 +1905,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="45" t="s">
         <v>87</v>
@@ -1984,7 +1959,7 @@
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
     </row>
-    <row r="14" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
         <v>81</v>
@@ -2038,7 +2013,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
         <v>99</v>
@@ -2092,7 +2067,7 @@
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
     </row>
-    <row r="16" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="70"/>
       <c r="B16" s="71" t="s">
         <v>113</v>
@@ -2146,7 +2121,7 @@
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
     </row>
-    <row r="17" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
         <v>83</v>
@@ -2200,7 +2175,7 @@
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
     </row>
-    <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -2230,7 +2205,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="33">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
         <v>86</v>
@@ -2284,7 +2259,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -2334,7 +2309,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="31"/>
       <c r="B21" s="44" t="s">
         <v>98</v>
@@ -2386,7 +2361,7 @@
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
     </row>
-    <row r="22" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
@@ -2416,7 +2391,7 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
-    <row r="23" spans="1:28" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="29" customFormat="1" ht="16.5">
       <c r="A23" s="26"/>
       <c r="B23" s="30" t="s">
         <v>97</v>
@@ -2470,7 +2445,7 @@
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
     </row>
-    <row r="24" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="27" t="s">
         <v>24</v>
@@ -2504,7 +2479,7 @@
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
     </row>
-    <row r="25" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
         <v>25</v>
@@ -2536,7 +2511,7 @@
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
     </row>
-    <row r="26" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="38"/>
@@ -2566,7 +2541,7 @@
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
     </row>
-    <row r="27" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
         <v>82</v>
@@ -2598,7 +2573,7 @@
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
     </row>
-    <row r="28" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
         <v>115</v>
@@ -2630,7 +2605,7 @@
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
     </row>
-    <row r="29" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
         <v>57</v>
@@ -2662,7 +2637,7 @@
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
     </row>
-    <row r="30" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
         <v>58</v>
@@ -2694,7 +2669,7 @@
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
     </row>
-    <row r="31" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="26" t="s">
         <v>59</v>
@@ -2726,7 +2701,7 @@
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
     </row>
-    <row r="32" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="26" t="s">
         <v>60</v>
@@ -2758,7 +2733,7 @@
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
     </row>
-    <row r="33" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="43" t="s">
         <v>61</v>
@@ -2790,7 +2765,7 @@
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
     </row>
-    <row r="34" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
         <v>66</v>
@@ -2822,7 +2797,7 @@
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="26" t="s">
         <v>94</v>
@@ -2854,7 +2829,7 @@
       <c r="AA35" s="26"/>
       <c r="AB35" s="26"/>
     </row>
-    <row r="36" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
         <v>100</v>
@@ -2886,7 +2861,7 @@
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
     </row>
-    <row r="37" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="26"/>
       <c r="B37" s="43" t="s">
         <v>112</v>
@@ -2918,7 +2893,7 @@
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
     </row>
-    <row r="38" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
         <v>88</v>
@@ -2950,7 +2925,7 @@
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
     </row>
-    <row r="39" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
         <v>76</v>
@@ -2982,12 +2957,12 @@
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
     </row>
-    <row r="40" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15" customHeight="1">
       <c r="B40" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
         <v>89</v>
@@ -3019,7 +2994,7 @@
       <c r="AA41" s="26"/>
       <c r="AB41" s="26"/>
     </row>
-    <row r="42" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
         <v>92</v>
@@ -3051,7 +3026,7 @@
       <c r="AA42" s="26"/>
       <c r="AB42" s="26"/>
     </row>
-    <row r="43" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="38"/>
@@ -3081,7 +3056,7 @@
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
     </row>
-    <row r="44" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="38"/>
@@ -3111,7 +3086,7 @@
       <c r="AA44" s="26"/>
       <c r="AB44" s="26"/>
     </row>
-    <row r="45" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="38"/>
@@ -3141,7 +3116,7 @@
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
     </row>
-    <row r="46" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="38"/>
@@ -3171,7 +3146,7 @@
       <c r="AA46" s="26"/>
       <c r="AB46" s="26"/>
     </row>
-    <row r="47" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="38"/>
@@ -3201,7 +3176,7 @@
       <c r="AA47" s="26"/>
       <c r="AB47" s="26"/>
     </row>
-    <row r="48" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="38"/>
@@ -3231,7 +3206,7 @@
       <c r="AA48" s="26"/>
       <c r="AB48" s="26"/>
     </row>
-    <row r="49" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="38"/>
@@ -3261,7 +3236,7 @@
       <c r="AA49" s="26"/>
       <c r="AB49" s="26"/>
     </row>
-    <row r="50" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="38"/>
@@ -3291,7 +3266,7 @@
       <c r="AA50" s="26"/>
       <c r="AB50" s="26"/>
     </row>
-    <row r="51" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="38"/>
@@ -3321,7 +3296,7 @@
       <c r="AA51" s="26"/>
       <c r="AB51" s="26"/>
     </row>
-    <row r="52" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="38"/>
@@ -3351,7 +3326,7 @@
       <c r="AA52" s="26"/>
       <c r="AB52" s="26"/>
     </row>
-    <row r="53" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="38"/>
@@ -3381,7 +3356,7 @@
       <c r="AA53" s="26"/>
       <c r="AB53" s="26"/>
     </row>
-    <row r="54" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="38"/>
@@ -3411,7 +3386,7 @@
       <c r="AA54" s="26"/>
       <c r="AB54" s="26"/>
     </row>
-    <row r="55" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="38"/>
@@ -3441,7 +3416,7 @@
       <c r="AA55" s="26"/>
       <c r="AB55" s="26"/>
     </row>
-    <row r="56" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="38"/>
@@ -3471,7 +3446,7 @@
       <c r="AA56" s="26"/>
       <c r="AB56" s="26"/>
     </row>
-    <row r="57" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="38"/>
@@ -3501,7 +3476,7 @@
       <c r="AA57" s="26"/>
       <c r="AB57" s="26"/>
     </row>
-    <row r="58" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="38"/>
@@ -3531,7 +3506,7 @@
       <c r="AA58" s="26"/>
       <c r="AB58" s="26"/>
     </row>
-    <row r="59" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="38"/>
@@ -3561,7 +3536,7 @@
       <c r="AA59" s="26"/>
       <c r="AB59" s="26"/>
     </row>
-    <row r="60" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="38"/>
@@ -3591,7 +3566,7 @@
       <c r="AA60" s="26"/>
       <c r="AB60" s="26"/>
     </row>
-    <row r="61" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="38"/>
@@ -3621,7 +3596,7 @@
       <c r="AA61" s="26"/>
       <c r="AB61" s="26"/>
     </row>
-    <row r="62" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="38"/>
@@ -3651,7 +3626,7 @@
       <c r="AA62" s="26"/>
       <c r="AB62" s="26"/>
     </row>
-    <row r="63" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="38"/>
@@ -3681,7 +3656,7 @@
       <c r="AA63" s="26"/>
       <c r="AB63" s="26"/>
     </row>
-    <row r="64" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="38"/>
@@ -3711,7 +3686,7 @@
       <c r="AA64" s="26"/>
       <c r="AB64" s="26"/>
     </row>
-    <row r="65" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="C65" s="38"/>
@@ -3741,7 +3716,7 @@
       <c r="AA65" s="26"/>
       <c r="AB65" s="26"/>
     </row>
-    <row r="66" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="38"/>
@@ -3771,7 +3746,7 @@
       <c r="AA66" s="26"/>
       <c r="AB66" s="26"/>
     </row>
-    <row r="67" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="38"/>
@@ -3801,7 +3776,7 @@
       <c r="AA67" s="26"/>
       <c r="AB67" s="26"/>
     </row>
-    <row r="68" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="38"/>
@@ -3831,7 +3806,7 @@
       <c r="AA68" s="26"/>
       <c r="AB68" s="26"/>
     </row>
-    <row r="69" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="38"/>
@@ -3861,7 +3836,7 @@
       <c r="AA69" s="26"/>
       <c r="AB69" s="26"/>
     </row>
-    <row r="70" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="38"/>
@@ -3891,7 +3866,7 @@
       <c r="AA70" s="26"/>
       <c r="AB70" s="26"/>
     </row>
-    <row r="71" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="38"/>
@@ -3921,7 +3896,7 @@
       <c r="AA71" s="26"/>
       <c r="AB71" s="26"/>
     </row>
-    <row r="72" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="38"/>
@@ -3951,7 +3926,7 @@
       <c r="AA72" s="26"/>
       <c r="AB72" s="26"/>
     </row>
-    <row r="73" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="38"/>
@@ -3981,7 +3956,7 @@
       <c r="AA73" s="26"/>
       <c r="AB73" s="26"/>
     </row>
-    <row r="74" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="38"/>
@@ -4011,7 +3986,7 @@
       <c r="AA74" s="26"/>
       <c r="AB74" s="26"/>
     </row>
-    <row r="75" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="38"/>
@@ -4041,7 +4016,7 @@
       <c r="AA75" s="26"/>
       <c r="AB75" s="26"/>
     </row>
-    <row r="76" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="38"/>
@@ -4071,7 +4046,7 @@
       <c r="AA76" s="26"/>
       <c r="AB76" s="26"/>
     </row>
-    <row r="77" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="38"/>
@@ -4101,7 +4076,7 @@
       <c r="AA77" s="26"/>
       <c r="AB77" s="26"/>
     </row>
-    <row r="78" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="38"/>
@@ -4131,7 +4106,7 @@
       <c r="AA78" s="26"/>
       <c r="AB78" s="26"/>
     </row>
-    <row r="79" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="38"/>
@@ -4161,7 +4136,7 @@
       <c r="AA79" s="26"/>
       <c r="AB79" s="26"/>
     </row>
-    <row r="80" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="38"/>
@@ -4191,7 +4166,7 @@
       <c r="AA80" s="26"/>
       <c r="AB80" s="26"/>
     </row>
-    <row r="81" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="38"/>
@@ -4221,7 +4196,7 @@
       <c r="AA81" s="26"/>
       <c r="AB81" s="26"/>
     </row>
-    <row r="82" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="38"/>
@@ -4251,7 +4226,7 @@
       <c r="AA82" s="26"/>
       <c r="AB82" s="26"/>
     </row>
-    <row r="83" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="38"/>
@@ -4281,7 +4256,7 @@
       <c r="AA83" s="26"/>
       <c r="AB83" s="26"/>
     </row>
-    <row r="84" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="38"/>
@@ -4311,7 +4286,7 @@
       <c r="AA84" s="26"/>
       <c r="AB84" s="26"/>
     </row>
-    <row r="85" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
       <c r="C85" s="38"/>
@@ -4341,7 +4316,7 @@
       <c r="AA85" s="26"/>
       <c r="AB85" s="26"/>
     </row>
-    <row r="86" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="38"/>
@@ -4371,7 +4346,7 @@
       <c r="AA86" s="26"/>
       <c r="AB86" s="26"/>
     </row>
-    <row r="87" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="38"/>
@@ -4401,7 +4376,7 @@
       <c r="AA87" s="26"/>
       <c r="AB87" s="26"/>
     </row>
-    <row r="88" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
       <c r="C88" s="38"/>
@@ -4431,7 +4406,7 @@
       <c r="AA88" s="26"/>
       <c r="AB88" s="26"/>
     </row>
-    <row r="89" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="38"/>
@@ -4461,7 +4436,7 @@
       <c r="AA89" s="26"/>
       <c r="AB89" s="26"/>
     </row>
-    <row r="90" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="38"/>
@@ -4491,7 +4466,7 @@
       <c r="AA90" s="26"/>
       <c r="AB90" s="26"/>
     </row>
-    <row r="91" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
       <c r="C91" s="38"/>
@@ -4521,7 +4496,7 @@
       <c r="AA91" s="26"/>
       <c r="AB91" s="26"/>
     </row>
-    <row r="92" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="38"/>
@@ -4551,7 +4526,7 @@
       <c r="AA92" s="26"/>
       <c r="AB92" s="26"/>
     </row>
-    <row r="93" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="38"/>
@@ -4581,7 +4556,7 @@
       <c r="AA93" s="26"/>
       <c r="AB93" s="26"/>
     </row>
-    <row r="94" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
       <c r="C94" s="38"/>
@@ -4611,7 +4586,7 @@
       <c r="AA94" s="26"/>
       <c r="AB94" s="26"/>
     </row>
-    <row r="95" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
       <c r="C95" s="38"/>
@@ -4641,7 +4616,7 @@
       <c r="AA95" s="26"/>
       <c r="AB95" s="26"/>
     </row>
-    <row r="96" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
       <c r="C96" s="38"/>
@@ -4671,7 +4646,7 @@
       <c r="AA96" s="26"/>
       <c r="AB96" s="26"/>
     </row>
-    <row r="97" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
       <c r="C97" s="38"/>
@@ -4701,7 +4676,7 @@
       <c r="AA97" s="26"/>
       <c r="AB97" s="26"/>
     </row>
-    <row r="98" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
       <c r="C98" s="38"/>
@@ -4731,7 +4706,7 @@
       <c r="AA98" s="26"/>
       <c r="AB98" s="26"/>
     </row>
-    <row r="99" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="38"/>
@@ -4761,7 +4736,7 @@
       <c r="AA99" s="26"/>
       <c r="AB99" s="26"/>
     </row>
-    <row r="100" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
       <c r="C100" s="38"/>
@@ -4791,7 +4766,7 @@
       <c r="AA100" s="26"/>
       <c r="AB100" s="26"/>
     </row>
-    <row r="101" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
       <c r="C101" s="38"/>
@@ -4821,7 +4796,7 @@
       <c r="AA101" s="26"/>
       <c r="AB101" s="26"/>
     </row>
-    <row r="102" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
       <c r="C102" s="38"/>
@@ -4851,7 +4826,7 @@
       <c r="AA102" s="26"/>
       <c r="AB102" s="26"/>
     </row>
-    <row r="103" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
       <c r="C103" s="38"/>
@@ -4881,7 +4856,7 @@
       <c r="AA103" s="26"/>
       <c r="AB103" s="26"/>
     </row>
-    <row r="104" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
       <c r="C104" s="38"/>
@@ -4911,7 +4886,7 @@
       <c r="AA104" s="26"/>
       <c r="AB104" s="26"/>
     </row>
-    <row r="105" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
       <c r="C105" s="38"/>
@@ -4941,7 +4916,7 @@
       <c r="AA105" s="26"/>
       <c r="AB105" s="26"/>
     </row>
-    <row r="106" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
       <c r="C106" s="38"/>
@@ -4971,7 +4946,7 @@
       <c r="AA106" s="26"/>
       <c r="AB106" s="26"/>
     </row>
-    <row r="107" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
       <c r="C107" s="38"/>
@@ -5001,7 +4976,7 @@
       <c r="AA107" s="26"/>
       <c r="AB107" s="26"/>
     </row>
-    <row r="108" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
       <c r="C108" s="38"/>
@@ -5031,7 +5006,7 @@
       <c r="AA108" s="26"/>
       <c r="AB108" s="26"/>
     </row>
-    <row r="109" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
       <c r="C109" s="38"/>
@@ -5061,7 +5036,7 @@
       <c r="AA109" s="26"/>
       <c r="AB109" s="26"/>
     </row>
-    <row r="110" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
       <c r="C110" s="38"/>
@@ -5091,7 +5066,7 @@
       <c r="AA110" s="26"/>
       <c r="AB110" s="26"/>
     </row>
-    <row r="111" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
       <c r="C111" s="38"/>
@@ -5121,7 +5096,7 @@
       <c r="AA111" s="26"/>
       <c r="AB111" s="26"/>
     </row>
-    <row r="112" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
       <c r="C112" s="38"/>
@@ -5151,7 +5126,7 @@
       <c r="AA112" s="26"/>
       <c r="AB112" s="26"/>
     </row>
-    <row r="113" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
       <c r="C113" s="38"/>
@@ -5181,7 +5156,7 @@
       <c r="AA113" s="26"/>
       <c r="AB113" s="26"/>
     </row>
-    <row r="114" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
       <c r="C114" s="38"/>
@@ -5211,7 +5186,7 @@
       <c r="AA114" s="26"/>
       <c r="AB114" s="26"/>
     </row>
-    <row r="115" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
       <c r="C115" s="38"/>
@@ -5241,7 +5216,7 @@
       <c r="AA115" s="26"/>
       <c r="AB115" s="26"/>
     </row>
-    <row r="116" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
       <c r="C116" s="38"/>
@@ -5271,7 +5246,7 @@
       <c r="AA116" s="26"/>
       <c r="AB116" s="26"/>
     </row>
-    <row r="117" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="C117" s="38"/>
@@ -5301,7 +5276,7 @@
       <c r="AA117" s="26"/>
       <c r="AB117" s="26"/>
     </row>
-    <row r="118" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
       <c r="C118" s="38"/>
@@ -5331,7 +5306,7 @@
       <c r="AA118" s="26"/>
       <c r="AB118" s="26"/>
     </row>
-    <row r="119" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
       <c r="C119" s="38"/>
@@ -5361,7 +5336,7 @@
       <c r="AA119" s="26"/>
       <c r="AB119" s="26"/>
     </row>
-    <row r="120" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
       <c r="C120" s="38"/>
@@ -5391,7 +5366,7 @@
       <c r="AA120" s="26"/>
       <c r="AB120" s="26"/>
     </row>
-    <row r="121" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
       <c r="C121" s="38"/>
@@ -5421,7 +5396,7 @@
       <c r="AA121" s="26"/>
       <c r="AB121" s="26"/>
     </row>
-    <row r="122" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
       <c r="C122" s="38"/>
@@ -5451,7 +5426,7 @@
       <c r="AA122" s="26"/>
       <c r="AB122" s="26"/>
     </row>
-    <row r="123" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
       <c r="C123" s="38"/>
@@ -5481,7 +5456,7 @@
       <c r="AA123" s="26"/>
       <c r="AB123" s="26"/>
     </row>
-    <row r="124" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
       <c r="C124" s="38"/>
@@ -5511,7 +5486,7 @@
       <c r="AA124" s="26"/>
       <c r="AB124" s="26"/>
     </row>
-    <row r="125" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
       <c r="C125" s="38"/>
@@ -5541,7 +5516,7 @@
       <c r="AA125" s="26"/>
       <c r="AB125" s="26"/>
     </row>
-    <row r="126" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
       <c r="C126" s="38"/>
@@ -5571,7 +5546,7 @@
       <c r="AA126" s="26"/>
       <c r="AB126" s="26"/>
     </row>
-    <row r="127" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A127" s="26"/>
       <c r="B127" s="26"/>
       <c r="C127" s="38"/>
@@ -5601,7 +5576,7 @@
       <c r="AA127" s="26"/>
       <c r="AB127" s="26"/>
     </row>
-    <row r="128" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
       <c r="C128" s="38"/>
@@ -5631,7 +5606,7 @@
       <c r="AA128" s="26"/>
       <c r="AB128" s="26"/>
     </row>
-    <row r="129" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A129" s="26"/>
       <c r="B129" s="26"/>
       <c r="C129" s="38"/>
@@ -5661,7 +5636,7 @@
       <c r="AA129" s="26"/>
       <c r="AB129" s="26"/>
     </row>
-    <row r="130" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
       <c r="C130" s="38"/>
@@ -5691,7 +5666,7 @@
       <c r="AA130" s="26"/>
       <c r="AB130" s="26"/>
     </row>
-    <row r="131" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
       <c r="C131" s="38"/>
@@ -5721,7 +5696,7 @@
       <c r="AA131" s="26"/>
       <c r="AB131" s="26"/>
     </row>
-    <row r="132" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A132" s="26"/>
       <c r="B132" s="26"/>
       <c r="C132" s="38"/>
@@ -5751,7 +5726,7 @@
       <c r="AA132" s="26"/>
       <c r="AB132" s="26"/>
     </row>
-    <row r="133" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A133" s="26"/>
       <c r="B133" s="26"/>
       <c r="C133" s="38"/>
@@ -5781,7 +5756,7 @@
       <c r="AA133" s="26"/>
       <c r="AB133" s="26"/>
     </row>
-    <row r="134" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
       <c r="C134" s="38"/>
@@ -5811,7 +5786,7 @@
       <c r="AA134" s="26"/>
       <c r="AB134" s="26"/>
     </row>
-    <row r="135" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
       <c r="C135" s="38"/>
@@ -5841,7 +5816,7 @@
       <c r="AA135" s="26"/>
       <c r="AB135" s="26"/>
     </row>
-    <row r="136" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
       <c r="C136" s="38"/>
@@ -5871,7 +5846,7 @@
       <c r="AA136" s="26"/>
       <c r="AB136" s="26"/>
     </row>
-    <row r="137" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
       <c r="C137" s="38"/>
@@ -5901,7 +5876,7 @@
       <c r="AA137" s="26"/>
       <c r="AB137" s="26"/>
     </row>
-    <row r="138" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
       <c r="C138" s="38"/>
@@ -5931,7 +5906,7 @@
       <c r="AA138" s="26"/>
       <c r="AB138" s="26"/>
     </row>
-    <row r="139" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
       <c r="C139" s="38"/>
@@ -5961,7 +5936,7 @@
       <c r="AA139" s="26"/>
       <c r="AB139" s="26"/>
     </row>
-    <row r="140" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="26"/>
       <c r="C140" s="38"/>
@@ -5991,7 +5966,7 @@
       <c r="AA140" s="26"/>
       <c r="AB140" s="26"/>
     </row>
-    <row r="141" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="26"/>
       <c r="C141" s="38"/>
@@ -6021,7 +5996,7 @@
       <c r="AA141" s="26"/>
       <c r="AB141" s="26"/>
     </row>
-    <row r="142" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="26"/>
       <c r="C142" s="38"/>
@@ -6051,7 +6026,7 @@
       <c r="AA142" s="26"/>
       <c r="AB142" s="26"/>
     </row>
-    <row r="143" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="26"/>
       <c r="C143" s="38"/>
@@ -6081,7 +6056,7 @@
       <c r="AA143" s="26"/>
       <c r="AB143" s="26"/>
     </row>
-    <row r="144" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="26"/>
       <c r="C144" s="38"/>
@@ -6111,7 +6086,7 @@
       <c r="AA144" s="26"/>
       <c r="AB144" s="26"/>
     </row>
-    <row r="145" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
       <c r="C145" s="38"/>
@@ -6141,7 +6116,7 @@
       <c r="AA145" s="26"/>
       <c r="AB145" s="26"/>
     </row>
-    <row r="146" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A146" s="26"/>
       <c r="B146" s="26"/>
       <c r="C146" s="38"/>
@@ -6171,7 +6146,7 @@
       <c r="AA146" s="26"/>
       <c r="AB146" s="26"/>
     </row>
-    <row r="147" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
       <c r="C147" s="38"/>
@@ -6201,7 +6176,7 @@
       <c r="AA147" s="26"/>
       <c r="AB147" s="26"/>
     </row>
-    <row r="148" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A148" s="26"/>
       <c r="B148" s="26"/>
       <c r="C148" s="38"/>
@@ -6231,7 +6206,7 @@
       <c r="AA148" s="26"/>
       <c r="AB148" s="26"/>
     </row>
-    <row r="149" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A149" s="26"/>
       <c r="B149" s="26"/>
       <c r="C149" s="38"/>
@@ -6261,7 +6236,7 @@
       <c r="AA149" s="26"/>
       <c r="AB149" s="26"/>
     </row>
-    <row r="150" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A150" s="26"/>
       <c r="B150" s="26"/>
       <c r="C150" s="38"/>
@@ -6291,7 +6266,7 @@
       <c r="AA150" s="26"/>
       <c r="AB150" s="26"/>
     </row>
-    <row r="151" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A151" s="26"/>
       <c r="B151" s="26"/>
       <c r="C151" s="38"/>
@@ -6321,7 +6296,7 @@
       <c r="AA151" s="26"/>
       <c r="AB151" s="26"/>
     </row>
-    <row r="152" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="C152" s="38"/>
@@ -6351,7 +6326,7 @@
       <c r="AA152" s="26"/>
       <c r="AB152" s="26"/>
     </row>
-    <row r="153" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A153" s="26"/>
       <c r="B153" s="26"/>
       <c r="C153" s="38"/>
@@ -6381,7 +6356,7 @@
       <c r="AA153" s="26"/>
       <c r="AB153" s="26"/>
     </row>
-    <row r="154" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A154" s="26"/>
       <c r="B154" s="26"/>
       <c r="C154" s="38"/>
@@ -6411,7 +6386,7 @@
       <c r="AA154" s="26"/>
       <c r="AB154" s="26"/>
     </row>
-    <row r="155" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A155" s="26"/>
       <c r="B155" s="26"/>
       <c r="C155" s="38"/>
@@ -6441,7 +6416,7 @@
       <c r="AA155" s="26"/>
       <c r="AB155" s="26"/>
     </row>
-    <row r="156" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
       <c r="C156" s="38"/>
@@ -6471,7 +6446,7 @@
       <c r="AA156" s="26"/>
       <c r="AB156" s="26"/>
     </row>
-    <row r="157" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
       <c r="C157" s="38"/>
@@ -6501,7 +6476,7 @@
       <c r="AA157" s="26"/>
       <c r="AB157" s="26"/>
     </row>
-    <row r="158" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
       <c r="C158" s="38"/>
@@ -6531,7 +6506,7 @@
       <c r="AA158" s="26"/>
       <c r="AB158" s="26"/>
     </row>
-    <row r="159" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A159" s="26"/>
       <c r="B159" s="26"/>
       <c r="C159" s="38"/>
@@ -6561,7 +6536,7 @@
       <c r="AA159" s="26"/>
       <c r="AB159" s="26"/>
     </row>
-    <row r="160" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="C160" s="38"/>
@@ -6591,7 +6566,7 @@
       <c r="AA160" s="26"/>
       <c r="AB160" s="26"/>
     </row>
-    <row r="161" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A161" s="26"/>
       <c r="B161" s="26"/>
       <c r="C161" s="38"/>
@@ -6621,7 +6596,7 @@
       <c r="AA161" s="26"/>
       <c r="AB161" s="26"/>
     </row>
-    <row r="162" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A162" s="26"/>
       <c r="B162" s="26"/>
       <c r="C162" s="38"/>
@@ -6651,7 +6626,7 @@
       <c r="AA162" s="26"/>
       <c r="AB162" s="26"/>
     </row>
-    <row r="163" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A163" s="26"/>
       <c r="B163" s="26"/>
       <c r="C163" s="38"/>
@@ -6681,7 +6656,7 @@
       <c r="AA163" s="26"/>
       <c r="AB163" s="26"/>
     </row>
-    <row r="164" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A164" s="26"/>
       <c r="B164" s="26"/>
       <c r="C164" s="38"/>
@@ -6711,7 +6686,7 @@
       <c r="AA164" s="26"/>
       <c r="AB164" s="26"/>
     </row>
-    <row r="165" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A165" s="26"/>
       <c r="B165" s="26"/>
       <c r="C165" s="38"/>
@@ -6741,7 +6716,7 @@
       <c r="AA165" s="26"/>
       <c r="AB165" s="26"/>
     </row>
-    <row r="166" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A166" s="26"/>
       <c r="B166" s="26"/>
       <c r="C166" s="38"/>
@@ -6771,7 +6746,7 @@
       <c r="AA166" s="26"/>
       <c r="AB166" s="26"/>
     </row>
-    <row r="167" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A167" s="26"/>
       <c r="B167" s="26"/>
       <c r="C167" s="38"/>
@@ -6801,7 +6776,7 @@
       <c r="AA167" s="26"/>
       <c r="AB167" s="26"/>
     </row>
-    <row r="168" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A168" s="26"/>
       <c r="B168" s="26"/>
       <c r="C168" s="38"/>
@@ -6831,7 +6806,7 @@
       <c r="AA168" s="26"/>
       <c r="AB168" s="26"/>
     </row>
-    <row r="169" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A169" s="26"/>
       <c r="B169" s="26"/>
       <c r="C169" s="38"/>
@@ -6861,7 +6836,7 @@
       <c r="AA169" s="26"/>
       <c r="AB169" s="26"/>
     </row>
-    <row r="170" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A170" s="26"/>
       <c r="B170" s="26"/>
       <c r="C170" s="38"/>
@@ -6891,7 +6866,7 @@
       <c r="AA170" s="26"/>
       <c r="AB170" s="26"/>
     </row>
-    <row r="171" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
       <c r="C171" s="38"/>
@@ -6921,7 +6896,7 @@
       <c r="AA171" s="26"/>
       <c r="AB171" s="26"/>
     </row>
-    <row r="172" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
       <c r="C172" s="38"/>
@@ -6951,7 +6926,7 @@
       <c r="AA172" s="26"/>
       <c r="AB172" s="26"/>
     </row>
-    <row r="173" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
       <c r="C173" s="38"/>
@@ -6981,7 +6956,7 @@
       <c r="AA173" s="26"/>
       <c r="AB173" s="26"/>
     </row>
-    <row r="174" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
       <c r="C174" s="38"/>
@@ -7011,7 +6986,7 @@
       <c r="AA174" s="26"/>
       <c r="AB174" s="26"/>
     </row>
-    <row r="175" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
       <c r="C175" s="38"/>
@@ -7041,7 +7016,7 @@
       <c r="AA175" s="26"/>
       <c r="AB175" s="26"/>
     </row>
-    <row r="176" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
       <c r="C176" s="38"/>
@@ -7071,7 +7046,7 @@
       <c r="AA176" s="26"/>
       <c r="AB176" s="26"/>
     </row>
-    <row r="177" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
       <c r="C177" s="38"/>
@@ -7101,7 +7076,7 @@
       <c r="AA177" s="26"/>
       <c r="AB177" s="26"/>
     </row>
-    <row r="178" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
       <c r="C178" s="38"/>
@@ -7131,7 +7106,7 @@
       <c r="AA178" s="26"/>
       <c r="AB178" s="26"/>
     </row>
-    <row r="179" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A179" s="26"/>
       <c r="B179" s="26"/>
       <c r="C179" s="38"/>
@@ -7161,7 +7136,7 @@
       <c r="AA179" s="26"/>
       <c r="AB179" s="26"/>
     </row>
-    <row r="180" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A180" s="26"/>
       <c r="B180" s="26"/>
       <c r="C180" s="38"/>
@@ -7191,7 +7166,7 @@
       <c r="AA180" s="26"/>
       <c r="AB180" s="26"/>
     </row>
-    <row r="181" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A181" s="26"/>
       <c r="B181" s="26"/>
       <c r="C181" s="38"/>
@@ -7221,7 +7196,7 @@
       <c r="AA181" s="26"/>
       <c r="AB181" s="26"/>
     </row>
-    <row r="182" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A182" s="26"/>
       <c r="B182" s="26"/>
       <c r="C182" s="38"/>
@@ -7251,7 +7226,7 @@
       <c r="AA182" s="26"/>
       <c r="AB182" s="26"/>
     </row>
-    <row r="183" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
       <c r="C183" s="38"/>
@@ -7281,7 +7256,7 @@
       <c r="AA183" s="26"/>
       <c r="AB183" s="26"/>
     </row>
-    <row r="184" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A184" s="26"/>
       <c r="B184" s="26"/>
       <c r="C184" s="38"/>
@@ -7311,7 +7286,7 @@
       <c r="AA184" s="26"/>
       <c r="AB184" s="26"/>
     </row>
-    <row r="185" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
       <c r="C185" s="38"/>
@@ -7341,7 +7316,7 @@
       <c r="AA185" s="26"/>
       <c r="AB185" s="26"/>
     </row>
-    <row r="186" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A186" s="26"/>
       <c r="B186" s="26"/>
       <c r="C186" s="38"/>
@@ -7371,7 +7346,7 @@
       <c r="AA186" s="26"/>
       <c r="AB186" s="26"/>
     </row>
-    <row r="187" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A187" s="26"/>
       <c r="B187" s="26"/>
       <c r="C187" s="38"/>
@@ -7401,7 +7376,7 @@
       <c r="AA187" s="26"/>
       <c r="AB187" s="26"/>
     </row>
-    <row r="188" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A188" s="26"/>
       <c r="B188" s="26"/>
       <c r="C188" s="38"/>
@@ -7431,7 +7406,7 @@
       <c r="AA188" s="26"/>
       <c r="AB188" s="26"/>
     </row>
-    <row r="189" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A189" s="26"/>
       <c r="B189" s="26"/>
       <c r="C189" s="38"/>
@@ -7461,7 +7436,7 @@
       <c r="AA189" s="26"/>
       <c r="AB189" s="26"/>
     </row>
-    <row r="190" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A190" s="26"/>
       <c r="B190" s="26"/>
       <c r="C190" s="38"/>
@@ -7491,7 +7466,7 @@
       <c r="AA190" s="26"/>
       <c r="AB190" s="26"/>
     </row>
-    <row r="191" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A191" s="26"/>
       <c r="B191" s="26"/>
       <c r="C191" s="38"/>
@@ -7521,7 +7496,7 @@
       <c r="AA191" s="26"/>
       <c r="AB191" s="26"/>
     </row>
-    <row r="192" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A192" s="26"/>
       <c r="B192" s="26"/>
       <c r="C192" s="38"/>
@@ -7551,7 +7526,7 @@
       <c r="AA192" s="26"/>
       <c r="AB192" s="26"/>
     </row>
-    <row r="193" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A193" s="26"/>
       <c r="B193" s="26"/>
       <c r="C193" s="38"/>
@@ -7581,7 +7556,7 @@
       <c r="AA193" s="26"/>
       <c r="AB193" s="26"/>
     </row>
-    <row r="194" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A194" s="26"/>
       <c r="B194" s="26"/>
       <c r="C194" s="38"/>
@@ -7611,7 +7586,7 @@
       <c r="AA194" s="26"/>
       <c r="AB194" s="26"/>
     </row>
-    <row r="195" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A195" s="26"/>
       <c r="B195" s="26"/>
       <c r="C195" s="38"/>
@@ -7641,7 +7616,7 @@
       <c r="AA195" s="26"/>
       <c r="AB195" s="26"/>
     </row>
-    <row r="196" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A196" s="26"/>
       <c r="B196" s="26"/>
       <c r="C196" s="38"/>
@@ -7671,7 +7646,7 @@
       <c r="AA196" s="26"/>
       <c r="AB196" s="26"/>
     </row>
-    <row r="197" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A197" s="26"/>
       <c r="B197" s="26"/>
       <c r="C197" s="38"/>
@@ -7701,7 +7676,7 @@
       <c r="AA197" s="26"/>
       <c r="AB197" s="26"/>
     </row>
-    <row r="198" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A198" s="26"/>
       <c r="B198" s="26"/>
       <c r="C198" s="38"/>
@@ -7731,7 +7706,7 @@
       <c r="AA198" s="26"/>
       <c r="AB198" s="26"/>
     </row>
-    <row r="199" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
       <c r="C199" s="38"/>
@@ -7761,7 +7736,7 @@
       <c r="AA199" s="26"/>
       <c r="AB199" s="26"/>
     </row>
-    <row r="200" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A200" s="26"/>
       <c r="B200" s="26"/>
       <c r="C200" s="38"/>
@@ -7791,7 +7766,7 @@
       <c r="AA200" s="26"/>
       <c r="AB200" s="26"/>
     </row>
-    <row r="201" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A201" s="26"/>
       <c r="B201" s="26"/>
       <c r="C201" s="38"/>
@@ -7821,7 +7796,7 @@
       <c r="AA201" s="26"/>
       <c r="AB201" s="26"/>
     </row>
-    <row r="202" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A202" s="26"/>
       <c r="B202" s="26"/>
       <c r="C202" s="38"/>
@@ -7851,7 +7826,7 @@
       <c r="AA202" s="26"/>
       <c r="AB202" s="26"/>
     </row>
-    <row r="203" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A203" s="26"/>
       <c r="B203" s="26"/>
       <c r="C203" s="38"/>
@@ -7881,7 +7856,7 @@
       <c r="AA203" s="26"/>
       <c r="AB203" s="26"/>
     </row>
-    <row r="204" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A204" s="26"/>
       <c r="B204" s="26"/>
       <c r="C204" s="38"/>
@@ -7911,7 +7886,7 @@
       <c r="AA204" s="26"/>
       <c r="AB204" s="26"/>
     </row>
-    <row r="205" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A205" s="26"/>
       <c r="B205" s="26"/>
       <c r="C205" s="38"/>
@@ -7941,7 +7916,7 @@
       <c r="AA205" s="26"/>
       <c r="AB205" s="26"/>
     </row>
-    <row r="206" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
       <c r="C206" s="38"/>
@@ -7971,7 +7946,7 @@
       <c r="AA206" s="26"/>
       <c r="AB206" s="26"/>
     </row>
-    <row r="207" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
       <c r="C207" s="38"/>
@@ -8001,7 +7976,7 @@
       <c r="AA207" s="26"/>
       <c r="AB207" s="26"/>
     </row>
-    <row r="208" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
       <c r="C208" s="38"/>
@@ -8031,7 +8006,7 @@
       <c r="AA208" s="26"/>
       <c r="AB208" s="26"/>
     </row>
-    <row r="209" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
       <c r="C209" s="38"/>
@@ -8061,7 +8036,7 @@
       <c r="AA209" s="26"/>
       <c r="AB209" s="26"/>
     </row>
-    <row r="210" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
       <c r="C210" s="38"/>
@@ -8091,7 +8066,7 @@
       <c r="AA210" s="26"/>
       <c r="AB210" s="26"/>
     </row>
-    <row r="211" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
       <c r="C211" s="38"/>
@@ -8121,7 +8096,7 @@
       <c r="AA211" s="26"/>
       <c r="AB211" s="26"/>
     </row>
-    <row r="212" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
       <c r="C212" s="38"/>
@@ -8151,7 +8126,7 @@
       <c r="AA212" s="26"/>
       <c r="AB212" s="26"/>
     </row>
-    <row r="213" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
       <c r="C213" s="38"/>
@@ -8181,7 +8156,7 @@
       <c r="AA213" s="26"/>
       <c r="AB213" s="26"/>
     </row>
-    <row r="214" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
       <c r="C214" s="38"/>
@@ -8211,7 +8186,7 @@
       <c r="AA214" s="26"/>
       <c r="AB214" s="26"/>
     </row>
-    <row r="215" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
       <c r="C215" s="38"/>
@@ -8241,7 +8216,7 @@
       <c r="AA215" s="26"/>
       <c r="AB215" s="26"/>
     </row>
-    <row r="216" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
       <c r="C216" s="38"/>
@@ -8271,7 +8246,7 @@
       <c r="AA216" s="26"/>
       <c r="AB216" s="26"/>
     </row>
-    <row r="217" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
       <c r="C217" s="38"/>
@@ -8301,7 +8276,7 @@
       <c r="AA217" s="26"/>
       <c r="AB217" s="26"/>
     </row>
-    <row r="218" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
       <c r="C218" s="38"/>
@@ -8331,7 +8306,7 @@
       <c r="AA218" s="26"/>
       <c r="AB218" s="26"/>
     </row>
-    <row r="219" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
       <c r="C219" s="38"/>
@@ -8361,7 +8336,7 @@
       <c r="AA219" s="26"/>
       <c r="AB219" s="26"/>
     </row>
-    <row r="220" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
       <c r="C220" s="38"/>
@@ -8391,7 +8366,7 @@
       <c r="AA220" s="26"/>
       <c r="AB220" s="26"/>
     </row>
-    <row r="221" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
       <c r="C221" s="38"/>
@@ -8421,7 +8396,7 @@
       <c r="AA221" s="26"/>
       <c r="AB221" s="26"/>
     </row>
-    <row r="222" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
       <c r="C222" s="38"/>
@@ -8451,7 +8426,7 @@
       <c r="AA222" s="26"/>
       <c r="AB222" s="26"/>
     </row>
-    <row r="223" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
       <c r="C223" s="38"/>
@@ -8481,7 +8456,7 @@
       <c r="AA223" s="26"/>
       <c r="AB223" s="26"/>
     </row>
-    <row r="224" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
       <c r="C224" s="38"/>
@@ -8511,7 +8486,7 @@
       <c r="AA224" s="26"/>
       <c r="AB224" s="26"/>
     </row>
-    <row r="225" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
       <c r="C225" s="38"/>
@@ -8541,7 +8516,7 @@
       <c r="AA225" s="26"/>
       <c r="AB225" s="26"/>
     </row>
-    <row r="226" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
       <c r="C226" s="38"/>
@@ -8571,7 +8546,7 @@
       <c r="AA226" s="26"/>
       <c r="AB226" s="26"/>
     </row>
-    <row r="227" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
       <c r="C227" s="38"/>
@@ -8601,7 +8576,7 @@
       <c r="AA227" s="26"/>
       <c r="AB227" s="26"/>
     </row>
-    <row r="228" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
       <c r="C228" s="38"/>
@@ -8631,7 +8606,7 @@
       <c r="AA228" s="26"/>
       <c r="AB228" s="26"/>
     </row>
-    <row r="229" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
       <c r="C229" s="38"/>
@@ -8661,7 +8636,7 @@
       <c r="AA229" s="26"/>
       <c r="AB229" s="26"/>
     </row>
-    <row r="230" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
       <c r="C230" s="38"/>
@@ -8691,7 +8666,7 @@
       <c r="AA230" s="26"/>
       <c r="AB230" s="26"/>
     </row>
-    <row r="231" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
       <c r="C231" s="38"/>
@@ -8721,7 +8696,7 @@
       <c r="AA231" s="26"/>
       <c r="AB231" s="26"/>
     </row>
-    <row r="232" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
       <c r="C232" s="38"/>
@@ -8751,7 +8726,7 @@
       <c r="AA232" s="26"/>
       <c r="AB232" s="26"/>
     </row>
-    <row r="233" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
       <c r="C233" s="38"/>
@@ -8781,7 +8756,7 @@
       <c r="AA233" s="26"/>
       <c r="AB233" s="26"/>
     </row>
-    <row r="234" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
       <c r="C234" s="38"/>
@@ -8811,7 +8786,7 @@
       <c r="AA234" s="26"/>
       <c r="AB234" s="26"/>
     </row>
-    <row r="235" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
       <c r="C235" s="38"/>
@@ -8841,7 +8816,7 @@
       <c r="AA235" s="26"/>
       <c r="AB235" s="26"/>
     </row>
-    <row r="236" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
       <c r="C236" s="38"/>
@@ -8871,7 +8846,7 @@
       <c r="AA236" s="26"/>
       <c r="AB236" s="26"/>
     </row>
-    <row r="237" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
       <c r="C237" s="38"/>
@@ -8901,7 +8876,7 @@
       <c r="AA237" s="26"/>
       <c r="AB237" s="26"/>
     </row>
-    <row r="238" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
       <c r="C238" s="38"/>
@@ -8931,7 +8906,7 @@
       <c r="AA238" s="26"/>
       <c r="AB238" s="26"/>
     </row>
-    <row r="239" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
       <c r="C239" s="38"/>
@@ -8961,7 +8936,7 @@
       <c r="AA239" s="26"/>
       <c r="AB239" s="26"/>
     </row>
-    <row r="240" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
       <c r="C240" s="38"/>
@@ -8991,7 +8966,7 @@
       <c r="AA240" s="26"/>
       <c r="AB240" s="26"/>
     </row>
-    <row r="241" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
       <c r="C241" s="38"/>
@@ -9021,7 +8996,7 @@
       <c r="AA241" s="26"/>
       <c r="AB241" s="26"/>
     </row>
-    <row r="242" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
       <c r="C242" s="38"/>
@@ -9051,7 +9026,7 @@
       <c r="AA242" s="26"/>
       <c r="AB242" s="26"/>
     </row>
-    <row r="243" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
       <c r="C243" s="38"/>
@@ -9081,7 +9056,7 @@
       <c r="AA243" s="26"/>
       <c r="AB243" s="26"/>
     </row>
-    <row r="244" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
       <c r="C244" s="38"/>
@@ -9111,7 +9086,7 @@
       <c r="AA244" s="26"/>
       <c r="AB244" s="26"/>
     </row>
-    <row r="245" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
       <c r="C245" s="38"/>
@@ -9141,7 +9116,7 @@
       <c r="AA245" s="26"/>
       <c r="AB245" s="26"/>
     </row>
-    <row r="246" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
       <c r="C246" s="38"/>
@@ -9171,7 +9146,7 @@
       <c r="AA246" s="26"/>
       <c r="AB246" s="26"/>
     </row>
-    <row r="247" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
       <c r="C247" s="38"/>
@@ -9201,7 +9176,7 @@
       <c r="AA247" s="26"/>
       <c r="AB247" s="26"/>
     </row>
-    <row r="248" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
       <c r="C248" s="38"/>
@@ -9231,7 +9206,7 @@
       <c r="AA248" s="26"/>
       <c r="AB248" s="26"/>
     </row>
-    <row r="249" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
       <c r="C249" s="38"/>
@@ -9261,7 +9236,7 @@
       <c r="AA249" s="26"/>
       <c r="AB249" s="26"/>
     </row>
-    <row r="250" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
       <c r="C250" s="38"/>
@@ -9291,7 +9266,7 @@
       <c r="AA250" s="26"/>
       <c r="AB250" s="26"/>
     </row>
-    <row r="251" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
       <c r="C251" s="38"/>
@@ -9321,7 +9296,7 @@
       <c r="AA251" s="26"/>
       <c r="AB251" s="26"/>
     </row>
-    <row r="252" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
       <c r="C252" s="38"/>
@@ -9351,7 +9326,7 @@
       <c r="AA252" s="26"/>
       <c r="AB252" s="26"/>
     </row>
-    <row r="253" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
       <c r="C253" s="38"/>
@@ -9381,7 +9356,7 @@
       <c r="AA253" s="26"/>
       <c r="AB253" s="26"/>
     </row>
-    <row r="254" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
       <c r="C254" s="38"/>
@@ -9411,7 +9386,7 @@
       <c r="AA254" s="26"/>
       <c r="AB254" s="26"/>
     </row>
-    <row r="255" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
       <c r="C255" s="38"/>
@@ -9441,7 +9416,7 @@
       <c r="AA255" s="26"/>
       <c r="AB255" s="26"/>
     </row>
-    <row r="256" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
       <c r="C256" s="38"/>
@@ -9471,7 +9446,7 @@
       <c r="AA256" s="26"/>
       <c r="AB256" s="26"/>
     </row>
-    <row r="257" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
       <c r="C257" s="38"/>
@@ -9501,7 +9476,7 @@
       <c r="AA257" s="26"/>
       <c r="AB257" s="26"/>
     </row>
-    <row r="258" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A258" s="26"/>
       <c r="B258" s="26"/>
       <c r="C258" s="38"/>
@@ -9531,7 +9506,7 @@
       <c r="AA258" s="26"/>
       <c r="AB258" s="26"/>
     </row>
-    <row r="259" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A259" s="26"/>
       <c r="B259" s="26"/>
       <c r="C259" s="38"/>
@@ -9561,7 +9536,7 @@
       <c r="AA259" s="26"/>
       <c r="AB259" s="26"/>
     </row>
-    <row r="260" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A260" s="26"/>
       <c r="B260" s="26"/>
       <c r="C260" s="38"/>
@@ -9591,7 +9566,7 @@
       <c r="AA260" s="26"/>
       <c r="AB260" s="26"/>
     </row>
-    <row r="261" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A261" s="26"/>
       <c r="B261" s="26"/>
       <c r="C261" s="38"/>
@@ -9621,7 +9596,7 @@
       <c r="AA261" s="26"/>
       <c r="AB261" s="26"/>
     </row>
-    <row r="262" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A262" s="26"/>
       <c r="B262" s="26"/>
       <c r="C262" s="38"/>
@@ -9651,7 +9626,7 @@
       <c r="AA262" s="26"/>
       <c r="AB262" s="26"/>
     </row>
-    <row r="263" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A263" s="26"/>
       <c r="B263" s="26"/>
       <c r="C263" s="38"/>
@@ -9681,7 +9656,7 @@
       <c r="AA263" s="26"/>
       <c r="AB263" s="26"/>
     </row>
-    <row r="264" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A264" s="26"/>
       <c r="B264" s="26"/>
       <c r="C264" s="38"/>
@@ -9711,7 +9686,7 @@
       <c r="AA264" s="26"/>
       <c r="AB264" s="26"/>
     </row>
-    <row r="265" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A265" s="26"/>
       <c r="B265" s="26"/>
       <c r="C265" s="38"/>
@@ -9741,7 +9716,7 @@
       <c r="AA265" s="26"/>
       <c r="AB265" s="26"/>
     </row>
-    <row r="266" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A266" s="26"/>
       <c r="B266" s="26"/>
       <c r="C266" s="38"/>
@@ -9771,7 +9746,7 @@
       <c r="AA266" s="26"/>
       <c r="AB266" s="26"/>
     </row>
-    <row r="267" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A267" s="26"/>
       <c r="B267" s="26"/>
       <c r="C267" s="38"/>
@@ -9801,7 +9776,7 @@
       <c r="AA267" s="26"/>
       <c r="AB267" s="26"/>
     </row>
-    <row r="268" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A268" s="26"/>
       <c r="B268" s="26"/>
       <c r="C268" s="38"/>
@@ -9831,7 +9806,7 @@
       <c r="AA268" s="26"/>
       <c r="AB268" s="26"/>
     </row>
-    <row r="269" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A269" s="26"/>
       <c r="B269" s="26"/>
       <c r="C269" s="38"/>
@@ -9861,7 +9836,7 @@
       <c r="AA269" s="26"/>
       <c r="AB269" s="26"/>
     </row>
-    <row r="270" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A270" s="26"/>
       <c r="B270" s="26"/>
       <c r="C270" s="38"/>
@@ -9891,7 +9866,7 @@
       <c r="AA270" s="26"/>
       <c r="AB270" s="26"/>
     </row>
-    <row r="271" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A271" s="26"/>
       <c r="B271" s="26"/>
       <c r="C271" s="38"/>
@@ -9921,7 +9896,7 @@
       <c r="AA271" s="26"/>
       <c r="AB271" s="26"/>
     </row>
-    <row r="272" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A272" s="26"/>
       <c r="B272" s="26"/>
       <c r="C272" s="38"/>
@@ -9951,7 +9926,7 @@
       <c r="AA272" s="26"/>
       <c r="AB272" s="26"/>
     </row>
-    <row r="273" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A273" s="26"/>
       <c r="B273" s="26"/>
       <c r="C273" s="38"/>
@@ -9981,7 +9956,7 @@
       <c r="AA273" s="26"/>
       <c r="AB273" s="26"/>
     </row>
-    <row r="274" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A274" s="26"/>
       <c r="B274" s="26"/>
       <c r="C274" s="38"/>
@@ -10011,7 +9986,7 @@
       <c r="AA274" s="26"/>
       <c r="AB274" s="26"/>
     </row>
-    <row r="275" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A275" s="26"/>
       <c r="B275" s="26"/>
       <c r="C275" s="38"/>
@@ -10041,7 +10016,7 @@
       <c r="AA275" s="26"/>
       <c r="AB275" s="26"/>
     </row>
-    <row r="276" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A276" s="26"/>
       <c r="B276" s="26"/>
       <c r="C276" s="38"/>
@@ -10071,7 +10046,7 @@
       <c r="AA276" s="26"/>
       <c r="AB276" s="26"/>
     </row>
-    <row r="277" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A277" s="26"/>
       <c r="B277" s="26"/>
       <c r="C277" s="38"/>
@@ -10101,7 +10076,7 @@
       <c r="AA277" s="26"/>
       <c r="AB277" s="26"/>
     </row>
-    <row r="278" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A278" s="26"/>
       <c r="B278" s="26"/>
       <c r="C278" s="38"/>
@@ -10131,7 +10106,7 @@
       <c r="AA278" s="26"/>
       <c r="AB278" s="26"/>
     </row>
-    <row r="279" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A279" s="26"/>
       <c r="B279" s="26"/>
       <c r="C279" s="38"/>
@@ -10161,7 +10136,7 @@
       <c r="AA279" s="26"/>
       <c r="AB279" s="26"/>
     </row>
-    <row r="280" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A280" s="26"/>
       <c r="B280" s="26"/>
       <c r="C280" s="38"/>
@@ -10191,7 +10166,7 @@
       <c r="AA280" s="26"/>
       <c r="AB280" s="26"/>
     </row>
-    <row r="281" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A281" s="26"/>
       <c r="B281" s="26"/>
       <c r="C281" s="38"/>
@@ -10221,7 +10196,7 @@
       <c r="AA281" s="26"/>
       <c r="AB281" s="26"/>
     </row>
-    <row r="282" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A282" s="26"/>
       <c r="B282" s="26"/>
       <c r="C282" s="38"/>
@@ -10251,7 +10226,7 @@
       <c r="AA282" s="26"/>
       <c r="AB282" s="26"/>
     </row>
-    <row r="283" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A283" s="26"/>
       <c r="B283" s="26"/>
       <c r="C283" s="38"/>
@@ -10281,7 +10256,7 @@
       <c r="AA283" s="26"/>
       <c r="AB283" s="26"/>
     </row>
-    <row r="284" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A284" s="26"/>
       <c r="B284" s="26"/>
       <c r="C284" s="38"/>
@@ -10311,7 +10286,7 @@
       <c r="AA284" s="26"/>
       <c r="AB284" s="26"/>
     </row>
-    <row r="285" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A285" s="26"/>
       <c r="B285" s="26"/>
       <c r="C285" s="38"/>
@@ -10341,7 +10316,7 @@
       <c r="AA285" s="26"/>
       <c r="AB285" s="26"/>
     </row>
-    <row r="286" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A286" s="26"/>
       <c r="B286" s="26"/>
       <c r="C286" s="38"/>
@@ -10371,7 +10346,7 @@
       <c r="AA286" s="26"/>
       <c r="AB286" s="26"/>
     </row>
-    <row r="287" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A287" s="26"/>
       <c r="B287" s="26"/>
       <c r="C287" s="38"/>
@@ -10401,7 +10376,7 @@
       <c r="AA287" s="26"/>
       <c r="AB287" s="26"/>
     </row>
-    <row r="288" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A288" s="26"/>
       <c r="B288" s="26"/>
       <c r="C288" s="38"/>
@@ -10431,7 +10406,7 @@
       <c r="AA288" s="26"/>
       <c r="AB288" s="26"/>
     </row>
-    <row r="289" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:28" ht="16.5" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="2"/>
@@ -10461,7 +10436,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" ht="16.5" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="2"/>
@@ -10491,7 +10466,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" ht="16.5" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="2"/>
@@ -10521,7 +10496,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" ht="16.5" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="2"/>
@@ -10551,7 +10526,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" ht="16.5" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="2"/>
@@ -10581,7 +10556,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" ht="16.5" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="2"/>
@@ -10611,7 +10586,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" ht="16.5" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="2"/>
@@ -10641,7 +10616,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" ht="16.5" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="2"/>
@@ -10671,7 +10646,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" ht="16.5" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="2"/>
@@ -10701,7 +10676,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:28" ht="16.5" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="2"/>
@@ -10731,7 +10706,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:28" ht="16.5" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="2"/>
@@ -10761,7 +10736,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" ht="16.5" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="2"/>
@@ -10791,7 +10766,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:28" ht="16.5" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="2"/>
@@ -10821,7 +10796,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:28" ht="16.5" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="2"/>
@@ -10851,7 +10826,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:28" ht="16.5" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="2"/>
@@ -10881,7 +10856,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:28" ht="16.5" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="2"/>
@@ -10911,7 +10886,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" ht="16.5" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="2"/>
@@ -10941,7 +10916,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" ht="16.5" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="2"/>
@@ -10971,7 +10946,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" ht="16.5" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="2"/>
@@ -11001,7 +10976,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:28" ht="16.5" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="2"/>
@@ -11031,7 +11006,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:28" ht="16.5" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="2"/>
@@ -11061,7 +11036,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" ht="16.5" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="2"/>
@@ -11091,7 +11066,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" ht="16.5" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="2"/>
@@ -11121,7 +11096,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:28" ht="16.5" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="2"/>
@@ -11151,7 +11126,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" ht="16.5" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="2"/>
@@ -11181,7 +11156,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" ht="16.5" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="2"/>
@@ -11211,7 +11186,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:28" ht="16.5" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="2"/>
@@ -11241,7 +11216,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:28" ht="16.5" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="2"/>
@@ -11271,7 +11246,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" ht="16.5" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="2"/>
@@ -11301,7 +11276,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" ht="16.5" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="2"/>
@@ -11331,7 +11306,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" ht="16.5" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="2"/>
@@ -11361,7 +11336,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" ht="16.5" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="2"/>
@@ -11391,7 +11366,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:28" ht="16.5" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="2"/>
@@ -11421,7 +11396,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:28" ht="16.5" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="2"/>
@@ -11451,7 +11426,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:28" ht="16.5" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="2"/>
@@ -11481,7 +11456,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:28" ht="16.5" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="2"/>
@@ -11511,7 +11486,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:28" ht="16.5" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="2"/>
@@ -11541,7 +11516,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:28" ht="16.5" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="2"/>
@@ -11571,7 +11546,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:28" ht="16.5" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="2"/>
@@ -11601,7 +11576,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:28" ht="16.5" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="2"/>
@@ -11631,7 +11606,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:28" ht="16.5" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="2"/>
@@ -11661,7 +11636,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:28" ht="16.5" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="2"/>
@@ -11691,7 +11666,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:28" ht="16.5" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="2"/>
@@ -11721,7 +11696,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:28" ht="16.5" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="2"/>
@@ -11751,7 +11726,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:28" ht="16.5" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="2"/>
@@ -11781,7 +11756,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:28" ht="16.5" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="2"/>
@@ -11811,7 +11786,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:28" ht="16.5" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="2"/>
@@ -11841,7 +11816,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:28" ht="16.5" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="2"/>
@@ -11871,7 +11846,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" ht="16.5" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="2"/>
@@ -11901,7 +11876,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" ht="16.5" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="2"/>
@@ -11931,7 +11906,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" ht="16.5" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="2"/>
@@ -11961,7 +11936,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:28" ht="16.5" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="2"/>
@@ -11991,7 +11966,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" ht="16.5" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="2"/>
@@ -12021,7 +11996,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" ht="16.5" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="2"/>
@@ -12051,7 +12026,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" ht="16.5" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="2"/>
@@ -12081,7 +12056,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" ht="16.5" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="2"/>
@@ -12111,7 +12086,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" ht="16.5" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="2"/>
@@ -12141,7 +12116,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" ht="16.5" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="2"/>
@@ -12171,7 +12146,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" ht="16.5" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="2"/>
@@ -12201,7 +12176,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" ht="16.5" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="2"/>
@@ -12231,7 +12206,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" ht="16.5" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="2"/>
@@ -12261,7 +12236,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" ht="16.5" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="2"/>
@@ -12291,7 +12266,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" ht="16.5" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="2"/>
@@ -12321,7 +12296,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" ht="16.5" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="2"/>
@@ -12351,7 +12326,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" ht="16.5" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="2"/>
@@ -12381,7 +12356,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" ht="16.5" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="2"/>
@@ -12411,7 +12386,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" ht="16.5" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="2"/>
@@ -12441,7 +12416,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" ht="16.5" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="2"/>
@@ -12471,7 +12446,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:28" ht="16.5" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="2"/>
@@ -12501,7 +12476,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:28" ht="16.5" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="2"/>
@@ -12531,7 +12506,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" ht="16.5" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="2"/>
@@ -12561,7 +12536,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" ht="16.5" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="2"/>
@@ -12591,7 +12566,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" ht="16.5" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="2"/>
@@ -12621,7 +12596,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" ht="16.5" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="2"/>
@@ -12651,7 +12626,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" ht="16.5" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="2"/>
@@ -12681,7 +12656,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:28" ht="16.5" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="2"/>
@@ -12711,7 +12686,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:28" ht="16.5" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="2"/>
@@ -12741,7 +12716,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:28" ht="16.5" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="2"/>
@@ -12771,7 +12746,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" ht="16.5" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="2"/>
@@ -12801,7 +12776,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" ht="16.5" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="2"/>
@@ -12831,7 +12806,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" ht="16.5" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="2"/>
@@ -12861,7 +12836,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" ht="16.5" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="2"/>
@@ -12891,7 +12866,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" ht="16.5" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="2"/>
@@ -12921,7 +12896,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:28" ht="16.5" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="2"/>
@@ -12951,7 +12926,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" ht="16.5" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="2"/>
@@ -12981,7 +12956,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" ht="16.5" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="2"/>
@@ -13011,7 +12986,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" ht="16.5" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="2"/>
@@ -13041,7 +13016,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" ht="16.5" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="2"/>
@@ -13071,7 +13046,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" ht="16.5" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="2"/>
@@ -13101,7 +13076,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:28" ht="16.5" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="2"/>
@@ -13131,7 +13106,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" ht="16.5" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="2"/>
@@ -13161,7 +13136,7 @@
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
     </row>
-    <row r="380" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:28" ht="16.5" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="2"/>
@@ -13191,7 +13166,7 @@
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
     </row>
-    <row r="381" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:28" ht="16.5" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="2"/>
@@ -13221,7 +13196,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:28" ht="16.5" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="2"/>
@@ -13251,7 +13226,7 @@
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
     </row>
-    <row r="383" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:28" ht="16.5" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="2"/>
@@ -13281,7 +13256,7 @@
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
     </row>
-    <row r="384" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:28" ht="16.5" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="2"/>
@@ -13311,7 +13286,7 @@
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
     </row>
-    <row r="385" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:28" ht="16.5" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="2"/>
@@ -13341,7 +13316,7 @@
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
     </row>
-    <row r="386" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:28" ht="16.5" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="2"/>
@@ -13371,7 +13346,7 @@
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
     </row>
-    <row r="387" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:28" ht="16.5" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="2"/>
@@ -13401,7 +13376,7 @@
       <c r="AA387" s="1"/>
       <c r="AB387" s="1"/>
     </row>
-    <row r="388" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:28" ht="16.5" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="2"/>
@@ -13431,7 +13406,7 @@
       <c r="AA388" s="1"/>
       <c r="AB388" s="1"/>
     </row>
-    <row r="389" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:28" ht="16.5" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="2"/>
@@ -13461,7 +13436,7 @@
       <c r="AA389" s="1"/>
       <c r="AB389" s="1"/>
     </row>
-    <row r="390" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:28" ht="16.5" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="2"/>
@@ -13491,7 +13466,7 @@
       <c r="AA390" s="1"/>
       <c r="AB390" s="1"/>
     </row>
-    <row r="391" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:28" ht="16.5" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="2"/>
@@ -13521,7 +13496,7 @@
       <c r="AA391" s="1"/>
       <c r="AB391" s="1"/>
     </row>
-    <row r="392" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:28" ht="16.5" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="2"/>
@@ -13551,7 +13526,7 @@
       <c r="AA392" s="1"/>
       <c r="AB392" s="1"/>
     </row>
-    <row r="393" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:28" ht="16.5" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="2"/>
@@ -13581,7 +13556,7 @@
       <c r="AA393" s="1"/>
       <c r="AB393" s="1"/>
     </row>
-    <row r="394" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:28" ht="16.5" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="2"/>
@@ -13611,7 +13586,7 @@
       <c r="AA394" s="1"/>
       <c r="AB394" s="1"/>
     </row>
-    <row r="395" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:28" ht="16.5" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="2"/>
@@ -13641,7 +13616,7 @@
       <c r="AA395" s="1"/>
       <c r="AB395" s="1"/>
     </row>
-    <row r="396" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:28" ht="16.5" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="2"/>
@@ -13671,7 +13646,7 @@
       <c r="AA396" s="1"/>
       <c r="AB396" s="1"/>
     </row>
-    <row r="397" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:28" ht="16.5" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="2"/>
@@ -13701,7 +13676,7 @@
       <c r="AA397" s="1"/>
       <c r="AB397" s="1"/>
     </row>
-    <row r="398" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:28" ht="16.5" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="2"/>
@@ -13731,7 +13706,7 @@
       <c r="AA398" s="1"/>
       <c r="AB398" s="1"/>
     </row>
-    <row r="399" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:28" ht="16.5" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="2"/>
@@ -13761,7 +13736,7 @@
       <c r="AA399" s="1"/>
       <c r="AB399" s="1"/>
     </row>
-    <row r="400" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:28" ht="16.5" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="2"/>
@@ -13791,7 +13766,7 @@
       <c r="AA400" s="1"/>
       <c r="AB400" s="1"/>
     </row>
-    <row r="401" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:28" ht="16.5" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="2"/>
@@ -13821,7 +13796,7 @@
       <c r="AA401" s="1"/>
       <c r="AB401" s="1"/>
     </row>
-    <row r="402" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:28" ht="16.5" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="2"/>
@@ -13851,7 +13826,7 @@
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
     </row>
-    <row r="403" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:28" ht="16.5" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="2"/>
@@ -13881,7 +13856,7 @@
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
     </row>
-    <row r="404" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:28" ht="16.5" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="2"/>
@@ -13911,7 +13886,7 @@
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
     </row>
-    <row r="405" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:28" ht="16.5" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="2"/>
@@ -13941,7 +13916,7 @@
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
     </row>
-    <row r="406" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:28" ht="16.5" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="2"/>
@@ -13971,7 +13946,7 @@
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
     </row>
-    <row r="407" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:28" ht="16.5" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="2"/>
@@ -14001,7 +13976,7 @@
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
     </row>
-    <row r="408" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:28" ht="16.5" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="2"/>
@@ -14031,7 +14006,7 @@
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
     </row>
-    <row r="409" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:28" ht="16.5" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="2"/>
@@ -14061,7 +14036,7 @@
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
     </row>
-    <row r="410" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:28" ht="16.5" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="2"/>
@@ -14091,7 +14066,7 @@
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
     </row>
-    <row r="411" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:28" ht="16.5" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="2"/>
@@ -14121,7 +14096,7 @@
       <c r="AA411" s="1"/>
       <c r="AB411" s="1"/>
     </row>
-    <row r="412" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:28" ht="16.5" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="2"/>
@@ -14151,7 +14126,7 @@
       <c r="AA412" s="1"/>
       <c r="AB412" s="1"/>
     </row>
-    <row r="413" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:28" ht="16.5" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="2"/>
@@ -14181,7 +14156,7 @@
       <c r="AA413" s="1"/>
       <c r="AB413" s="1"/>
     </row>
-    <row r="414" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:28" ht="16.5" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="2"/>
@@ -14211,7 +14186,7 @@
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
     </row>
-    <row r="415" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:28" ht="16.5" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="2"/>
@@ -14241,7 +14216,7 @@
       <c r="AA415" s="1"/>
       <c r="AB415" s="1"/>
     </row>
-    <row r="416" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:28" ht="16.5" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="2"/>
@@ -14271,7 +14246,7 @@
       <c r="AA416" s="1"/>
       <c r="AB416" s="1"/>
     </row>
-    <row r="417" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:28" ht="16.5" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="2"/>
@@ -14301,7 +14276,7 @@
       <c r="AA417" s="1"/>
       <c r="AB417" s="1"/>
     </row>
-    <row r="418" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:28" ht="16.5" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="2"/>
@@ -14331,7 +14306,7 @@
       <c r="AA418" s="1"/>
       <c r="AB418" s="1"/>
     </row>
-    <row r="419" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:28" ht="16.5" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="2"/>
@@ -14361,7 +14336,7 @@
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
     </row>
-    <row r="420" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:28" ht="16.5" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="2"/>
@@ -14391,7 +14366,7 @@
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
     </row>
-    <row r="421" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:28" ht="16.5" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="2"/>
@@ -14421,7 +14396,7 @@
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
     </row>
-    <row r="422" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:28" ht="16.5" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="2"/>
@@ -14451,7 +14426,7 @@
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
     </row>
-    <row r="423" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:28" ht="16.5" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="2"/>
@@ -14481,7 +14456,7 @@
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
     </row>
-    <row r="424" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:28" ht="16.5" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="2"/>
@@ -14511,7 +14486,7 @@
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
     </row>
-    <row r="425" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:28" ht="16.5" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="2"/>
@@ -14541,7 +14516,7 @@
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
     </row>
-    <row r="426" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:28" ht="16.5" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="2"/>
@@ -14571,7 +14546,7 @@
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
     </row>
-    <row r="427" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:28" ht="16.5" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="2"/>
@@ -14601,7 +14576,7 @@
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
     </row>
-    <row r="428" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:28" ht="16.5" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="2"/>
@@ -14631,7 +14606,7 @@
       <c r="AA428" s="1"/>
       <c r="AB428" s="1"/>
     </row>
-    <row r="429" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:28" ht="16.5" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="2"/>
@@ -14661,7 +14636,7 @@
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
     </row>
-    <row r="430" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:28" ht="16.5" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="2"/>
@@ -14691,7 +14666,7 @@
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
     </row>
-    <row r="431" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:28" ht="16.5" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="2"/>
@@ -14721,7 +14696,7 @@
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
     </row>
-    <row r="432" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:28" ht="16.5" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="2"/>
@@ -14751,7 +14726,7 @@
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
     </row>
-    <row r="433" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:28" ht="16.5" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="2"/>
@@ -14781,7 +14756,7 @@
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
     </row>
-    <row r="434" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:28" ht="16.5" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="2"/>
@@ -14811,7 +14786,7 @@
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
     </row>
-    <row r="435" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:28" ht="16.5" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="2"/>
@@ -14841,7 +14816,7 @@
       <c r="AA435" s="1"/>
       <c r="AB435" s="1"/>
     </row>
-    <row r="436" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:28" ht="16.5" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="2"/>
@@ -14871,7 +14846,7 @@
       <c r="AA436" s="1"/>
       <c r="AB436" s="1"/>
     </row>
-    <row r="437" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:28" ht="16.5" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="2"/>
@@ -14901,7 +14876,7 @@
       <c r="AA437" s="1"/>
       <c r="AB437" s="1"/>
     </row>
-    <row r="438" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:28" ht="16.5" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="2"/>
@@ -14931,7 +14906,7 @@
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
     </row>
-    <row r="439" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:28" ht="16.5" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="2"/>
@@ -14961,7 +14936,7 @@
       <c r="AA439" s="1"/>
       <c r="AB439" s="1"/>
     </row>
-    <row r="440" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:28" ht="16.5" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="2"/>
@@ -14991,7 +14966,7 @@
       <c r="AA440" s="1"/>
       <c r="AB440" s="1"/>
     </row>
-    <row r="441" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:28" ht="16.5" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="2"/>
@@ -15021,7 +14996,7 @@
       <c r="AA441" s="1"/>
       <c r="AB441" s="1"/>
     </row>
-    <row r="442" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:28" ht="16.5" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="2"/>
@@ -15051,7 +15026,7 @@
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
     </row>
-    <row r="443" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:28" ht="16.5" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="2"/>
@@ -15081,7 +15056,7 @@
       <c r="AA443" s="1"/>
       <c r="AB443" s="1"/>
     </row>
-    <row r="444" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:28" ht="16.5" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="2"/>
@@ -15111,7 +15086,7 @@
       <c r="AA444" s="1"/>
       <c r="AB444" s="1"/>
     </row>
-    <row r="445" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:28" ht="16.5" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="2"/>
@@ -15141,7 +15116,7 @@
       <c r="AA445" s="1"/>
       <c r="AB445" s="1"/>
     </row>
-    <row r="446" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:28" ht="16.5" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="2"/>
@@ -15171,7 +15146,7 @@
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
     </row>
-    <row r="447" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:28" ht="16.5" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="2"/>
@@ -15201,7 +15176,7 @@
       <c r="AA447" s="1"/>
       <c r="AB447" s="1"/>
     </row>
-    <row r="448" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:28" ht="16.5" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="2"/>
@@ -15231,7 +15206,7 @@
       <c r="AA448" s="1"/>
       <c r="AB448" s="1"/>
     </row>
-    <row r="449" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:28" ht="16.5" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="2"/>
@@ -15261,7 +15236,7 @@
       <c r="AA449" s="1"/>
       <c r="AB449" s="1"/>
     </row>
-    <row r="450" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:28" ht="16.5" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="2"/>
@@ -15291,7 +15266,7 @@
       <c r="AA450" s="1"/>
       <c r="AB450" s="1"/>
     </row>
-    <row r="451" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:28" ht="16.5" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="2"/>
@@ -15321,7 +15296,7 @@
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
     </row>
-    <row r="452" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:28" ht="16.5" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="2"/>
@@ -15351,7 +15326,7 @@
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
     </row>
-    <row r="453" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:28" ht="16.5" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="2"/>
@@ -15381,7 +15356,7 @@
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
     </row>
-    <row r="454" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:28" ht="16.5" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="2"/>
@@ -15411,7 +15386,7 @@
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
     </row>
-    <row r="455" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:28" ht="16.5" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="2"/>
@@ -15441,7 +15416,7 @@
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
     </row>
-    <row r="456" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:28" ht="16.5" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="2"/>
@@ -15471,7 +15446,7 @@
       <c r="AA456" s="1"/>
       <c r="AB456" s="1"/>
     </row>
-    <row r="457" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:28" ht="16.5" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="2"/>
@@ -15501,7 +15476,7 @@
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
     </row>
-    <row r="458" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:28" ht="16.5" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="2"/>
@@ -15531,7 +15506,7 @@
       <c r="AA458" s="1"/>
       <c r="AB458" s="1"/>
     </row>
-    <row r="459" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:28" ht="16.5" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="2"/>
@@ -15561,7 +15536,7 @@
       <c r="AA459" s="1"/>
       <c r="AB459" s="1"/>
     </row>
-    <row r="460" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" ht="16.5" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="2"/>
@@ -15591,7 +15566,7 @@
       <c r="AA460" s="1"/>
       <c r="AB460" s="1"/>
     </row>
-    <row r="461" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:28" ht="16.5" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="2"/>
@@ -15621,7 +15596,7 @@
       <c r="AA461" s="1"/>
       <c r="AB461" s="1"/>
     </row>
-    <row r="462" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:28" ht="16.5" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="2"/>
@@ -15651,7 +15626,7 @@
       <c r="AA462" s="1"/>
       <c r="AB462" s="1"/>
     </row>
-    <row r="463" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:28" ht="16.5" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="2"/>
@@ -15681,7 +15656,7 @@
       <c r="AA463" s="1"/>
       <c r="AB463" s="1"/>
     </row>
-    <row r="464" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:28" ht="16.5" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="2"/>
@@ -15711,7 +15686,7 @@
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
     </row>
-    <row r="465" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:28" ht="16.5" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="2"/>
@@ -15741,7 +15716,7 @@
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
     </row>
-    <row r="466" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:28" ht="16.5" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="2"/>
@@ -15771,7 +15746,7 @@
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
     </row>
-    <row r="467" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:28" ht="16.5" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="2"/>
@@ -15801,7 +15776,7 @@
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
     </row>
-    <row r="468" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:28" ht="16.5" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="2"/>
@@ -15831,7 +15806,7 @@
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
     </row>
-    <row r="469" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:28" ht="16.5" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="2"/>
@@ -15861,7 +15836,7 @@
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
     </row>
-    <row r="470" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:28" ht="16.5" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="2"/>
@@ -15891,7 +15866,7 @@
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
     </row>
-    <row r="471" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:28" ht="16.5" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="2"/>
@@ -15921,7 +15896,7 @@
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
     </row>
-    <row r="472" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:28" ht="16.5" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="2"/>
@@ -15951,7 +15926,7 @@
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
     </row>
-    <row r="473" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:28" ht="16.5" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="2"/>
@@ -15981,7 +15956,7 @@
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
     </row>
-    <row r="474" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:28" ht="16.5" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="2"/>
@@ -16011,7 +15986,7 @@
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
     </row>
-    <row r="475" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:28" ht="16.5" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="2"/>
@@ -16041,7 +16016,7 @@
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
     </row>
-    <row r="476" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:28" ht="16.5" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="2"/>
@@ -16071,7 +16046,7 @@
       <c r="AA476" s="1"/>
       <c r="AB476" s="1"/>
     </row>
-    <row r="477" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:28" ht="16.5" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="2"/>
@@ -16101,7 +16076,7 @@
       <c r="AA477" s="1"/>
       <c r="AB477" s="1"/>
     </row>
-    <row r="478" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:28" ht="16.5" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="2"/>
@@ -16131,7 +16106,7 @@
       <c r="AA478" s="1"/>
       <c r="AB478" s="1"/>
     </row>
-    <row r="479" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:28" ht="16.5" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="2"/>
@@ -16161,7 +16136,7 @@
       <c r="AA479" s="1"/>
       <c r="AB479" s="1"/>
     </row>
-    <row r="480" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:28" ht="16.5" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="2"/>
@@ -16191,7 +16166,7 @@
       <c r="AA480" s="1"/>
       <c r="AB480" s="1"/>
     </row>
-    <row r="481" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:28" ht="16.5" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="2"/>
@@ -16221,7 +16196,7 @@
       <c r="AA481" s="1"/>
       <c r="AB481" s="1"/>
     </row>
-    <row r="482" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:28" ht="16.5" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="2"/>
@@ -16251,7 +16226,7 @@
       <c r="AA482" s="1"/>
       <c r="AB482" s="1"/>
     </row>
-    <row r="483" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:28" ht="16.5" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="2"/>
@@ -16281,7 +16256,7 @@
       <c r="AA483" s="1"/>
       <c r="AB483" s="1"/>
     </row>
-    <row r="484" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:28" ht="16.5" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="2"/>
@@ -16311,7 +16286,7 @@
       <c r="AA484" s="1"/>
       <c r="AB484" s="1"/>
     </row>
-    <row r="485" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:28" ht="16.5" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="2"/>
@@ -16341,7 +16316,7 @@
       <c r="AA485" s="1"/>
       <c r="AB485" s="1"/>
     </row>
-    <row r="486" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:28" ht="16.5" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="2"/>
@@ -16371,7 +16346,7 @@
       <c r="AA486" s="1"/>
       <c r="AB486" s="1"/>
     </row>
-    <row r="487" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:28" ht="16.5" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="2"/>
@@ -16401,7 +16376,7 @@
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
     </row>
-    <row r="488" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:28" ht="16.5" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="2"/>
@@ -16431,7 +16406,7 @@
       <c r="AA488" s="1"/>
       <c r="AB488" s="1"/>
     </row>
-    <row r="489" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:28" ht="16.5" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="2"/>
@@ -16461,7 +16436,7 @@
       <c r="AA489" s="1"/>
       <c r="AB489" s="1"/>
     </row>
-    <row r="490" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:28" ht="16.5" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="2"/>
@@ -16491,7 +16466,7 @@
       <c r="AA490" s="1"/>
       <c r="AB490" s="1"/>
     </row>
-    <row r="491" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:28" ht="16.5" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="2"/>
@@ -16521,7 +16496,7 @@
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
     </row>
-    <row r="492" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:28" ht="16.5" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="2"/>
@@ -16551,7 +16526,7 @@
       <c r="AA492" s="1"/>
       <c r="AB492" s="1"/>
     </row>
-    <row r="493" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:28" ht="16.5" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="2"/>
@@ -16581,7 +16556,7 @@
       <c r="AA493" s="1"/>
       <c r="AB493" s="1"/>
     </row>
-    <row r="494" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:28" ht="16.5" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="2"/>
@@ -16611,7 +16586,7 @@
       <c r="AA494" s="1"/>
       <c r="AB494" s="1"/>
     </row>
-    <row r="495" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:28" ht="16.5" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="2"/>
@@ -16641,7 +16616,7 @@
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
     </row>
-    <row r="496" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:28" ht="16.5" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="2"/>
@@ -16671,7 +16646,7 @@
       <c r="AA496" s="1"/>
       <c r="AB496" s="1"/>
     </row>
-    <row r="497" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:28" ht="16.5" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="2"/>
@@ -16701,7 +16676,7 @@
       <c r="AA497" s="1"/>
       <c r="AB497" s="1"/>
     </row>
-    <row r="498" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:28" ht="16.5" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="2"/>
@@ -16731,7 +16706,7 @@
       <c r="AA498" s="1"/>
       <c r="AB498" s="1"/>
     </row>
-    <row r="499" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:28" ht="16.5" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="2"/>
@@ -16761,7 +16736,7 @@
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
     </row>
-    <row r="500" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:28" ht="16.5" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="2"/>
@@ -16791,7 +16766,7 @@
       <c r="AA500" s="1"/>
       <c r="AB500" s="1"/>
     </row>
-    <row r="501" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:28" ht="16.5" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="2"/>
@@ -16821,7 +16796,7 @@
       <c r="AA501" s="1"/>
       <c r="AB501" s="1"/>
     </row>
-    <row r="502" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:28" ht="16.5" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="2"/>
@@ -16851,7 +16826,7 @@
       <c r="AA502" s="1"/>
       <c r="AB502" s="1"/>
     </row>
-    <row r="503" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:28" ht="16.5" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="2"/>
@@ -16881,7 +16856,7 @@
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
     </row>
-    <row r="504" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:28" ht="16.5" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="2"/>
@@ -16911,7 +16886,7 @@
       <c r="AA504" s="1"/>
       <c r="AB504" s="1"/>
     </row>
-    <row r="505" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:28" ht="16.5" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="2"/>
@@ -16941,7 +16916,7 @@
       <c r="AA505" s="1"/>
       <c r="AB505" s="1"/>
     </row>
-    <row r="506" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:28" ht="16.5" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="2"/>
@@ -16971,7 +16946,7 @@
       <c r="AA506" s="1"/>
       <c r="AB506" s="1"/>
     </row>
-    <row r="507" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:28" ht="16.5" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="2"/>
@@ -17001,7 +16976,7 @@
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
     </row>
-    <row r="508" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:28" ht="16.5" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="2"/>
@@ -17031,7 +17006,7 @@
       <c r="AA508" s="1"/>
       <c r="AB508" s="1"/>
     </row>
-    <row r="509" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:28" ht="16.5" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="2"/>
@@ -17061,7 +17036,7 @@
       <c r="AA509" s="1"/>
       <c r="AB509" s="1"/>
     </row>
-    <row r="510" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:28" ht="16.5" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="2"/>
@@ -17091,7 +17066,7 @@
       <c r="AA510" s="1"/>
       <c r="AB510" s="1"/>
     </row>
-    <row r="511" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:28" ht="16.5" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="2"/>
@@ -17121,7 +17096,7 @@
       <c r="AA511" s="1"/>
       <c r="AB511" s="1"/>
     </row>
-    <row r="512" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:28" ht="16.5" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="2"/>
@@ -17151,7 +17126,7 @@
       <c r="AA512" s="1"/>
       <c r="AB512" s="1"/>
     </row>
-    <row r="513" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:28" ht="16.5" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="2"/>
@@ -17181,7 +17156,7 @@
       <c r="AA513" s="1"/>
       <c r="AB513" s="1"/>
     </row>
-    <row r="514" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:28" ht="16.5" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="2"/>
@@ -17211,7 +17186,7 @@
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
     </row>
-    <row r="515" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:28" ht="16.5" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="2"/>
@@ -17241,7 +17216,7 @@
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
     </row>
-    <row r="516" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:28" ht="16.5" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="2"/>
@@ -17271,7 +17246,7 @@
       <c r="AA516" s="1"/>
       <c r="AB516" s="1"/>
     </row>
-    <row r="517" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:28" ht="16.5" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="2"/>
@@ -17301,7 +17276,7 @@
       <c r="AA517" s="1"/>
       <c r="AB517" s="1"/>
     </row>
-    <row r="518" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:28" ht="16.5" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="2"/>
@@ -17331,7 +17306,7 @@
       <c r="AA518" s="1"/>
       <c r="AB518" s="1"/>
     </row>
-    <row r="519" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:28" ht="16.5" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="2"/>
@@ -17361,7 +17336,7 @@
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
     </row>
-    <row r="520" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:28" ht="16.5" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="2"/>
@@ -17391,7 +17366,7 @@
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
     </row>
-    <row r="521" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:28" ht="16.5" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="2"/>
@@ -17421,7 +17396,7 @@
       <c r="AA521" s="1"/>
       <c r="AB521" s="1"/>
     </row>
-    <row r="522" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:28" ht="16.5" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="2"/>
@@ -17451,7 +17426,7 @@
       <c r="AA522" s="1"/>
       <c r="AB522" s="1"/>
     </row>
-    <row r="523" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:28" ht="16.5" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="2"/>
@@ -17481,7 +17456,7 @@
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
     </row>
-    <row r="524" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:28" ht="16.5" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="2"/>
@@ -17511,7 +17486,7 @@
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
     </row>
-    <row r="525" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:28" ht="16.5" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="2"/>
@@ -17541,7 +17516,7 @@
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
     </row>
-    <row r="526" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:28" ht="16.5" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="2"/>
@@ -17571,7 +17546,7 @@
       <c r="AA526" s="1"/>
       <c r="AB526" s="1"/>
     </row>
-    <row r="527" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:28" ht="16.5" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="2"/>
@@ -17601,7 +17576,7 @@
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
     </row>
-    <row r="528" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:28" ht="16.5" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="2"/>
@@ -17631,7 +17606,7 @@
       <c r="AA528" s="1"/>
       <c r="AB528" s="1"/>
     </row>
-    <row r="529" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:28" ht="16.5" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="2"/>
@@ -17661,7 +17636,7 @@
       <c r="AA529" s="1"/>
       <c r="AB529" s="1"/>
     </row>
-    <row r="530" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:28" ht="16.5" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="2"/>
@@ -17691,7 +17666,7 @@
       <c r="AA530" s="1"/>
       <c r="AB530" s="1"/>
     </row>
-    <row r="531" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:28" ht="16.5" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="2"/>
@@ -17721,7 +17696,7 @@
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
     </row>
-    <row r="532" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:28" ht="16.5" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="2"/>
@@ -17751,7 +17726,7 @@
       <c r="AA532" s="1"/>
       <c r="AB532" s="1"/>
     </row>
-    <row r="533" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:28" ht="16.5" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="2"/>
@@ -17781,7 +17756,7 @@
       <c r="AA533" s="1"/>
       <c r="AB533" s="1"/>
     </row>
-    <row r="534" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:28" ht="16.5" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="2"/>
@@ -17811,7 +17786,7 @@
       <c r="AA534" s="1"/>
       <c r="AB534" s="1"/>
     </row>
-    <row r="535" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:28" ht="16.5" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="2"/>
@@ -17841,7 +17816,7 @@
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
     </row>
-    <row r="536" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:28" ht="16.5" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="2"/>
@@ -17871,7 +17846,7 @@
       <c r="AA536" s="1"/>
       <c r="AB536" s="1"/>
     </row>
-    <row r="537" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:28" ht="16.5" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="2"/>
@@ -17901,7 +17876,7 @@
       <c r="AA537" s="1"/>
       <c r="AB537" s="1"/>
     </row>
-    <row r="538" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:28" ht="16.5" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="2"/>
@@ -17931,7 +17906,7 @@
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
     </row>
-    <row r="539" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:28" ht="16.5" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="2"/>
@@ -17961,7 +17936,7 @@
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
     </row>
-    <row r="540" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:28" ht="16.5" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="2"/>
@@ -17991,7 +17966,7 @@
       <c r="AA540" s="1"/>
       <c r="AB540" s="1"/>
     </row>
-    <row r="541" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:28" ht="16.5" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="2"/>
@@ -18021,7 +17996,7 @@
       <c r="AA541" s="1"/>
       <c r="AB541" s="1"/>
     </row>
-    <row r="542" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:28" ht="16.5" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="2"/>
@@ -18051,7 +18026,7 @@
       <c r="AA542" s="1"/>
       <c r="AB542" s="1"/>
     </row>
-    <row r="543" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:28" ht="16.5" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="2"/>
@@ -18081,7 +18056,7 @@
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
     </row>
-    <row r="544" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:28" ht="16.5" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="2"/>
@@ -18111,7 +18086,7 @@
       <c r="AA544" s="1"/>
       <c r="AB544" s="1"/>
     </row>
-    <row r="545" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:28" ht="16.5" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="2"/>
@@ -18141,7 +18116,7 @@
       <c r="AA545" s="1"/>
       <c r="AB545" s="1"/>
     </row>
-    <row r="546" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:28" ht="16.5" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="2"/>
@@ -18171,7 +18146,7 @@
       <c r="AA546" s="1"/>
       <c r="AB546" s="1"/>
     </row>
-    <row r="547" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:28" ht="16.5" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="2"/>
@@ -18201,7 +18176,7 @@
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
     </row>
-    <row r="548" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:28" ht="16.5" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="2"/>
@@ -18231,7 +18206,7 @@
       <c r="AA548" s="1"/>
       <c r="AB548" s="1"/>
     </row>
-    <row r="549" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:28" ht="16.5" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="2"/>
@@ -18261,7 +18236,7 @@
       <c r="AA549" s="1"/>
       <c r="AB549" s="1"/>
     </row>
-    <row r="550" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:28" ht="16.5" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="2"/>
@@ -18291,7 +18266,7 @@
       <c r="AA550" s="1"/>
       <c r="AB550" s="1"/>
     </row>
-    <row r="551" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:28" ht="16.5" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="2"/>
@@ -18321,7 +18296,7 @@
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
     </row>
-    <row r="552" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:28" ht="16.5" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="2"/>
@@ -18351,7 +18326,7 @@
       <c r="AA552" s="1"/>
       <c r="AB552" s="1"/>
     </row>
-    <row r="553" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:28" ht="16.5" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="2"/>
@@ -18381,7 +18356,7 @@
       <c r="AA553" s="1"/>
       <c r="AB553" s="1"/>
     </row>
-    <row r="554" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:28" ht="16.5" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="2"/>
@@ -18411,7 +18386,7 @@
       <c r="AA554" s="1"/>
       <c r="AB554" s="1"/>
     </row>
-    <row r="555" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:28" ht="16.5" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="2"/>
@@ -18441,7 +18416,7 @@
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
     </row>
-    <row r="556" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:28" ht="16.5" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="2"/>
@@ -18471,7 +18446,7 @@
       <c r="AA556" s="1"/>
       <c r="AB556" s="1"/>
     </row>
-    <row r="557" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:28" ht="16.5" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="2"/>
@@ -18501,7 +18476,7 @@
       <c r="AA557" s="1"/>
       <c r="AB557" s="1"/>
     </row>
-    <row r="558" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:28" ht="16.5" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="2"/>
@@ -18531,7 +18506,7 @@
       <c r="AA558" s="1"/>
       <c r="AB558" s="1"/>
     </row>
-    <row r="559" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:28" ht="16.5" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="2"/>
@@ -18561,7 +18536,7 @@
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
     </row>
-    <row r="560" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:28" ht="16.5" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="2"/>
@@ -18591,7 +18566,7 @@
       <c r="AA560" s="1"/>
       <c r="AB560" s="1"/>
     </row>
-    <row r="561" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:28" ht="16.5" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="2"/>
@@ -18621,7 +18596,7 @@
       <c r="AA561" s="1"/>
       <c r="AB561" s="1"/>
     </row>
-    <row r="562" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:28" ht="16.5" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="2"/>
@@ -18651,7 +18626,7 @@
       <c r="AA562" s="1"/>
       <c r="AB562" s="1"/>
     </row>
-    <row r="563" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:28" ht="16.5" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="2"/>
@@ -18681,7 +18656,7 @@
       <c r="AA563" s="1"/>
       <c r="AB563" s="1"/>
     </row>
-    <row r="564" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:28" ht="16.5" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="2"/>
@@ -18711,7 +18686,7 @@
       <c r="AA564" s="1"/>
       <c r="AB564" s="1"/>
     </row>
-    <row r="565" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:28" ht="16.5" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="2"/>
@@ -18741,7 +18716,7 @@
       <c r="AA565" s="1"/>
       <c r="AB565" s="1"/>
     </row>
-    <row r="566" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:28" ht="16.5" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="2"/>
@@ -18771,7 +18746,7 @@
       <c r="AA566" s="1"/>
       <c r="AB566" s="1"/>
     </row>
-    <row r="567" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:28" ht="16.5" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="2"/>
@@ -18801,7 +18776,7 @@
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
     </row>
-    <row r="568" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:28" ht="16.5" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="2"/>
@@ -18831,7 +18806,7 @@
       <c r="AA568" s="1"/>
       <c r="AB568" s="1"/>
     </row>
-    <row r="569" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:28" ht="16.5" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="2"/>
@@ -18861,7 +18836,7 @@
       <c r="AA569" s="1"/>
       <c r="AB569" s="1"/>
     </row>
-    <row r="570" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:28" ht="16.5" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="2"/>
@@ -18891,7 +18866,7 @@
       <c r="AA570" s="1"/>
       <c r="AB570" s="1"/>
     </row>
-    <row r="571" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:28" ht="16.5" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="2"/>
@@ -18921,7 +18896,7 @@
       <c r="AA571" s="1"/>
       <c r="AB571" s="1"/>
     </row>
-    <row r="572" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:28" ht="16.5" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="2"/>
@@ -18951,7 +18926,7 @@
       <c r="AA572" s="1"/>
       <c r="AB572" s="1"/>
     </row>
-    <row r="573" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:28" ht="16.5" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="2"/>
@@ -18981,7 +18956,7 @@
       <c r="AA573" s="1"/>
       <c r="AB573" s="1"/>
     </row>
-    <row r="574" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:28" ht="16.5" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="2"/>
@@ -19011,7 +18986,7 @@
       <c r="AA574" s="1"/>
       <c r="AB574" s="1"/>
     </row>
-    <row r="575" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:28" ht="16.5" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="2"/>
@@ -19041,7 +19016,7 @@
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
     </row>
-    <row r="576" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:28" ht="16.5" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="2"/>
@@ -19071,7 +19046,7 @@
       <c r="AA576" s="1"/>
       <c r="AB576" s="1"/>
     </row>
-    <row r="577" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:28" ht="16.5" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="2"/>
@@ -19101,7 +19076,7 @@
       <c r="AA577" s="1"/>
       <c r="AB577" s="1"/>
     </row>
-    <row r="578" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:28" ht="16.5" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="2"/>
@@ -19131,7 +19106,7 @@
       <c r="AA578" s="1"/>
       <c r="AB578" s="1"/>
     </row>
-    <row r="579" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:28" ht="16.5" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="2"/>
@@ -19161,7 +19136,7 @@
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
     </row>
-    <row r="580" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:28" ht="16.5" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="2"/>
@@ -19191,7 +19166,7 @@
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
     </row>
-    <row r="581" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:28" ht="16.5" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="2"/>
@@ -19221,7 +19196,7 @@
       <c r="AA581" s="1"/>
       <c r="AB581" s="1"/>
     </row>
-    <row r="582" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:28" ht="16.5" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="2"/>
@@ -19251,7 +19226,7 @@
       <c r="AA582" s="1"/>
       <c r="AB582" s="1"/>
     </row>
-    <row r="583" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:28" ht="16.5" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="2"/>
@@ -19281,7 +19256,7 @@
       <c r="AA583" s="1"/>
       <c r="AB583" s="1"/>
     </row>
-    <row r="584" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:28" ht="16.5" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="2"/>
@@ -19311,7 +19286,7 @@
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
     </row>
-    <row r="585" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:28" ht="16.5" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="2"/>
@@ -19341,7 +19316,7 @@
       <c r="AA585" s="1"/>
       <c r="AB585" s="1"/>
     </row>
-    <row r="586" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:28" ht="16.5" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="2"/>
@@ -19371,7 +19346,7 @@
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
     </row>
-    <row r="587" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:28" ht="16.5" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="2"/>
@@ -19401,7 +19376,7 @@
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
     </row>
-    <row r="588" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:28" ht="16.5" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="2"/>
@@ -19431,7 +19406,7 @@
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
     </row>
-    <row r="589" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:28" ht="16.5" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="2"/>
@@ -19461,7 +19436,7 @@
       <c r="AA589" s="1"/>
       <c r="AB589" s="1"/>
     </row>
-    <row r="590" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:28" ht="16.5" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="2"/>
@@ -19491,7 +19466,7 @@
       <c r="AA590" s="1"/>
       <c r="AB590" s="1"/>
     </row>
-    <row r="591" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:28" ht="16.5" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="2"/>
@@ -19521,7 +19496,7 @@
       <c r="AA591" s="1"/>
       <c r="AB591" s="1"/>
     </row>
-    <row r="592" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:28" ht="16.5" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="2"/>
@@ -19551,7 +19526,7 @@
       <c r="AA592" s="1"/>
       <c r="AB592" s="1"/>
     </row>
-    <row r="593" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:28" ht="16.5" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="2"/>
@@ -19581,7 +19556,7 @@
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
     </row>
-    <row r="594" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:28" ht="16.5" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="2"/>
@@ -19611,7 +19586,7 @@
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
     </row>
-    <row r="595" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:28" ht="16.5" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="2"/>
@@ -19641,7 +19616,7 @@
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
     </row>
-    <row r="596" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:28" ht="16.5" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="2"/>
@@ -19671,7 +19646,7 @@
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
     </row>
-    <row r="597" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:28" ht="16.5" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="2"/>
@@ -19701,7 +19676,7 @@
       <c r="AA597" s="1"/>
       <c r="AB597" s="1"/>
     </row>
-    <row r="598" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:28" ht="16.5" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="2"/>
@@ -19731,7 +19706,7 @@
       <c r="AA598" s="1"/>
       <c r="AB598" s="1"/>
     </row>
-    <row r="599" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:28" ht="16.5" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="2"/>
@@ -19761,7 +19736,7 @@
       <c r="AA599" s="1"/>
       <c r="AB599" s="1"/>
     </row>
-    <row r="600" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:28" ht="16.5" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="2"/>
@@ -19791,7 +19766,7 @@
       <c r="AA600" s="1"/>
       <c r="AB600" s="1"/>
     </row>
-    <row r="601" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:28" ht="16.5" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="2"/>
@@ -19821,7 +19796,7 @@
       <c r="AA601" s="1"/>
       <c r="AB601" s="1"/>
     </row>
-    <row r="602" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:28" ht="16.5" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="2"/>
@@ -19851,7 +19826,7 @@
       <c r="AA602" s="1"/>
       <c r="AB602" s="1"/>
     </row>
-    <row r="603" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:28" ht="16.5" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="2"/>
@@ -19881,7 +19856,7 @@
       <c r="AA603" s="1"/>
       <c r="AB603" s="1"/>
     </row>
-    <row r="604" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:28" ht="16.5" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="2"/>
@@ -19911,7 +19886,7 @@
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
     </row>
-    <row r="605" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:28" ht="16.5" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="2"/>
@@ -19941,7 +19916,7 @@
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
     </row>
-    <row r="606" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:28" ht="16.5" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="2"/>
@@ -19971,7 +19946,7 @@
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
     </row>
-    <row r="607" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:28" ht="16.5" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="2"/>
@@ -20001,7 +19976,7 @@
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
     </row>
-    <row r="608" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:28" ht="16.5" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="2"/>
@@ -20031,7 +20006,7 @@
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
     </row>
-    <row r="609" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:28" ht="16.5" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="2"/>
@@ -20061,7 +20036,7 @@
       <c r="AA609" s="1"/>
       <c r="AB609" s="1"/>
     </row>
-    <row r="610" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:28" ht="16.5" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="2"/>
@@ -20091,7 +20066,7 @@
       <c r="AA610" s="1"/>
       <c r="AB610" s="1"/>
     </row>
-    <row r="611" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:28" ht="16.5" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="2"/>
@@ -20121,7 +20096,7 @@
       <c r="AA611" s="1"/>
       <c r="AB611" s="1"/>
     </row>
-    <row r="612" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:28" ht="16.5" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="2"/>
@@ -20151,7 +20126,7 @@
       <c r="AA612" s="1"/>
       <c r="AB612" s="1"/>
     </row>
-    <row r="613" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:28" ht="16.5" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="2"/>
@@ -20181,7 +20156,7 @@
       <c r="AA613" s="1"/>
       <c r="AB613" s="1"/>
     </row>
-    <row r="614" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:28" ht="16.5" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="2"/>
@@ -20211,7 +20186,7 @@
       <c r="AA614" s="1"/>
       <c r="AB614" s="1"/>
     </row>
-    <row r="615" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:28" ht="16.5" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="2"/>
@@ -20241,7 +20216,7 @@
       <c r="AA615" s="1"/>
       <c r="AB615" s="1"/>
     </row>
-    <row r="616" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:28" ht="16.5" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="2"/>
@@ -20271,7 +20246,7 @@
       <c r="AA616" s="1"/>
       <c r="AB616" s="1"/>
     </row>
-    <row r="617" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:28" ht="16.5" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="2"/>
@@ -20301,7 +20276,7 @@
       <c r="AA617" s="1"/>
       <c r="AB617" s="1"/>
     </row>
-    <row r="618" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:28" ht="16.5" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="2"/>
@@ -20331,7 +20306,7 @@
       <c r="AA618" s="1"/>
       <c r="AB618" s="1"/>
     </row>
-    <row r="619" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:28" ht="16.5" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="2"/>
@@ -20361,7 +20336,7 @@
       <c r="AA619" s="1"/>
       <c r="AB619" s="1"/>
     </row>
-    <row r="620" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:28" ht="16.5" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="2"/>
@@ -20391,7 +20366,7 @@
       <c r="AA620" s="1"/>
       <c r="AB620" s="1"/>
     </row>
-    <row r="621" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:28" ht="16.5" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="2"/>
@@ -20421,7 +20396,7 @@
       <c r="AA621" s="1"/>
       <c r="AB621" s="1"/>
     </row>
-    <row r="622" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:28" ht="16.5" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="2"/>
@@ -20451,7 +20426,7 @@
       <c r="AA622" s="1"/>
       <c r="AB622" s="1"/>
     </row>
-    <row r="623" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:28" ht="16.5" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="2"/>
@@ -20481,7 +20456,7 @@
       <c r="AA623" s="1"/>
       <c r="AB623" s="1"/>
     </row>
-    <row r="624" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:28" ht="16.5" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="2"/>
@@ -20511,7 +20486,7 @@
       <c r="AA624" s="1"/>
       <c r="AB624" s="1"/>
     </row>
-    <row r="625" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:28" ht="16.5" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="2"/>
@@ -20541,7 +20516,7 @@
       <c r="AA625" s="1"/>
       <c r="AB625" s="1"/>
     </row>
-    <row r="626" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:28" ht="16.5" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="2"/>
@@ -20571,7 +20546,7 @@
       <c r="AA626" s="1"/>
       <c r="AB626" s="1"/>
     </row>
-    <row r="627" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:28" ht="16.5" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="2"/>
@@ -20601,7 +20576,7 @@
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
     </row>
-    <row r="628" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:28" ht="16.5" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="2"/>
@@ -20631,7 +20606,7 @@
       <c r="AA628" s="1"/>
       <c r="AB628" s="1"/>
     </row>
-    <row r="629" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:28" ht="16.5" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="2"/>
@@ -20661,7 +20636,7 @@
       <c r="AA629" s="1"/>
       <c r="AB629" s="1"/>
     </row>
-    <row r="630" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:28" ht="16.5" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="2"/>
@@ -20691,7 +20666,7 @@
       <c r="AA630" s="1"/>
       <c r="AB630" s="1"/>
     </row>
-    <row r="631" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:28" ht="16.5" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="2"/>
@@ -20721,7 +20696,7 @@
       <c r="AA631" s="1"/>
       <c r="AB631" s="1"/>
     </row>
-    <row r="632" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:28" ht="16.5" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="2"/>
@@ -20751,7 +20726,7 @@
       <c r="AA632" s="1"/>
       <c r="AB632" s="1"/>
     </row>
-    <row r="633" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:28" ht="16.5" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="2"/>
@@ -20781,7 +20756,7 @@
       <c r="AA633" s="1"/>
       <c r="AB633" s="1"/>
     </row>
-    <row r="634" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:28" ht="16.5" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="2"/>
@@ -20811,7 +20786,7 @@
       <c r="AA634" s="1"/>
       <c r="AB634" s="1"/>
     </row>
-    <row r="635" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:28" ht="16.5" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="2"/>
@@ -20841,7 +20816,7 @@
       <c r="AA635" s="1"/>
       <c r="AB635" s="1"/>
     </row>
-    <row r="636" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:28" ht="16.5" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="2"/>
@@ -20871,7 +20846,7 @@
       <c r="AA636" s="1"/>
       <c r="AB636" s="1"/>
     </row>
-    <row r="637" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:28" ht="16.5" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="2"/>
@@ -20901,7 +20876,7 @@
       <c r="AA637" s="1"/>
       <c r="AB637" s="1"/>
     </row>
-    <row r="638" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:28" ht="16.5" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="2"/>
@@ -20931,7 +20906,7 @@
       <c r="AA638" s="1"/>
       <c r="AB638" s="1"/>
     </row>
-    <row r="639" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:28" ht="16.5" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="2"/>
@@ -20961,7 +20936,7 @@
       <c r="AA639" s="1"/>
       <c r="AB639" s="1"/>
     </row>
-    <row r="640" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:28" ht="16.5" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="2"/>
@@ -20991,7 +20966,7 @@
       <c r="AA640" s="1"/>
       <c r="AB640" s="1"/>
     </row>
-    <row r="641" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:28" ht="16.5" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="2"/>
@@ -21021,7 +20996,7 @@
       <c r="AA641" s="1"/>
       <c r="AB641" s="1"/>
     </row>
-    <row r="642" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:28" ht="16.5" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="2"/>
@@ -21051,7 +21026,7 @@
       <c r="AA642" s="1"/>
       <c r="AB642" s="1"/>
     </row>
-    <row r="643" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:28" ht="16.5" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="2"/>
@@ -21081,7 +21056,7 @@
       <c r="AA643" s="1"/>
       <c r="AB643" s="1"/>
     </row>
-    <row r="644" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:28" ht="16.5" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="2"/>
@@ -21111,7 +21086,7 @@
       <c r="AA644" s="1"/>
       <c r="AB644" s="1"/>
     </row>
-    <row r="645" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:28" ht="16.5" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="2"/>
@@ -21141,7 +21116,7 @@
       <c r="AA645" s="1"/>
       <c r="AB645" s="1"/>
     </row>
-    <row r="646" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:28" ht="16.5" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="2"/>
@@ -21171,7 +21146,7 @@
       <c r="AA646" s="1"/>
       <c r="AB646" s="1"/>
     </row>
-    <row r="647" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:28" ht="16.5" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="2"/>
@@ -21201,7 +21176,7 @@
       <c r="AA647" s="1"/>
       <c r="AB647" s="1"/>
     </row>
-    <row r="648" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:28" ht="16.5" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="2"/>
@@ -21231,7 +21206,7 @@
       <c r="AA648" s="1"/>
       <c r="AB648" s="1"/>
     </row>
-    <row r="649" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:28" ht="16.5" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="2"/>
@@ -21261,7 +21236,7 @@
       <c r="AA649" s="1"/>
       <c r="AB649" s="1"/>
     </row>
-    <row r="650" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:28" ht="16.5" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="2"/>
@@ -21291,7 +21266,7 @@
       <c r="AA650" s="1"/>
       <c r="AB650" s="1"/>
     </row>
-    <row r="651" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:28" ht="16.5" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="2"/>
@@ -21321,7 +21296,7 @@
       <c r="AA651" s="1"/>
       <c r="AB651" s="1"/>
     </row>
-    <row r="652" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:28" ht="16.5" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="2"/>
@@ -21351,7 +21326,7 @@
       <c r="AA652" s="1"/>
       <c r="AB652" s="1"/>
     </row>
-    <row r="653" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:28" ht="16.5" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="2"/>
@@ -21381,7 +21356,7 @@
       <c r="AA653" s="1"/>
       <c r="AB653" s="1"/>
     </row>
-    <row r="654" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:28" ht="16.5" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="2"/>
@@ -21411,7 +21386,7 @@
       <c r="AA654" s="1"/>
       <c r="AB654" s="1"/>
     </row>
-    <row r="655" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:28" ht="16.5" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="2"/>
@@ -21441,7 +21416,7 @@
       <c r="AA655" s="1"/>
       <c r="AB655" s="1"/>
     </row>
-    <row r="656" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:28" ht="16.5" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="2"/>
@@ -21471,7 +21446,7 @@
       <c r="AA656" s="1"/>
       <c r="AB656" s="1"/>
     </row>
-    <row r="657" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:28" ht="16.5" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="2"/>
@@ -21501,7 +21476,7 @@
       <c r="AA657" s="1"/>
       <c r="AB657" s="1"/>
     </row>
-    <row r="658" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:28" ht="16.5" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="2"/>
@@ -21531,7 +21506,7 @@
       <c r="AA658" s="1"/>
       <c r="AB658" s="1"/>
     </row>
-    <row r="659" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:28" ht="16.5" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="2"/>
@@ -21561,7 +21536,7 @@
       <c r="AA659" s="1"/>
       <c r="AB659" s="1"/>
     </row>
-    <row r="660" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:28" ht="16.5" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="2"/>
@@ -21591,7 +21566,7 @@
       <c r="AA660" s="1"/>
       <c r="AB660" s="1"/>
     </row>
-    <row r="661" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:28" ht="16.5" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="2"/>
@@ -21621,7 +21596,7 @@
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
     </row>
-    <row r="662" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:28" ht="16.5" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="2"/>
@@ -21651,7 +21626,7 @@
       <c r="AA662" s="1"/>
       <c r="AB662" s="1"/>
     </row>
-    <row r="663" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:28" ht="16.5" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="2"/>
@@ -21681,7 +21656,7 @@
       <c r="AA663" s="1"/>
       <c r="AB663" s="1"/>
     </row>
-    <row r="664" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:28" ht="16.5" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="2"/>
@@ -21711,7 +21686,7 @@
       <c r="AA664" s="1"/>
       <c r="AB664" s="1"/>
     </row>
-    <row r="665" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:28" ht="16.5" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="2"/>
@@ -21741,7 +21716,7 @@
       <c r="AA665" s="1"/>
       <c r="AB665" s="1"/>
     </row>
-    <row r="666" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:28" ht="16.5" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="2"/>
@@ -21771,7 +21746,7 @@
       <c r="AA666" s="1"/>
       <c r="AB666" s="1"/>
     </row>
-    <row r="667" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:28" ht="16.5" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="2"/>
@@ -21801,7 +21776,7 @@
       <c r="AA667" s="1"/>
       <c r="AB667" s="1"/>
     </row>
-    <row r="668" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:28" ht="16.5" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="2"/>
@@ -21831,7 +21806,7 @@
       <c r="AA668" s="1"/>
       <c r="AB668" s="1"/>
     </row>
-    <row r="669" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:28" ht="16.5" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="2"/>
@@ -21861,7 +21836,7 @@
       <c r="AA669" s="1"/>
       <c r="AB669" s="1"/>
     </row>
-    <row r="670" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:28" ht="16.5" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="2"/>
@@ -21891,7 +21866,7 @@
       <c r="AA670" s="1"/>
       <c r="AB670" s="1"/>
     </row>
-    <row r="671" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:28" ht="16.5" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="2"/>
@@ -21921,7 +21896,7 @@
       <c r="AA671" s="1"/>
       <c r="AB671" s="1"/>
     </row>
-    <row r="672" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:28" ht="16.5" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="2"/>
@@ -21951,7 +21926,7 @@
       <c r="AA672" s="1"/>
       <c r="AB672" s="1"/>
     </row>
-    <row r="673" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:28" ht="16.5" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="2"/>
@@ -21981,7 +21956,7 @@
       <c r="AA673" s="1"/>
       <c r="AB673" s="1"/>
     </row>
-    <row r="674" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:28" ht="16.5" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="2"/>
@@ -22011,7 +21986,7 @@
       <c r="AA674" s="1"/>
       <c r="AB674" s="1"/>
     </row>
-    <row r="675" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:28" ht="16.5" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="2"/>
@@ -22041,7 +22016,7 @@
       <c r="AA675" s="1"/>
       <c r="AB675" s="1"/>
     </row>
-    <row r="676" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:28" ht="16.5" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="2"/>
@@ -22071,7 +22046,7 @@
       <c r="AA676" s="1"/>
       <c r="AB676" s="1"/>
     </row>
-    <row r="677" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:28" ht="16.5" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="2"/>
@@ -22101,7 +22076,7 @@
       <c r="AA677" s="1"/>
       <c r="AB677" s="1"/>
     </row>
-    <row r="678" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:28" ht="16.5" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="2"/>
@@ -22131,7 +22106,7 @@
       <c r="AA678" s="1"/>
       <c r="AB678" s="1"/>
     </row>
-    <row r="679" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:28" ht="16.5" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="2"/>
@@ -22161,7 +22136,7 @@
       <c r="AA679" s="1"/>
       <c r="AB679" s="1"/>
     </row>
-    <row r="680" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:28" ht="16.5" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="2"/>
@@ -22191,7 +22166,7 @@
       <c r="AA680" s="1"/>
       <c r="AB680" s="1"/>
     </row>
-    <row r="681" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:28" ht="16.5" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="2"/>
@@ -22221,7 +22196,7 @@
       <c r="AA681" s="1"/>
       <c r="AB681" s="1"/>
     </row>
-    <row r="682" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:28" ht="16.5" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="2"/>
@@ -22251,7 +22226,7 @@
       <c r="AA682" s="1"/>
       <c r="AB682" s="1"/>
     </row>
-    <row r="683" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:28" ht="16.5" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="2"/>
@@ -22281,7 +22256,7 @@
       <c r="AA683" s="1"/>
       <c r="AB683" s="1"/>
     </row>
-    <row r="684" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:28" ht="16.5" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="2"/>
@@ -22311,7 +22286,7 @@
       <c r="AA684" s="1"/>
       <c r="AB684" s="1"/>
     </row>
-    <row r="685" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:28" ht="16.5" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="2"/>
@@ -22341,7 +22316,7 @@
       <c r="AA685" s="1"/>
       <c r="AB685" s="1"/>
     </row>
-    <row r="686" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:28" ht="16.5" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="2"/>
@@ -22371,7 +22346,7 @@
       <c r="AA686" s="1"/>
       <c r="AB686" s="1"/>
     </row>
-    <row r="687" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:28" ht="16.5" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="2"/>
@@ -22401,7 +22376,7 @@
       <c r="AA687" s="1"/>
       <c r="AB687" s="1"/>
     </row>
-    <row r="688" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:28" ht="16.5" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="2"/>
@@ -22431,7 +22406,7 @@
       <c r="AA688" s="1"/>
       <c r="AB688" s="1"/>
     </row>
-    <row r="689" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:28" ht="16.5" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="2"/>
@@ -22461,7 +22436,7 @@
       <c r="AA689" s="1"/>
       <c r="AB689" s="1"/>
     </row>
-    <row r="690" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:28" ht="16.5" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="2"/>
@@ -22491,7 +22466,7 @@
       <c r="AA690" s="1"/>
       <c r="AB690" s="1"/>
     </row>
-    <row r="691" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:28" ht="16.5" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="2"/>
@@ -22521,7 +22496,7 @@
       <c r="AA691" s="1"/>
       <c r="AB691" s="1"/>
     </row>
-    <row r="692" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:28" ht="16.5" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="2"/>
@@ -22551,7 +22526,7 @@
       <c r="AA692" s="1"/>
       <c r="AB692" s="1"/>
     </row>
-    <row r="693" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:28" ht="16.5" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="2"/>
@@ -22581,7 +22556,7 @@
       <c r="AA693" s="1"/>
       <c r="AB693" s="1"/>
     </row>
-    <row r="694" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:28" ht="16.5" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="2"/>
@@ -22611,7 +22586,7 @@
       <c r="AA694" s="1"/>
       <c r="AB694" s="1"/>
     </row>
-    <row r="695" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:28" ht="16.5" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="2"/>
@@ -22641,7 +22616,7 @@
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
     </row>
-    <row r="696" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:28" ht="16.5" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="2"/>
@@ -22671,7 +22646,7 @@
       <c r="AA696" s="1"/>
       <c r="AB696" s="1"/>
     </row>
-    <row r="697" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:28" ht="16.5" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="2"/>
@@ -22701,7 +22676,7 @@
       <c r="AA697" s="1"/>
       <c r="AB697" s="1"/>
     </row>
-    <row r="698" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:28" ht="16.5" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="2"/>
@@ -22731,7 +22706,7 @@
       <c r="AA698" s="1"/>
       <c r="AB698" s="1"/>
     </row>
-    <row r="699" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:28" ht="16.5" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="2"/>
@@ -22761,7 +22736,7 @@
       <c r="AA699" s="1"/>
       <c r="AB699" s="1"/>
     </row>
-    <row r="700" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:28" ht="16.5" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="2"/>
@@ -22791,7 +22766,7 @@
       <c r="AA700" s="1"/>
       <c r="AB700" s="1"/>
     </row>
-    <row r="701" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:28" ht="16.5" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="2"/>
@@ -22821,7 +22796,7 @@
       <c r="AA701" s="1"/>
       <c r="AB701" s="1"/>
     </row>
-    <row r="702" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:28" ht="16.5" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="2"/>
@@ -22851,7 +22826,7 @@
       <c r="AA702" s="1"/>
       <c r="AB702" s="1"/>
     </row>
-    <row r="703" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:28" ht="16.5" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="2"/>
@@ -22881,7 +22856,7 @@
       <c r="AA703" s="1"/>
       <c r="AB703" s="1"/>
     </row>
-    <row r="704" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:28" ht="16.5" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="2"/>
@@ -22911,7 +22886,7 @@
       <c r="AA704" s="1"/>
       <c r="AB704" s="1"/>
     </row>
-    <row r="705" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:28" ht="16.5" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="2"/>
@@ -22941,7 +22916,7 @@
       <c r="AA705" s="1"/>
       <c r="AB705" s="1"/>
     </row>
-    <row r="706" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:28" ht="16.5" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="2"/>
@@ -22971,7 +22946,7 @@
       <c r="AA706" s="1"/>
       <c r="AB706" s="1"/>
     </row>
-    <row r="707" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:28" ht="16.5" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="2"/>
@@ -23001,7 +22976,7 @@
       <c r="AA707" s="1"/>
       <c r="AB707" s="1"/>
     </row>
-    <row r="708" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:28" ht="16.5" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="2"/>
@@ -23031,7 +23006,7 @@
       <c r="AA708" s="1"/>
       <c r="AB708" s="1"/>
     </row>
-    <row r="709" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:28" ht="16.5" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="2"/>
@@ -23061,7 +23036,7 @@
       <c r="AA709" s="1"/>
       <c r="AB709" s="1"/>
     </row>
-    <row r="710" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:28" ht="16.5" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="2"/>
@@ -23091,7 +23066,7 @@
       <c r="AA710" s="1"/>
       <c r="AB710" s="1"/>
     </row>
-    <row r="711" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:28" ht="16.5" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="2"/>
@@ -23121,7 +23096,7 @@
       <c r="AA711" s="1"/>
       <c r="AB711" s="1"/>
     </row>
-    <row r="712" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:28" ht="16.5" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="2"/>
@@ -23151,7 +23126,7 @@
       <c r="AA712" s="1"/>
       <c r="AB712" s="1"/>
     </row>
-    <row r="713" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:28" ht="16.5" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="2"/>
@@ -23181,7 +23156,7 @@
       <c r="AA713" s="1"/>
       <c r="AB713" s="1"/>
     </row>
-    <row r="714" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:28" ht="16.5" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="2"/>
@@ -23211,7 +23186,7 @@
       <c r="AA714" s="1"/>
       <c r="AB714" s="1"/>
     </row>
-    <row r="715" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:28" ht="16.5" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="2"/>
@@ -23241,7 +23216,7 @@
       <c r="AA715" s="1"/>
       <c r="AB715" s="1"/>
     </row>
-    <row r="716" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:28" ht="16.5" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="2"/>
@@ -23271,7 +23246,7 @@
       <c r="AA716" s="1"/>
       <c r="AB716" s="1"/>
     </row>
-    <row r="717" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:28" ht="16.5" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="2"/>
@@ -23301,7 +23276,7 @@
       <c r="AA717" s="1"/>
       <c r="AB717" s="1"/>
     </row>
-    <row r="718" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:28" ht="16.5" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="2"/>
@@ -23331,7 +23306,7 @@
       <c r="AA718" s="1"/>
       <c r="AB718" s="1"/>
     </row>
-    <row r="719" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:28" ht="16.5" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="2"/>
@@ -23361,7 +23336,7 @@
       <c r="AA719" s="1"/>
       <c r="AB719" s="1"/>
     </row>
-    <row r="720" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:28" ht="16.5" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="2"/>
@@ -23391,7 +23366,7 @@
       <c r="AA720" s="1"/>
       <c r="AB720" s="1"/>
     </row>
-    <row r="721" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:28" ht="16.5" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="2"/>
@@ -23421,7 +23396,7 @@
       <c r="AA721" s="1"/>
       <c r="AB721" s="1"/>
     </row>
-    <row r="722" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:28" ht="16.5" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="2"/>
@@ -23451,7 +23426,7 @@
       <c r="AA722" s="1"/>
       <c r="AB722" s="1"/>
     </row>
-    <row r="723" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:28" ht="16.5" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="2"/>
@@ -23481,7 +23456,7 @@
       <c r="AA723" s="1"/>
       <c r="AB723" s="1"/>
     </row>
-    <row r="724" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:28" ht="16.5" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="2"/>
@@ -23511,7 +23486,7 @@
       <c r="AA724" s="1"/>
       <c r="AB724" s="1"/>
     </row>
-    <row r="725" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:28" ht="16.5" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="2"/>
@@ -23541,7 +23516,7 @@
       <c r="AA725" s="1"/>
       <c r="AB725" s="1"/>
     </row>
-    <row r="726" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:28" ht="16.5" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="2"/>
@@ -23571,7 +23546,7 @@
       <c r="AA726" s="1"/>
       <c r="AB726" s="1"/>
     </row>
-    <row r="727" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:28" ht="16.5" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="2"/>
@@ -23601,7 +23576,7 @@
       <c r="AA727" s="1"/>
       <c r="AB727" s="1"/>
     </row>
-    <row r="728" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:28" ht="16.5" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="2"/>
@@ -23631,7 +23606,7 @@
       <c r="AA728" s="1"/>
       <c r="AB728" s="1"/>
     </row>
-    <row r="729" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:28" ht="16.5" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="2"/>
@@ -23661,7 +23636,7 @@
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
     </row>
-    <row r="730" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:28" ht="16.5" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="2"/>
@@ -23691,7 +23666,7 @@
       <c r="AA730" s="1"/>
       <c r="AB730" s="1"/>
     </row>
-    <row r="731" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:28" ht="16.5" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="2"/>
@@ -23721,7 +23696,7 @@
       <c r="AA731" s="1"/>
       <c r="AB731" s="1"/>
     </row>
-    <row r="732" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:28" ht="16.5" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="2"/>
@@ -23751,7 +23726,7 @@
       <c r="AA732" s="1"/>
       <c r="AB732" s="1"/>
     </row>
-    <row r="733" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:28" ht="16.5" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="2"/>
@@ -23781,7 +23756,7 @@
       <c r="AA733" s="1"/>
       <c r="AB733" s="1"/>
     </row>
-    <row r="734" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:28" ht="16.5" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="2"/>
@@ -23811,7 +23786,7 @@
       <c r="AA734" s="1"/>
       <c r="AB734" s="1"/>
     </row>
-    <row r="735" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:28" ht="16.5" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="2"/>
@@ -23841,7 +23816,7 @@
       <c r="AA735" s="1"/>
       <c r="AB735" s="1"/>
     </row>
-    <row r="736" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:28" ht="16.5" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="2"/>
@@ -23871,7 +23846,7 @@
       <c r="AA736" s="1"/>
       <c r="AB736" s="1"/>
     </row>
-    <row r="737" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:28" ht="16.5" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="2"/>
@@ -23901,7 +23876,7 @@
       <c r="AA737" s="1"/>
       <c r="AB737" s="1"/>
     </row>
-    <row r="738" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:28" ht="16.5" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="2"/>
@@ -23931,7 +23906,7 @@
       <c r="AA738" s="1"/>
       <c r="AB738" s="1"/>
     </row>
-    <row r="739" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:28" ht="16.5" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="2"/>
@@ -23961,7 +23936,7 @@
       <c r="AA739" s="1"/>
       <c r="AB739" s="1"/>
     </row>
-    <row r="740" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:28" ht="16.5" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="2"/>
@@ -23991,7 +23966,7 @@
       <c r="AA740" s="1"/>
       <c r="AB740" s="1"/>
     </row>
-    <row r="741" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:28" ht="16.5" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="2"/>
@@ -24021,7 +23996,7 @@
       <c r="AA741" s="1"/>
       <c r="AB741" s="1"/>
     </row>
-    <row r="742" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:28" ht="16.5" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="2"/>
@@ -24051,7 +24026,7 @@
       <c r="AA742" s="1"/>
       <c r="AB742" s="1"/>
     </row>
-    <row r="743" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:28" ht="16.5" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="2"/>
@@ -24081,7 +24056,7 @@
       <c r="AA743" s="1"/>
       <c r="AB743" s="1"/>
     </row>
-    <row r="744" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:28" ht="16.5" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="2"/>
@@ -24111,7 +24086,7 @@
       <c r="AA744" s="1"/>
       <c r="AB744" s="1"/>
     </row>
-    <row r="745" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:28" ht="16.5" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="2"/>
@@ -24141,7 +24116,7 @@
       <c r="AA745" s="1"/>
       <c r="AB745" s="1"/>
     </row>
-    <row r="746" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:28" ht="16.5" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="2"/>
@@ -24171,7 +24146,7 @@
       <c r="AA746" s="1"/>
       <c r="AB746" s="1"/>
     </row>
-    <row r="747" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:28" ht="16.5" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="2"/>
@@ -24201,7 +24176,7 @@
       <c r="AA747" s="1"/>
       <c r="AB747" s="1"/>
     </row>
-    <row r="748" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:28" ht="16.5" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="2"/>
@@ -24231,7 +24206,7 @@
       <c r="AA748" s="1"/>
       <c r="AB748" s="1"/>
     </row>
-    <row r="749" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:28" ht="16.5" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="2"/>
@@ -24261,7 +24236,7 @@
       <c r="AA749" s="1"/>
       <c r="AB749" s="1"/>
     </row>
-    <row r="750" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:28" ht="16.5" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="2"/>
@@ -24291,7 +24266,7 @@
       <c r="AA750" s="1"/>
       <c r="AB750" s="1"/>
     </row>
-    <row r="751" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:28" ht="16.5" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="2"/>
@@ -24321,7 +24296,7 @@
       <c r="AA751" s="1"/>
       <c r="AB751" s="1"/>
     </row>
-    <row r="752" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:28" ht="16.5" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="2"/>
@@ -24351,7 +24326,7 @@
       <c r="AA752" s="1"/>
       <c r="AB752" s="1"/>
     </row>
-    <row r="753" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:28" ht="16.5" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="2"/>
@@ -24381,7 +24356,7 @@
       <c r="AA753" s="1"/>
       <c r="AB753" s="1"/>
     </row>
-    <row r="754" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:28" ht="16.5" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="2"/>
@@ -24411,7 +24386,7 @@
       <c r="AA754" s="1"/>
       <c r="AB754" s="1"/>
     </row>
-    <row r="755" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:28" ht="16.5" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="2"/>
@@ -24441,7 +24416,7 @@
       <c r="AA755" s="1"/>
       <c r="AB755" s="1"/>
     </row>
-    <row r="756" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:28" ht="16.5" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="2"/>
@@ -24471,7 +24446,7 @@
       <c r="AA756" s="1"/>
       <c r="AB756" s="1"/>
     </row>
-    <row r="757" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:28" ht="16.5" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="2"/>
@@ -24501,7 +24476,7 @@
       <c r="AA757" s="1"/>
       <c r="AB757" s="1"/>
     </row>
-    <row r="758" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:28" ht="16.5" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="2"/>
@@ -24531,7 +24506,7 @@
       <c r="AA758" s="1"/>
       <c r="AB758" s="1"/>
     </row>
-    <row r="759" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:28" ht="16.5" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="2"/>
@@ -24561,7 +24536,7 @@
       <c r="AA759" s="1"/>
       <c r="AB759" s="1"/>
     </row>
-    <row r="760" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:28" ht="16.5" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="2"/>
@@ -24591,7 +24566,7 @@
       <c r="AA760" s="1"/>
       <c r="AB760" s="1"/>
     </row>
-    <row r="761" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:28" ht="16.5" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="2"/>
@@ -24621,7 +24596,7 @@
       <c r="AA761" s="1"/>
       <c r="AB761" s="1"/>
     </row>
-    <row r="762" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:28" ht="16.5" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="2"/>
@@ -24651,7 +24626,7 @@
       <c r="AA762" s="1"/>
       <c r="AB762" s="1"/>
     </row>
-    <row r="763" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:28" ht="16.5" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="2"/>
@@ -24681,7 +24656,7 @@
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
     </row>
-    <row r="764" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:28" ht="16.5" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="2"/>
@@ -24711,7 +24686,7 @@
       <c r="AA764" s="1"/>
       <c r="AB764" s="1"/>
     </row>
-    <row r="765" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:28" ht="16.5" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="2"/>
@@ -24741,7 +24716,7 @@
       <c r="AA765" s="1"/>
       <c r="AB765" s="1"/>
     </row>
-    <row r="766" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:28" ht="16.5" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="2"/>
@@ -24771,7 +24746,7 @@
       <c r="AA766" s="1"/>
       <c r="AB766" s="1"/>
     </row>
-    <row r="767" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:28" ht="16.5" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="2"/>
@@ -24801,7 +24776,7 @@
       <c r="AA767" s="1"/>
       <c r="AB767" s="1"/>
     </row>
-    <row r="768" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:28" ht="16.5" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="2"/>
@@ -24831,7 +24806,7 @@
       <c r="AA768" s="1"/>
       <c r="AB768" s="1"/>
     </row>
-    <row r="769" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:28" ht="16.5" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="2"/>
@@ -24861,7 +24836,7 @@
       <c r="AA769" s="1"/>
       <c r="AB769" s="1"/>
     </row>
-    <row r="770" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:28" ht="16.5" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="2"/>
@@ -24891,7 +24866,7 @@
       <c r="AA770" s="1"/>
       <c r="AB770" s="1"/>
     </row>
-    <row r="771" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:28" ht="16.5" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="2"/>
@@ -24921,7 +24896,7 @@
       <c r="AA771" s="1"/>
       <c r="AB771" s="1"/>
     </row>
-    <row r="772" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:28" ht="16.5" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="2"/>
@@ -24951,7 +24926,7 @@
       <c r="AA772" s="1"/>
       <c r="AB772" s="1"/>
     </row>
-    <row r="773" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:28" ht="16.5" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="2"/>
@@ -24981,7 +24956,7 @@
       <c r="AA773" s="1"/>
       <c r="AB773" s="1"/>
     </row>
-    <row r="774" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:28" ht="16.5" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="2"/>
@@ -25011,7 +24986,7 @@
       <c r="AA774" s="1"/>
       <c r="AB774" s="1"/>
     </row>
-    <row r="775" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:28" ht="16.5" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="2"/>
@@ -25041,7 +25016,7 @@
       <c r="AA775" s="1"/>
       <c r="AB775" s="1"/>
     </row>
-    <row r="776" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:28" ht="16.5" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="2"/>
@@ -25071,7 +25046,7 @@
       <c r="AA776" s="1"/>
       <c r="AB776" s="1"/>
     </row>
-    <row r="777" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:28" ht="16.5" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="2"/>
@@ -25101,7 +25076,7 @@
       <c r="AA777" s="1"/>
       <c r="AB777" s="1"/>
     </row>
-    <row r="778" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:28" ht="16.5" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="2"/>
@@ -25131,7 +25106,7 @@
       <c r="AA778" s="1"/>
       <c r="AB778" s="1"/>
     </row>
-    <row r="779" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:28" ht="16.5" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="2"/>
@@ -25161,7 +25136,7 @@
       <c r="AA779" s="1"/>
       <c r="AB779" s="1"/>
     </row>
-    <row r="780" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:28" ht="16.5" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="2"/>
@@ -25191,7 +25166,7 @@
       <c r="AA780" s="1"/>
       <c r="AB780" s="1"/>
     </row>
-    <row r="781" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:28" ht="16.5" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="2"/>
@@ -25221,7 +25196,7 @@
       <c r="AA781" s="1"/>
       <c r="AB781" s="1"/>
     </row>
-    <row r="782" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:28" ht="16.5" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="2"/>
@@ -25251,7 +25226,7 @@
       <c r="AA782" s="1"/>
       <c r="AB782" s="1"/>
     </row>
-    <row r="783" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:28" ht="16.5" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="2"/>
@@ -25281,7 +25256,7 @@
       <c r="AA783" s="1"/>
       <c r="AB783" s="1"/>
     </row>
-    <row r="784" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:28" ht="16.5" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="2"/>
@@ -25311,7 +25286,7 @@
       <c r="AA784" s="1"/>
       <c r="AB784" s="1"/>
     </row>
-    <row r="785" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:28" ht="16.5" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="2"/>
@@ -25341,7 +25316,7 @@
       <c r="AA785" s="1"/>
       <c r="AB785" s="1"/>
     </row>
-    <row r="786" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:28" ht="16.5" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="2"/>
@@ -25371,7 +25346,7 @@
       <c r="AA786" s="1"/>
       <c r="AB786" s="1"/>
     </row>
-    <row r="787" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:28" ht="16.5" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="2"/>
@@ -25401,7 +25376,7 @@
       <c r="AA787" s="1"/>
       <c r="AB787" s="1"/>
     </row>
-    <row r="788" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:28" ht="16.5" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="2"/>
@@ -25431,7 +25406,7 @@
       <c r="AA788" s="1"/>
       <c r="AB788" s="1"/>
     </row>
-    <row r="789" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:28" ht="16.5" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="2"/>
@@ -25461,7 +25436,7 @@
       <c r="AA789" s="1"/>
       <c r="AB789" s="1"/>
     </row>
-    <row r="790" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:28" ht="16.5" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="2"/>
@@ -25491,7 +25466,7 @@
       <c r="AA790" s="1"/>
       <c r="AB790" s="1"/>
     </row>
-    <row r="791" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:28" ht="16.5" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="2"/>
@@ -25521,7 +25496,7 @@
       <c r="AA791" s="1"/>
       <c r="AB791" s="1"/>
     </row>
-    <row r="792" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:28" ht="16.5" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="2"/>
@@ -25551,7 +25526,7 @@
       <c r="AA792" s="1"/>
       <c r="AB792" s="1"/>
     </row>
-    <row r="793" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:28" ht="16.5" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="2"/>
@@ -25581,7 +25556,7 @@
       <c r="AA793" s="1"/>
       <c r="AB793" s="1"/>
     </row>
-    <row r="794" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:28" ht="16.5" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="2"/>
@@ -25611,7 +25586,7 @@
       <c r="AA794" s="1"/>
       <c r="AB794" s="1"/>
     </row>
-    <row r="795" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:28" ht="16.5" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="2"/>
@@ -25641,7 +25616,7 @@
       <c r="AA795" s="1"/>
       <c r="AB795" s="1"/>
     </row>
-    <row r="796" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:28" ht="16.5" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="2"/>
@@ -25671,7 +25646,7 @@
       <c r="AA796" s="1"/>
       <c r="AB796" s="1"/>
     </row>
-    <row r="797" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:28" ht="16.5" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="2"/>
@@ -25701,7 +25676,7 @@
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
     </row>
-    <row r="798" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:28" ht="16.5" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="2"/>
@@ -25731,7 +25706,7 @@
       <c r="AA798" s="1"/>
       <c r="AB798" s="1"/>
     </row>
-    <row r="799" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:28" ht="16.5" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="2"/>
@@ -25761,7 +25736,7 @@
       <c r="AA799" s="1"/>
       <c r="AB799" s="1"/>
     </row>
-    <row r="800" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:28" ht="16.5" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="2"/>
@@ -25791,7 +25766,7 @@
       <c r="AA800" s="1"/>
       <c r="AB800" s="1"/>
     </row>
-    <row r="801" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:28" ht="16.5" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="2"/>
@@ -25821,7 +25796,7 @@
       <c r="AA801" s="1"/>
       <c r="AB801" s="1"/>
     </row>
-    <row r="802" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:28" ht="16.5" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="2"/>
@@ -25851,7 +25826,7 @@
       <c r="AA802" s="1"/>
       <c r="AB802" s="1"/>
     </row>
-    <row r="803" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:28" ht="16.5" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="2"/>
@@ -25881,7 +25856,7 @@
       <c r="AA803" s="1"/>
       <c r="AB803" s="1"/>
     </row>
-    <row r="804" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:28" ht="16.5" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="2"/>
@@ -25911,7 +25886,7 @@
       <c r="AA804" s="1"/>
       <c r="AB804" s="1"/>
     </row>
-    <row r="805" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:28" ht="16.5" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="2"/>
@@ -25941,7 +25916,7 @@
       <c r="AA805" s="1"/>
       <c r="AB805" s="1"/>
     </row>
-    <row r="806" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:28" ht="16.5" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="2"/>
@@ -25971,7 +25946,7 @@
       <c r="AA806" s="1"/>
       <c r="AB806" s="1"/>
     </row>
-    <row r="807" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:28" ht="16.5" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="2"/>
@@ -26001,7 +25976,7 @@
       <c r="AA807" s="1"/>
       <c r="AB807" s="1"/>
     </row>
-    <row r="808" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:28" ht="16.5" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="2"/>
@@ -26031,7 +26006,7 @@
       <c r="AA808" s="1"/>
       <c r="AB808" s="1"/>
     </row>
-    <row r="809" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:28" ht="16.5" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="2"/>
@@ -26061,7 +26036,7 @@
       <c r="AA809" s="1"/>
       <c r="AB809" s="1"/>
     </row>
-    <row r="810" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:28" ht="16.5" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="2"/>
@@ -26091,7 +26066,7 @@
       <c r="AA810" s="1"/>
       <c r="AB810" s="1"/>
     </row>
-    <row r="811" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:28" ht="16.5" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="2"/>
@@ -26121,7 +26096,7 @@
       <c r="AA811" s="1"/>
       <c r="AB811" s="1"/>
     </row>
-    <row r="812" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:28" ht="16.5" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="2"/>
@@ -26151,7 +26126,7 @@
       <c r="AA812" s="1"/>
       <c r="AB812" s="1"/>
     </row>
-    <row r="813" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:28" ht="16.5" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="2"/>
@@ -26181,7 +26156,7 @@
       <c r="AA813" s="1"/>
       <c r="AB813" s="1"/>
     </row>
-    <row r="814" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:28" ht="16.5" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="2"/>
@@ -26211,7 +26186,7 @@
       <c r="AA814" s="1"/>
       <c r="AB814" s="1"/>
     </row>
-    <row r="815" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:28" ht="16.5" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="2"/>
@@ -26241,7 +26216,7 @@
       <c r="AA815" s="1"/>
       <c r="AB815" s="1"/>
     </row>
-    <row r="816" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:28" ht="16.5" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="2"/>
@@ -26271,7 +26246,7 @@
       <c r="AA816" s="1"/>
       <c r="AB816" s="1"/>
     </row>
-    <row r="817" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:28" ht="16.5" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="2"/>
@@ -26301,7 +26276,7 @@
       <c r="AA817" s="1"/>
       <c r="AB817" s="1"/>
     </row>
-    <row r="818" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:28" ht="16.5" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="2"/>
@@ -26331,7 +26306,7 @@
       <c r="AA818" s="1"/>
       <c r="AB818" s="1"/>
     </row>
-    <row r="819" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:28" ht="16.5" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="2"/>
@@ -26361,7 +26336,7 @@
       <c r="AA819" s="1"/>
       <c r="AB819" s="1"/>
     </row>
-    <row r="820" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:28" ht="16.5" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="2"/>
@@ -26391,7 +26366,7 @@
       <c r="AA820" s="1"/>
       <c r="AB820" s="1"/>
     </row>
-    <row r="821" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:28" ht="16.5" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="2"/>
@@ -26421,7 +26396,7 @@
       <c r="AA821" s="1"/>
       <c r="AB821" s="1"/>
     </row>
-    <row r="822" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:28" ht="16.5" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="2"/>
@@ -26451,7 +26426,7 @@
       <c r="AA822" s="1"/>
       <c r="AB822" s="1"/>
     </row>
-    <row r="823" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:28" ht="16.5" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="2"/>
@@ -26481,7 +26456,7 @@
       <c r="AA823" s="1"/>
       <c r="AB823" s="1"/>
     </row>
-    <row r="824" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:28" ht="16.5" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="2"/>
@@ -26511,7 +26486,7 @@
       <c r="AA824" s="1"/>
       <c r="AB824" s="1"/>
     </row>
-    <row r="825" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:28" ht="16.5" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="2"/>
@@ -26541,7 +26516,7 @@
       <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
     </row>
-    <row r="826" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:28" ht="16.5" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="2"/>
@@ -26571,7 +26546,7 @@
       <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
     </row>
-    <row r="827" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:28" ht="16.5" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="2"/>
@@ -26601,7 +26576,7 @@
       <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
     </row>
-    <row r="828" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:28" ht="16.5" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="2"/>
@@ -26631,7 +26606,7 @@
       <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
     </row>
-    <row r="829" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:28" ht="16.5" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="2"/>
@@ -26661,7 +26636,7 @@
       <c r="AA829" s="1"/>
       <c r="AB829" s="1"/>
     </row>
-    <row r="830" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:28" ht="16.5" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="2"/>
@@ -26691,7 +26666,7 @@
       <c r="AA830" s="1"/>
       <c r="AB830" s="1"/>
     </row>
-    <row r="831" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:28" ht="16.5" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="2"/>
@@ -26721,7 +26696,7 @@
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
     </row>
-    <row r="832" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:28" ht="16.5" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="2"/>
@@ -26751,7 +26726,7 @@
       <c r="AA832" s="1"/>
       <c r="AB832" s="1"/>
     </row>
-    <row r="833" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:28" ht="16.5" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="2"/>
@@ -26781,7 +26756,7 @@
       <c r="AA833" s="1"/>
       <c r="AB833" s="1"/>
     </row>
-    <row r="834" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:28" ht="16.5" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="2"/>
@@ -26811,7 +26786,7 @@
       <c r="AA834" s="1"/>
       <c r="AB834" s="1"/>
     </row>
-    <row r="835" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:28" ht="16.5" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="2"/>
@@ -26841,7 +26816,7 @@
       <c r="AA835" s="1"/>
       <c r="AB835" s="1"/>
     </row>
-    <row r="836" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:28" ht="16.5" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="2"/>
@@ -26871,7 +26846,7 @@
       <c r="AA836" s="1"/>
       <c r="AB836" s="1"/>
     </row>
-    <row r="837" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:28" ht="16.5" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="2"/>
@@ -26901,7 +26876,7 @@
       <c r="AA837" s="1"/>
       <c r="AB837" s="1"/>
     </row>
-    <row r="838" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:28" ht="16.5" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="2"/>
@@ -26931,7 +26906,7 @@
       <c r="AA838" s="1"/>
       <c r="AB838" s="1"/>
     </row>
-    <row r="839" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:28" ht="16.5" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="2"/>
@@ -26961,7 +26936,7 @@
       <c r="AA839" s="1"/>
       <c r="AB839" s="1"/>
     </row>
-    <row r="840" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:28" ht="16.5" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="2"/>
@@ -26991,7 +26966,7 @@
       <c r="AA840" s="1"/>
       <c r="AB840" s="1"/>
     </row>
-    <row r="841" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:28" ht="16.5" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="2"/>
@@ -27021,7 +26996,7 @@
       <c r="AA841" s="1"/>
       <c r="AB841" s="1"/>
     </row>
-    <row r="842" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:28" ht="16.5" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="2"/>
@@ -27051,7 +27026,7 @@
       <c r="AA842" s="1"/>
       <c r="AB842" s="1"/>
     </row>
-    <row r="843" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:28" ht="16.5" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="2"/>
@@ -27081,7 +27056,7 @@
       <c r="AA843" s="1"/>
       <c r="AB843" s="1"/>
     </row>
-    <row r="844" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:28" ht="16.5" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="2"/>
@@ -27111,7 +27086,7 @@
       <c r="AA844" s="1"/>
       <c r="AB844" s="1"/>
     </row>
-    <row r="845" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:28" ht="16.5" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="2"/>
@@ -27141,7 +27116,7 @@
       <c r="AA845" s="1"/>
       <c r="AB845" s="1"/>
     </row>
-    <row r="846" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:28" ht="16.5" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="2"/>
@@ -27171,7 +27146,7 @@
       <c r="AA846" s="1"/>
       <c r="AB846" s="1"/>
     </row>
-    <row r="847" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:28" ht="16.5" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="2"/>
@@ -27201,7 +27176,7 @@
       <c r="AA847" s="1"/>
       <c r="AB847" s="1"/>
     </row>
-    <row r="848" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:28" ht="16.5" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="2"/>
@@ -27231,7 +27206,7 @@
       <c r="AA848" s="1"/>
       <c r="AB848" s="1"/>
     </row>
-    <row r="849" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:28" ht="16.5" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="2"/>
@@ -27261,7 +27236,7 @@
       <c r="AA849" s="1"/>
       <c r="AB849" s="1"/>
     </row>
-    <row r="850" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:28" ht="16.5" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="2"/>
@@ -27291,7 +27266,7 @@
       <c r="AA850" s="1"/>
       <c r="AB850" s="1"/>
     </row>
-    <row r="851" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:28" ht="16.5" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="2"/>
@@ -27321,7 +27296,7 @@
       <c r="AA851" s="1"/>
       <c r="AB851" s="1"/>
     </row>
-    <row r="852" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:28" ht="16.5" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="2"/>
@@ -27351,7 +27326,7 @@
       <c r="AA852" s="1"/>
       <c r="AB852" s="1"/>
     </row>
-    <row r="853" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:28" ht="16.5" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="2"/>
@@ -27381,7 +27356,7 @@
       <c r="AA853" s="1"/>
       <c r="AB853" s="1"/>
     </row>
-    <row r="854" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:28" ht="16.5" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="2"/>
@@ -27411,7 +27386,7 @@
       <c r="AA854" s="1"/>
       <c r="AB854" s="1"/>
     </row>
-    <row r="855" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:28" ht="16.5" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="2"/>
@@ -27441,7 +27416,7 @@
       <c r="AA855" s="1"/>
       <c r="AB855" s="1"/>
     </row>
-    <row r="856" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:28" ht="16.5" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="2"/>
@@ -27471,7 +27446,7 @@
       <c r="AA856" s="1"/>
       <c r="AB856" s="1"/>
     </row>
-    <row r="857" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:28" ht="16.5" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="2"/>
@@ -27501,7 +27476,7 @@
       <c r="AA857" s="1"/>
       <c r="AB857" s="1"/>
     </row>
-    <row r="858" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:28" ht="16.5" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="2"/>
@@ -27531,7 +27506,7 @@
       <c r="AA858" s="1"/>
       <c r="AB858" s="1"/>
     </row>
-    <row r="859" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:28" ht="16.5" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="2"/>
@@ -27561,7 +27536,7 @@
       <c r="AA859" s="1"/>
       <c r="AB859" s="1"/>
     </row>
-    <row r="860" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:28" ht="16.5" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="2"/>
@@ -27591,7 +27566,7 @@
       <c r="AA860" s="1"/>
       <c r="AB860" s="1"/>
     </row>
-    <row r="861" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:28" ht="16.5" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="2"/>
@@ -27621,7 +27596,7 @@
       <c r="AA861" s="1"/>
       <c r="AB861" s="1"/>
     </row>
-    <row r="862" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:28" ht="16.5" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="2"/>
@@ -27651,7 +27626,7 @@
       <c r="AA862" s="1"/>
       <c r="AB862" s="1"/>
     </row>
-    <row r="863" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:28" ht="16.5" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="2"/>
@@ -27681,7 +27656,7 @@
       <c r="AA863" s="1"/>
       <c r="AB863" s="1"/>
     </row>
-    <row r="864" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:28" ht="16.5" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="2"/>
@@ -27711,7 +27686,7 @@
       <c r="AA864" s="1"/>
       <c r="AB864" s="1"/>
     </row>
-    <row r="865" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:28" ht="16.5" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="2"/>
@@ -27741,7 +27716,7 @@
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
     </row>
-    <row r="866" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:28" ht="16.5" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="2"/>
@@ -27771,7 +27746,7 @@
       <c r="AA866" s="1"/>
       <c r="AB866" s="1"/>
     </row>
-    <row r="867" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:28" ht="16.5" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="2"/>
@@ -27801,7 +27776,7 @@
       <c r="AA867" s="1"/>
       <c r="AB867" s="1"/>
     </row>
-    <row r="868" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:28" ht="16.5" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="2"/>
@@ -27831,7 +27806,7 @@
       <c r="AA868" s="1"/>
       <c r="AB868" s="1"/>
     </row>
-    <row r="869" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:28" ht="16.5" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="2"/>
@@ -27861,7 +27836,7 @@
       <c r="AA869" s="1"/>
       <c r="AB869" s="1"/>
     </row>
-    <row r="870" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:28" ht="16.5" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="2"/>
@@ -27891,7 +27866,7 @@
       <c r="AA870" s="1"/>
       <c r="AB870" s="1"/>
     </row>
-    <row r="871" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:28" ht="16.5" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="2"/>
@@ -27921,7 +27896,7 @@
       <c r="AA871" s="1"/>
       <c r="AB871" s="1"/>
     </row>
-    <row r="872" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:28" ht="16.5" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="2"/>
@@ -27951,7 +27926,7 @@
       <c r="AA872" s="1"/>
       <c r="AB872" s="1"/>
     </row>
-    <row r="873" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:28" ht="16.5" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="2"/>
@@ -27981,7 +27956,7 @@
       <c r="AA873" s="1"/>
       <c r="AB873" s="1"/>
     </row>
-    <row r="874" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:28" ht="16.5" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="2"/>
@@ -28011,7 +27986,7 @@
       <c r="AA874" s="1"/>
       <c r="AB874" s="1"/>
     </row>
-    <row r="875" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:28" ht="16.5" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="2"/>
@@ -28041,7 +28016,7 @@
       <c r="AA875" s="1"/>
       <c r="AB875" s="1"/>
     </row>
-    <row r="876" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:28" ht="16.5" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="2"/>
@@ -28071,7 +28046,7 @@
       <c r="AA876" s="1"/>
       <c r="AB876" s="1"/>
     </row>
-    <row r="877" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:28" ht="16.5" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="2"/>
@@ -28101,7 +28076,7 @@
       <c r="AA877" s="1"/>
       <c r="AB877" s="1"/>
     </row>
-    <row r="878" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:28" ht="16.5" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="2"/>
@@ -28131,7 +28106,7 @@
       <c r="AA878" s="1"/>
       <c r="AB878" s="1"/>
     </row>
-    <row r="879" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:28" ht="16.5" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="2"/>
@@ -28161,7 +28136,7 @@
       <c r="AA879" s="1"/>
       <c r="AB879" s="1"/>
     </row>
-    <row r="880" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:28" ht="16.5" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="2"/>
@@ -28191,7 +28166,7 @@
       <c r="AA880" s="1"/>
       <c r="AB880" s="1"/>
     </row>
-    <row r="881" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:28" ht="16.5" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="2"/>
@@ -28221,7 +28196,7 @@
       <c r="AA881" s="1"/>
       <c r="AB881" s="1"/>
     </row>
-    <row r="882" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:28" ht="16.5" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="2"/>
@@ -28251,7 +28226,7 @@
       <c r="AA882" s="1"/>
       <c r="AB882" s="1"/>
     </row>
-    <row r="883" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:28" ht="16.5" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="2"/>
@@ -28281,7 +28256,7 @@
       <c r="AA883" s="1"/>
       <c r="AB883" s="1"/>
     </row>
-    <row r="884" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:28" ht="16.5" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="2"/>
@@ -28311,7 +28286,7 @@
       <c r="AA884" s="1"/>
       <c r="AB884" s="1"/>
     </row>
-    <row r="885" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:28" ht="16.5" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="2"/>
@@ -28341,7 +28316,7 @@
       <c r="AA885" s="1"/>
       <c r="AB885" s="1"/>
     </row>
-    <row r="886" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:28" ht="16.5" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="2"/>
@@ -28371,7 +28346,7 @@
       <c r="AA886" s="1"/>
       <c r="AB886" s="1"/>
     </row>
-    <row r="887" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:28" ht="16.5" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="2"/>
@@ -28401,7 +28376,7 @@
       <c r="AA887" s="1"/>
       <c r="AB887" s="1"/>
     </row>
-    <row r="888" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:28" ht="16.5" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="2"/>
@@ -28431,7 +28406,7 @@
       <c r="AA888" s="1"/>
       <c r="AB888" s="1"/>
     </row>
-    <row r="889" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:28" ht="16.5" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="2"/>
@@ -28461,7 +28436,7 @@
       <c r="AA889" s="1"/>
       <c r="AB889" s="1"/>
     </row>
-    <row r="890" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:28" ht="16.5" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="2"/>
@@ -28491,7 +28466,7 @@
       <c r="AA890" s="1"/>
       <c r="AB890" s="1"/>
     </row>
-    <row r="891" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:28" ht="16.5" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="2"/>
@@ -28521,7 +28496,7 @@
       <c r="AA891" s="1"/>
       <c r="AB891" s="1"/>
     </row>
-    <row r="892" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:28" ht="16.5" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="2"/>
@@ -28551,7 +28526,7 @@
       <c r="AA892" s="1"/>
       <c r="AB892" s="1"/>
     </row>
-    <row r="893" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:28" ht="16.5" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="2"/>
@@ -28581,7 +28556,7 @@
       <c r="AA893" s="1"/>
       <c r="AB893" s="1"/>
     </row>
-    <row r="894" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:28" ht="16.5" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="2"/>
@@ -28611,7 +28586,7 @@
       <c r="AA894" s="1"/>
       <c r="AB894" s="1"/>
     </row>
-    <row r="895" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:28" ht="16.5" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="2"/>
@@ -28641,7 +28616,7 @@
       <c r="AA895" s="1"/>
       <c r="AB895" s="1"/>
     </row>
-    <row r="896" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:28" ht="16.5" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="2"/>
@@ -28671,7 +28646,7 @@
       <c r="AA896" s="1"/>
       <c r="AB896" s="1"/>
     </row>
-    <row r="897" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:28" ht="16.5" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="2"/>
@@ -28701,7 +28676,7 @@
       <c r="AA897" s="1"/>
       <c r="AB897" s="1"/>
     </row>
-    <row r="898" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:28" ht="16.5" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="2"/>
@@ -28731,7 +28706,7 @@
       <c r="AA898" s="1"/>
       <c r="AB898" s="1"/>
     </row>
-    <row r="899" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:28" ht="16.5" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="2"/>
@@ -28761,7 +28736,7 @@
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
     </row>
-    <row r="900" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:28" ht="16.5" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="2"/>
@@ -28791,7 +28766,7 @@
       <c r="AA900" s="1"/>
       <c r="AB900" s="1"/>
     </row>
-    <row r="901" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:28" ht="16.5" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="2"/>
@@ -28821,7 +28796,7 @@
       <c r="AA901" s="1"/>
       <c r="AB901" s="1"/>
     </row>
-    <row r="902" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:28" ht="16.5" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="2"/>
@@ -28851,7 +28826,7 @@
       <c r="AA902" s="1"/>
       <c r="AB902" s="1"/>
     </row>
-    <row r="903" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:28" ht="16.5" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="2"/>
@@ -28881,7 +28856,7 @@
       <c r="AA903" s="1"/>
       <c r="AB903" s="1"/>
     </row>
-    <row r="904" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:28" ht="16.5" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="2"/>
@@ -28911,7 +28886,7 @@
       <c r="AA904" s="1"/>
       <c r="AB904" s="1"/>
     </row>
-    <row r="905" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:28" ht="16.5" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="2"/>
@@ -28941,7 +28916,7 @@
       <c r="AA905" s="1"/>
       <c r="AB905" s="1"/>
     </row>
-    <row r="906" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:28" ht="16.5" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="2"/>
@@ -28971,7 +28946,7 @@
       <c r="AA906" s="1"/>
       <c r="AB906" s="1"/>
     </row>
-    <row r="907" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:28" ht="16.5" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="2"/>
@@ -29001,7 +28976,7 @@
       <c r="AA907" s="1"/>
       <c r="AB907" s="1"/>
     </row>
-    <row r="908" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:28" ht="16.5" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="2"/>
@@ -29031,7 +29006,7 @@
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
     </row>
-    <row r="909" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:28" ht="16.5" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="2"/>
@@ -29061,7 +29036,7 @@
       <c r="AA909" s="1"/>
       <c r="AB909" s="1"/>
     </row>
-    <row r="910" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:28" ht="16.5" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="2"/>
@@ -29091,7 +29066,7 @@
       <c r="AA910" s="1"/>
       <c r="AB910" s="1"/>
     </row>
-    <row r="911" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:28" ht="16.5" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="2"/>
@@ -29121,7 +29096,7 @@
       <c r="AA911" s="1"/>
       <c r="AB911" s="1"/>
     </row>
-    <row r="912" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:28" ht="16.5" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="2"/>
@@ -29151,7 +29126,7 @@
       <c r="AA912" s="1"/>
       <c r="AB912" s="1"/>
     </row>
-    <row r="913" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:28" ht="16.5" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="2"/>
@@ -29181,7 +29156,7 @@
       <c r="AA913" s="1"/>
       <c r="AB913" s="1"/>
     </row>
-    <row r="914" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:28" ht="16.5" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="2"/>
@@ -29211,7 +29186,7 @@
       <c r="AA914" s="1"/>
       <c r="AB914" s="1"/>
     </row>
-    <row r="915" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:28" ht="16.5" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="2"/>
@@ -29241,7 +29216,7 @@
       <c r="AA915" s="1"/>
       <c r="AB915" s="1"/>
     </row>
-    <row r="916" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:28" ht="16.5" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="2"/>
@@ -29271,7 +29246,7 @@
       <c r="AA916" s="1"/>
       <c r="AB916" s="1"/>
     </row>
-    <row r="917" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:28" ht="16.5" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="2"/>
@@ -29301,7 +29276,7 @@
       <c r="AA917" s="1"/>
       <c r="AB917" s="1"/>
     </row>
-    <row r="918" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:28" ht="16.5" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="2"/>
@@ -29331,7 +29306,7 @@
       <c r="AA918" s="1"/>
       <c r="AB918" s="1"/>
     </row>
-    <row r="919" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:28" ht="16.5" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="2"/>
@@ -29361,7 +29336,7 @@
       <c r="AA919" s="1"/>
       <c r="AB919" s="1"/>
     </row>
-    <row r="920" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:28" ht="16.5" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="2"/>
@@ -29391,7 +29366,7 @@
       <c r="AA920" s="1"/>
       <c r="AB920" s="1"/>
     </row>
-    <row r="921" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:28" ht="16.5" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="2"/>
@@ -29421,7 +29396,7 @@
       <c r="AA921" s="1"/>
       <c r="AB921" s="1"/>
     </row>
-    <row r="922" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:28" ht="16.5" customHeight="1">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="2"/>
@@ -29451,7 +29426,7 @@
       <c r="AA922" s="1"/>
       <c r="AB922" s="1"/>
     </row>
-    <row r="923" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:28" ht="16.5" customHeight="1">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="2"/>
@@ -29481,7 +29456,7 @@
       <c r="AA923" s="1"/>
       <c r="AB923" s="1"/>
     </row>
-    <row r="924" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:28" ht="16.5" customHeight="1">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="2"/>
@@ -29511,7 +29486,7 @@
       <c r="AA924" s="1"/>
       <c r="AB924" s="1"/>
     </row>
-    <row r="925" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:28" ht="16.5" customHeight="1">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="2"/>
@@ -29541,7 +29516,7 @@
       <c r="AA925" s="1"/>
       <c r="AB925" s="1"/>
     </row>
-    <row r="926" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:28" ht="16.5" customHeight="1">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="2"/>
@@ -29571,7 +29546,7 @@
       <c r="AA926" s="1"/>
       <c r="AB926" s="1"/>
     </row>
-    <row r="927" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:28" ht="16.5" customHeight="1">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="2"/>
@@ -29601,7 +29576,7 @@
       <c r="AA927" s="1"/>
       <c r="AB927" s="1"/>
     </row>
-    <row r="928" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:28" ht="16.5" customHeight="1">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="2"/>
@@ -29631,7 +29606,7 @@
       <c r="AA928" s="1"/>
       <c r="AB928" s="1"/>
     </row>
-    <row r="929" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:28" ht="16.5" customHeight="1">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="2"/>
@@ -29661,7 +29636,7 @@
       <c r="AA929" s="1"/>
       <c r="AB929" s="1"/>
     </row>
-    <row r="930" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:28" ht="16.5" customHeight="1">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="2"/>
@@ -29691,7 +29666,7 @@
       <c r="AA930" s="1"/>
       <c r="AB930" s="1"/>
     </row>
-    <row r="931" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:28" ht="16.5" customHeight="1">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="2"/>
@@ -29721,7 +29696,7 @@
       <c r="AA931" s="1"/>
       <c r="AB931" s="1"/>
     </row>
-    <row r="932" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:28" ht="16.5" customHeight="1">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="2"/>
@@ -29751,7 +29726,7 @@
       <c r="AA932" s="1"/>
       <c r="AB932" s="1"/>
     </row>
-    <row r="933" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:28" ht="16.5" customHeight="1">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="2"/>
@@ -29781,7 +29756,7 @@
       <c r="AA933" s="1"/>
       <c r="AB933" s="1"/>
     </row>
-    <row r="934" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:28" ht="16.5" customHeight="1">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="2"/>
@@ -29811,7 +29786,7 @@
       <c r="AA934" s="1"/>
       <c r="AB934" s="1"/>
     </row>
-    <row r="935" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:28" ht="16.5" customHeight="1">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="2"/>
@@ -29841,7 +29816,7 @@
       <c r="AA935" s="1"/>
       <c r="AB935" s="1"/>
     </row>
-    <row r="936" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:28" ht="16.5" customHeight="1">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="2"/>
@@ -29871,7 +29846,7 @@
       <c r="AA936" s="1"/>
       <c r="AB936" s="1"/>
     </row>
-    <row r="937" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:28" ht="16.5" customHeight="1">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="2"/>
@@ -29901,7 +29876,7 @@
       <c r="AA937" s="1"/>
       <c r="AB937" s="1"/>
     </row>
-    <row r="938" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:28" ht="16.5" customHeight="1">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="2"/>
@@ -29931,7 +29906,7 @@
       <c r="AA938" s="1"/>
       <c r="AB938" s="1"/>
     </row>
-    <row r="939" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:28" ht="16.5" customHeight="1">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="2"/>
@@ -29961,7 +29936,7 @@
       <c r="AA939" s="1"/>
       <c r="AB939" s="1"/>
     </row>
-    <row r="940" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:28" ht="16.5" customHeight="1">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="2"/>
@@ -29991,7 +29966,7 @@
       <c r="AA940" s="1"/>
       <c r="AB940" s="1"/>
     </row>
-    <row r="941" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:28" ht="16.5" customHeight="1">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="2"/>
@@ -30021,7 +29996,7 @@
       <c r="AA941" s="1"/>
       <c r="AB941" s="1"/>
     </row>
-    <row r="942" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:28" ht="16.5" customHeight="1">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="2"/>
@@ -30051,7 +30026,7 @@
       <c r="AA942" s="1"/>
       <c r="AB942" s="1"/>
     </row>
-    <row r="943" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:28" ht="16.5" customHeight="1">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="2"/>
@@ -30081,7 +30056,7 @@
       <c r="AA943" s="1"/>
       <c r="AB943" s="1"/>
     </row>
-    <row r="944" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:28" ht="16.5" customHeight="1">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="2"/>
@@ -30111,7 +30086,7 @@
       <c r="AA944" s="1"/>
       <c r="AB944" s="1"/>
     </row>
-    <row r="945" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:28" ht="16.5" customHeight="1">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="2"/>
@@ -30141,7 +30116,7 @@
       <c r="AA945" s="1"/>
       <c r="AB945" s="1"/>
     </row>
-    <row r="946" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:28" ht="16.5" customHeight="1">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="2"/>
@@ -30171,7 +30146,7 @@
       <c r="AA946" s="1"/>
       <c r="AB946" s="1"/>
     </row>
-    <row r="947" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:28" ht="16.5" customHeight="1">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="2"/>
@@ -30201,7 +30176,7 @@
       <c r="AA947" s="1"/>
       <c r="AB947" s="1"/>
     </row>
-    <row r="948" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:28" ht="16.5" customHeight="1">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="2"/>
@@ -30231,7 +30206,7 @@
       <c r="AA948" s="1"/>
       <c r="AB948" s="1"/>
     </row>
-    <row r="949" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:28" ht="16.5" customHeight="1">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="2"/>
@@ -30261,7 +30236,7 @@
       <c r="AA949" s="1"/>
       <c r="AB949" s="1"/>
     </row>
-    <row r="950" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:28" ht="16.5" customHeight="1">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="2"/>
@@ -30291,7 +30266,7 @@
       <c r="AA950" s="1"/>
       <c r="AB950" s="1"/>
     </row>
-    <row r="951" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:28" ht="16.5" customHeight="1">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="2"/>
@@ -30321,7 +30296,7 @@
       <c r="AA951" s="1"/>
       <c r="AB951" s="1"/>
     </row>
-    <row r="952" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:28" ht="16.5" customHeight="1">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="2"/>
@@ -30351,7 +30326,7 @@
       <c r="AA952" s="1"/>
       <c r="AB952" s="1"/>
     </row>
-    <row r="953" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:28" ht="16.5" customHeight="1">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="2"/>
@@ -30381,7 +30356,7 @@
       <c r="AA953" s="1"/>
       <c r="AB953" s="1"/>
     </row>
-    <row r="954" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:28" ht="16.5" customHeight="1">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="2"/>
@@ -30411,7 +30386,7 @@
       <c r="AA954" s="1"/>
       <c r="AB954" s="1"/>
     </row>
-    <row r="955" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:28" ht="16.5" customHeight="1">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="2"/>
@@ -30441,7 +30416,7 @@
       <c r="AA955" s="1"/>
       <c r="AB955" s="1"/>
     </row>
-    <row r="956" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:28" ht="16.5" customHeight="1">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="2"/>
@@ -30471,7 +30446,7 @@
       <c r="AA956" s="1"/>
       <c r="AB956" s="1"/>
     </row>
-    <row r="957" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:28" ht="16.5" customHeight="1">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="2"/>
@@ -30501,7 +30476,7 @@
       <c r="AA957" s="1"/>
       <c r="AB957" s="1"/>
     </row>
-    <row r="958" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:28" ht="16.5" customHeight="1">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="2"/>
@@ -30531,7 +30506,7 @@
       <c r="AA958" s="1"/>
       <c r="AB958" s="1"/>
     </row>
-    <row r="959" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:28" ht="16.5" customHeight="1">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="2"/>
@@ -30561,7 +30536,7 @@
       <c r="AA959" s="1"/>
       <c r="AB959" s="1"/>
     </row>
-    <row r="960" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:28" ht="16.5" customHeight="1">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="2"/>
@@ -30591,7 +30566,7 @@
       <c r="AA960" s="1"/>
       <c r="AB960" s="1"/>
     </row>
-    <row r="961" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:28" ht="16.5" customHeight="1">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="2"/>
@@ -30621,7 +30596,7 @@
       <c r="AA961" s="1"/>
       <c r="AB961" s="1"/>
     </row>
-    <row r="962" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:28" ht="16.5" customHeight="1">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="2"/>
@@ -30651,7 +30626,7 @@
       <c r="AA962" s="1"/>
       <c r="AB962" s="1"/>
     </row>
-    <row r="963" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:28" ht="16.5" customHeight="1">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="2"/>
@@ -30681,7 +30656,7 @@
       <c r="AA963" s="1"/>
       <c r="AB963" s="1"/>
     </row>
-    <row r="964" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:28" ht="16.5" customHeight="1">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="2"/>
@@ -30711,7 +30686,7 @@
       <c r="AA964" s="1"/>
       <c r="AB964" s="1"/>
     </row>
-    <row r="965" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:28" ht="16.5" customHeight="1">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="2"/>
@@ -30741,7 +30716,7 @@
       <c r="AA965" s="1"/>
       <c r="AB965" s="1"/>
     </row>
-    <row r="966" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:28" ht="16.5" customHeight="1">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="2"/>
@@ -30771,7 +30746,7 @@
       <c r="AA966" s="1"/>
       <c r="AB966" s="1"/>
     </row>
-    <row r="967" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:28" ht="16.5" customHeight="1">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="2"/>
@@ -30801,7 +30776,7 @@
       <c r="AA967" s="1"/>
       <c r="AB967" s="1"/>
     </row>
-    <row r="968" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:28" ht="16.5" customHeight="1">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="2"/>
@@ -30831,7 +30806,7 @@
       <c r="AA968" s="1"/>
       <c r="AB968" s="1"/>
     </row>
-    <row r="969" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:28" ht="16.5" customHeight="1">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="2"/>
@@ -30861,7 +30836,7 @@
       <c r="AA969" s="1"/>
       <c r="AB969" s="1"/>
     </row>
-    <row r="970" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:28" ht="16.5" customHeight="1">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="2"/>
@@ -30891,7 +30866,7 @@
       <c r="AA970" s="1"/>
       <c r="AB970" s="1"/>
     </row>
-    <row r="971" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:28" ht="16.5" customHeight="1">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="2"/>
@@ -30921,7 +30896,7 @@
       <c r="AA971" s="1"/>
       <c r="AB971" s="1"/>
     </row>
-    <row r="972" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:28" ht="16.5" customHeight="1">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="2"/>
@@ -30951,7 +30926,7 @@
       <c r="AA972" s="1"/>
       <c r="AB972" s="1"/>
     </row>
-    <row r="973" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:28" ht="16.5" customHeight="1">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="2"/>
@@ -30981,7 +30956,7 @@
       <c r="AA973" s="1"/>
       <c r="AB973" s="1"/>
     </row>
-    <row r="974" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:28" ht="16.5" customHeight="1">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="2"/>
@@ -31011,7 +30986,7 @@
       <c r="AA974" s="1"/>
       <c r="AB974" s="1"/>
     </row>
-    <row r="975" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:28" ht="16.5" customHeight="1">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="2"/>
@@ -31041,7 +31016,7 @@
       <c r="AA975" s="1"/>
       <c r="AB975" s="1"/>
     </row>
-    <row r="976" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:28" ht="16.5" customHeight="1">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="2"/>
@@ -31071,7 +31046,7 @@
       <c r="AA976" s="1"/>
       <c r="AB976" s="1"/>
     </row>
-    <row r="977" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:28" ht="16.5" customHeight="1">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="2"/>
@@ -31101,7 +31076,7 @@
       <c r="AA977" s="1"/>
       <c r="AB977" s="1"/>
     </row>
-    <row r="978" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:28" ht="16.5" customHeight="1">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="2"/>
@@ -31131,7 +31106,7 @@
       <c r="AA978" s="1"/>
       <c r="AB978" s="1"/>
     </row>
-    <row r="979" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:28" ht="16.5" customHeight="1">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="2"/>
@@ -31161,7 +31136,7 @@
       <c r="AA979" s="1"/>
       <c r="AB979" s="1"/>
     </row>
-    <row r="980" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:28" ht="16.5" customHeight="1">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="2"/>
@@ -31191,7 +31166,7 @@
       <c r="AA980" s="1"/>
       <c r="AB980" s="1"/>
     </row>
-    <row r="981" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:28" ht="16.5" customHeight="1">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="2"/>
@@ -31221,7 +31196,7 @@
       <c r="AA981" s="1"/>
       <c r="AB981" s="1"/>
     </row>
-    <row r="982" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:28" ht="16.5" customHeight="1">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="2"/>
@@ -31251,7 +31226,7 @@
       <c r="AA982" s="1"/>
       <c r="AB982" s="1"/>
     </row>
-    <row r="983" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:28" ht="16.5" customHeight="1">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="2"/>
@@ -31281,7 +31256,7 @@
       <c r="AA983" s="1"/>
       <c r="AB983" s="1"/>
     </row>
-    <row r="984" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:28" ht="16.5" customHeight="1">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="2"/>
@@ -31311,7 +31286,7 @@
       <c r="AA984" s="1"/>
       <c r="AB984" s="1"/>
     </row>
-    <row r="985" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:28" ht="16.5" customHeight="1">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="2"/>
@@ -31341,7 +31316,7 @@
       <c r="AA985" s="1"/>
       <c r="AB985" s="1"/>
     </row>
-    <row r="986" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:28" ht="16.5" customHeight="1">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="2"/>
@@ -31371,7 +31346,7 @@
       <c r="AA986" s="1"/>
       <c r="AB986" s="1"/>
     </row>
-    <row r="987" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:28" ht="16.5" customHeight="1">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="2"/>
@@ -31401,7 +31376,7 @@
       <c r="AA987" s="1"/>
       <c r="AB987" s="1"/>
     </row>
-    <row r="988" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:28" ht="16.5" customHeight="1">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="2"/>
@@ -31431,7 +31406,7 @@
       <c r="AA988" s="1"/>
       <c r="AB988" s="1"/>
     </row>
-    <row r="989" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:28" ht="16.5" customHeight="1">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="2"/>
@@ -31461,7 +31436,7 @@
       <c r="AA989" s="1"/>
       <c r="AB989" s="1"/>
     </row>
-    <row r="990" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:28" ht="16.5" customHeight="1">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="2"/>
@@ -31491,7 +31466,7 @@
       <c r="AA990" s="1"/>
       <c r="AB990" s="1"/>
     </row>
-    <row r="991" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:28" ht="16.5" customHeight="1">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="2"/>
@@ -31521,7 +31496,7 @@
       <c r="AA991" s="1"/>
       <c r="AB991" s="1"/>
     </row>
-    <row r="992" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:28" ht="16.5" customHeight="1">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="2"/>
@@ -31551,7 +31526,7 @@
       <c r="AA992" s="1"/>
       <c r="AB992" s="1"/>
     </row>
-    <row r="993" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:28" ht="16.5" customHeight="1">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="2"/>
@@ -31581,7 +31556,7 @@
       <c r="AA993" s="1"/>
       <c r="AB993" s="1"/>
     </row>
-    <row r="994" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:28" ht="16.5" customHeight="1">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="2"/>
@@ -31611,7 +31586,7 @@
       <c r="AA994" s="1"/>
       <c r="AB994" s="1"/>
     </row>
-    <row r="995" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:28" ht="16.5" customHeight="1">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="2"/>
@@ -31641,7 +31616,7 @@
       <c r="AA995" s="1"/>
       <c r="AB995" s="1"/>
     </row>
-    <row r="996" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:28" ht="16.5" customHeight="1">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="2"/>
@@ -31671,7 +31646,7 @@
       <c r="AA996" s="1"/>
       <c r="AB996" s="1"/>
     </row>
-    <row r="997" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:28" ht="16.5" customHeight="1">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="2"/>
@@ -31701,7 +31676,7 @@
       <c r="AA997" s="1"/>
       <c r="AB997" s="1"/>
     </row>
-    <row r="998" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:28" ht="16.5" customHeight="1">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="2"/>
@@ -31731,7 +31706,7 @@
       <c r="AA998" s="1"/>
       <c r="AB998" s="1"/>
     </row>
-    <row r="999" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:28" ht="16.5" customHeight="1">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="2"/>
@@ -31761,7 +31736,7 @@
       <c r="AA999" s="1"/>
       <c r="AB999" s="1"/>
     </row>
-    <row r="1000" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="2"/>
@@ -31791,7 +31766,7 @@
       <c r="AA1000" s="1"/>
       <c r="AB1000" s="1"/>
     </row>
-    <row r="1001" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="2"/>
@@ -31821,7 +31796,7 @@
       <c r="AA1001" s="1"/>
       <c r="AB1001" s="1"/>
     </row>
-    <row r="1002" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="2"/>
@@ -31851,7 +31826,7 @@
       <c r="AA1002" s="1"/>
       <c r="AB1002" s="1"/>
     </row>
-    <row r="1003" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="2"/>
@@ -31881,7 +31856,7 @@
       <c r="AA1003" s="1"/>
       <c r="AB1003" s="1"/>
     </row>
-    <row r="1004" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="2"/>
@@ -31911,7 +31886,7 @@
       <c r="AA1004" s="1"/>
       <c r="AB1004" s="1"/>
     </row>
-    <row r="1005" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:28" ht="16.5" customHeight="1">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="2"/>
